--- a/outputs/aht/cb_sales_aht_monthly.xlsx
+++ b/outputs/aht/cb_sales_aht_monthly.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q94"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,40 +524,40 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>42370</v>
+        <v>42979</v>
       </c>
       <c r="C2" t="n">
-        <v>433.3320361870456</v>
+        <v>516.5530944705491</v>
       </c>
       <c r="D2" t="n">
-        <v>380.0929731094523</v>
+        <v>517.9926556441428</v>
       </c>
       <c r="E2" t="n">
-        <v>448.4232170994409</v>
+        <v>577.6424682271941</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3320361870456</v>
+        <v>516.5530944705491</v>
       </c>
       <c r="G2" t="n">
-        <v>433.3320361870456</v>
+        <v>516.5530944705491</v>
       </c>
       <c r="H2" t="n">
-        <v>-19.68388697481054</v>
+        <v>33.38843742008712</v>
       </c>
       <c r="I2" t="n">
-        <v>-19.68388697481054</v>
+        <v>33.38843742008712</v>
       </c>
       <c r="J2" t="n">
-        <v>-19.68388697481054</v>
+        <v>33.38843742008712</v>
       </c>
       <c r="K2" t="n">
-        <v>-19.68388697481054</v>
+        <v>33.38843742008712</v>
       </c>
       <c r="L2" t="n">
-        <v>-19.68388697481054</v>
+        <v>33.38843742008712</v>
       </c>
       <c r="M2" t="n">
-        <v>-19.68388697481054</v>
+        <v>33.38843742008712</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>413.6481492122351</v>
+        <v>549.9415318906363</v>
       </c>
     </row>
     <row r="3">
@@ -577,40 +577,40 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>42401</v>
+        <v>43009</v>
       </c>
       <c r="C3" t="n">
-        <v>437.3161753033879</v>
+        <v>517.816481785825</v>
       </c>
       <c r="D3" t="n">
-        <v>381.5596728970316</v>
+        <v>512.5359708390819</v>
       </c>
       <c r="E3" t="n">
-        <v>446.8072137342818</v>
+        <v>570.8726775295025</v>
       </c>
       <c r="F3" t="n">
-        <v>437.3161753033879</v>
+        <v>517.816481785825</v>
       </c>
       <c r="G3" t="n">
-        <v>437.3161753033879</v>
+        <v>517.816481785825</v>
       </c>
       <c r="H3" t="n">
-        <v>-23.87546252478575</v>
+        <v>24.41537173570574</v>
       </c>
       <c r="I3" t="n">
-        <v>-23.87546252478575</v>
+        <v>24.41537173570574</v>
       </c>
       <c r="J3" t="n">
-        <v>-23.87546252478575</v>
+        <v>24.41537173570574</v>
       </c>
       <c r="K3" t="n">
-        <v>-23.87546252478575</v>
+        <v>24.41537173570574</v>
       </c>
       <c r="L3" t="n">
-        <v>-23.87546252478575</v>
+        <v>24.41537173570574</v>
       </c>
       <c r="M3" t="n">
-        <v>-23.87546252478575</v>
+        <v>24.41537173570574</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>413.4407127786022</v>
+        <v>542.2318535215308</v>
       </c>
     </row>
     <row r="4">
@@ -630,40 +630,40 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>42430</v>
+        <v>43040</v>
       </c>
       <c r="C4" t="n">
-        <v>441.0432731864177</v>
+        <v>519.1219820116099</v>
       </c>
       <c r="D4" t="n">
-        <v>403.3931421716509</v>
+        <v>502.1802440410033</v>
       </c>
       <c r="E4" t="n">
-        <v>466.5333107478091</v>
+        <v>561.225194865042</v>
       </c>
       <c r="F4" t="n">
-        <v>441.0432731864177</v>
+        <v>519.1219820116099</v>
       </c>
       <c r="G4" t="n">
-        <v>441.0432731864177</v>
+        <v>519.1219820116099</v>
       </c>
       <c r="H4" t="n">
-        <v>-7.296107261202582</v>
+        <v>12.64527381043382</v>
       </c>
       <c r="I4" t="n">
-        <v>-7.296107261202582</v>
+        <v>12.64527381043382</v>
       </c>
       <c r="J4" t="n">
-        <v>-7.296107261202582</v>
+        <v>12.64527381043382</v>
       </c>
       <c r="K4" t="n">
-        <v>-7.296107261202582</v>
+        <v>12.64527381043382</v>
       </c>
       <c r="L4" t="n">
-        <v>-7.296107261202582</v>
+        <v>12.64527381043382</v>
       </c>
       <c r="M4" t="n">
-        <v>-7.296107261202582</v>
+        <v>12.64527381043382</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>433.7471659252151</v>
+        <v>531.7672558220438</v>
       </c>
     </row>
     <row r="5">
@@ -683,40 +683,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>42461</v>
+        <v>43070</v>
       </c>
       <c r="C5" t="n">
-        <v>445.0274122307461</v>
+        <v>520.3853693253145</v>
       </c>
       <c r="D5" t="n">
-        <v>388.6203169589354</v>
+        <v>481.6045885577606</v>
       </c>
       <c r="E5" t="n">
-        <v>453.6511898565571</v>
+        <v>541.1465662638741</v>
       </c>
       <c r="F5" t="n">
-        <v>445.0274122307461</v>
+        <v>520.3853693253145</v>
       </c>
       <c r="G5" t="n">
-        <v>445.0274122307461</v>
+        <v>520.3853693253145</v>
       </c>
       <c r="H5" t="n">
-        <v>-23.65972118932467</v>
+        <v>-8.217838166594449</v>
       </c>
       <c r="I5" t="n">
-        <v>-23.65972118932467</v>
+        <v>-8.217838166594449</v>
       </c>
       <c r="J5" t="n">
-        <v>-23.65972118932467</v>
+        <v>-8.217838166594449</v>
       </c>
       <c r="K5" t="n">
-        <v>-23.65972118932467</v>
+        <v>-8.217838166594449</v>
       </c>
       <c r="L5" t="n">
-        <v>-23.65972118932467</v>
+        <v>-8.217838166594449</v>
       </c>
       <c r="M5" t="n">
-        <v>-23.65972118932467</v>
+        <v>-8.217838166594449</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>421.3676910414214</v>
+        <v>512.1675311587201</v>
       </c>
     </row>
     <row r="6">
@@ -736,40 +736,40 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>42491</v>
+        <v>43101</v>
       </c>
       <c r="C6" t="n">
-        <v>448.8830306607413</v>
+        <v>521.6908695494759</v>
       </c>
       <c r="D6" t="n">
-        <v>399.314215809696</v>
+        <v>479.7940262091857</v>
       </c>
       <c r="E6" t="n">
-        <v>463.6019153950537</v>
+        <v>541.5266600999252</v>
       </c>
       <c r="F6" t="n">
-        <v>448.8830306607413</v>
+        <v>521.6908695494759</v>
       </c>
       <c r="G6" t="n">
-        <v>448.8830306607413</v>
+        <v>521.6908695494759</v>
       </c>
       <c r="H6" t="n">
-        <v>-17.24618053904991</v>
+        <v>-10.71201590377429</v>
       </c>
       <c r="I6" t="n">
-        <v>-17.24618053904991</v>
+        <v>-10.71201590377429</v>
       </c>
       <c r="J6" t="n">
-        <v>-17.24618053904991</v>
+        <v>-10.71201590377429</v>
       </c>
       <c r="K6" t="n">
-        <v>-17.24618053904991</v>
+        <v>-10.71201590377429</v>
       </c>
       <c r="L6" t="n">
-        <v>-17.24618053904991</v>
+        <v>-10.71201590377429</v>
       </c>
       <c r="M6" t="n">
-        <v>-17.24618053904991</v>
+        <v>-10.71201590377429</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>431.6368501216914</v>
+        <v>510.9788536457016</v>
       </c>
     </row>
     <row r="7">
@@ -789,40 +789,40 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>42522</v>
+        <v>43132</v>
       </c>
       <c r="C7" t="n">
-        <v>452.8671697050697</v>
+        <v>522.996369776063</v>
       </c>
       <c r="D7" t="n">
-        <v>411.8892868814825</v>
+        <v>466.565488726611</v>
       </c>
       <c r="E7" t="n">
-        <v>478.0282456645106</v>
+        <v>528.0150456157785</v>
       </c>
       <c r="F7" t="n">
-        <v>452.8671697050697</v>
+        <v>522.996369776063</v>
       </c>
       <c r="G7" t="n">
-        <v>452.8671697050697</v>
+        <v>522.996369776063</v>
       </c>
       <c r="H7" t="n">
-        <v>-7.238763267350942</v>
+        <v>-25.23674676717801</v>
       </c>
       <c r="I7" t="n">
-        <v>-7.238763267350942</v>
+        <v>-25.23674676717801</v>
       </c>
       <c r="J7" t="n">
-        <v>-7.238763267350942</v>
+        <v>-25.23674676717801</v>
       </c>
       <c r="K7" t="n">
-        <v>-7.238763267350942</v>
+        <v>-25.23674676717801</v>
       </c>
       <c r="L7" t="n">
-        <v>-7.238763267350942</v>
+        <v>-25.23674676717801</v>
       </c>
       <c r="M7" t="n">
-        <v>-7.238763267350942</v>
+        <v>-25.23674676717801</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>445.6284064377188</v>
+        <v>497.759623008885</v>
       </c>
     </row>
     <row r="8">
@@ -842,40 +842,40 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>42552</v>
+        <v>43160</v>
       </c>
       <c r="C8" t="n">
-        <v>456.7227880518689</v>
+        <v>524.1755312686237</v>
       </c>
       <c r="D8" t="n">
-        <v>447.5419750602924</v>
+        <v>502.2548861035377</v>
       </c>
       <c r="E8" t="n">
-        <v>513.040697577877</v>
+        <v>562.0302610278371</v>
       </c>
       <c r="F8" t="n">
-        <v>456.7227880518689</v>
+        <v>524.1755312686237</v>
       </c>
       <c r="G8" t="n">
-        <v>456.7227880518689</v>
+        <v>524.1755312686237</v>
       </c>
       <c r="H8" t="n">
-        <v>23.30606362752326</v>
+        <v>9.055718856140118</v>
       </c>
       <c r="I8" t="n">
-        <v>23.30606362752326</v>
+        <v>9.055718856140118</v>
       </c>
       <c r="J8" t="n">
-        <v>23.30606362752326</v>
+        <v>9.055718856140118</v>
       </c>
       <c r="K8" t="n">
-        <v>23.30606362752326</v>
+        <v>9.055718856140118</v>
       </c>
       <c r="L8" t="n">
-        <v>23.30606362752326</v>
+        <v>9.055718856140118</v>
       </c>
       <c r="M8" t="n">
-        <v>23.30606362752326</v>
+        <v>9.055718856140118</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>480.0288516793922</v>
+        <v>533.2312501247638</v>
       </c>
     </row>
     <row r="9">
@@ -895,40 +895,40 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>42583</v>
+        <v>43191</v>
       </c>
       <c r="C9" t="n">
-        <v>460.7069270102281</v>
+        <v>525.4810314925301</v>
       </c>
       <c r="D9" t="n">
-        <v>467.5765336768118</v>
+        <v>477.1967749571325</v>
       </c>
       <c r="E9" t="n">
-        <v>532.3279079211512</v>
+        <v>536.8282824232402</v>
       </c>
       <c r="F9" t="n">
-        <v>460.7069270102281</v>
+        <v>525.4810314925301</v>
       </c>
       <c r="G9" t="n">
-        <v>460.7069270102281</v>
+        <v>525.4810314925301</v>
       </c>
       <c r="H9" t="n">
-        <v>40.16093959686692</v>
+        <v>-19.8068883873974</v>
       </c>
       <c r="I9" t="n">
-        <v>40.16093959686692</v>
+        <v>-19.8068883873974</v>
       </c>
       <c r="J9" t="n">
-        <v>40.16093959686692</v>
+        <v>-19.8068883873974</v>
       </c>
       <c r="K9" t="n">
-        <v>40.16093959686692</v>
+        <v>-19.8068883873974</v>
       </c>
       <c r="L9" t="n">
-        <v>40.16093959686692</v>
+        <v>-19.8068883873974</v>
       </c>
       <c r="M9" t="n">
-        <v>40.16093959686692</v>
+        <v>-19.8068883873974</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>500.867866607095</v>
+        <v>505.6741431051327</v>
       </c>
     </row>
     <row r="10">
@@ -948,40 +948,40 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>42614</v>
+        <v>43221</v>
       </c>
       <c r="C10" t="n">
-        <v>464.6910658719146</v>
+        <v>526.7444188109357</v>
       </c>
       <c r="D10" t="n">
-        <v>455.9849995582069</v>
+        <v>463.4803376276872</v>
       </c>
       <c r="E10" t="n">
-        <v>521.923203754727</v>
+        <v>521.7859634623996</v>
       </c>
       <c r="F10" t="n">
-        <v>464.6910658719146</v>
+        <v>526.7444188109357</v>
       </c>
       <c r="G10" t="n">
-        <v>464.6910658719146</v>
+        <v>526.7444188109357</v>
       </c>
       <c r="H10" t="n">
-        <v>23.00967237111159</v>
+        <v>-34.49968697944424</v>
       </c>
       <c r="I10" t="n">
-        <v>23.00967237111159</v>
+        <v>-34.49968697944424</v>
       </c>
       <c r="J10" t="n">
-        <v>23.00967237111159</v>
+        <v>-34.49968697944424</v>
       </c>
       <c r="K10" t="n">
-        <v>23.00967237111159</v>
+        <v>-34.49968697944424</v>
       </c>
       <c r="L10" t="n">
-        <v>23.00967237111159</v>
+        <v>-34.49968697944424</v>
       </c>
       <c r="M10" t="n">
-        <v>23.00967237111159</v>
+        <v>-34.49968697944424</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>487.7007382430263</v>
+        <v>492.2447318314915</v>
       </c>
     </row>
     <row r="11">
@@ -1001,40 +1001,40 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>42644</v>
+        <v>43252</v>
       </c>
       <c r="C11" t="n">
-        <v>468.5466841251597</v>
+        <v>528.0499190399549</v>
       </c>
       <c r="D11" t="n">
-        <v>453.9999014821695</v>
+        <v>473.4509548653441</v>
       </c>
       <c r="E11" t="n">
-        <v>516.4478656044447</v>
+        <v>534.0610436075333</v>
       </c>
       <c r="F11" t="n">
-        <v>468.5466841251597</v>
+        <v>528.0499190399549</v>
       </c>
       <c r="G11" t="n">
-        <v>468.5466841251597</v>
+        <v>528.0499190399549</v>
       </c>
       <c r="H11" t="n">
-        <v>18.70327705746432</v>
+        <v>-24.45599269126863</v>
       </c>
       <c r="I11" t="n">
-        <v>18.70327705746432</v>
+        <v>-24.45599269126863</v>
       </c>
       <c r="J11" t="n">
-        <v>18.70327705746432</v>
+        <v>-24.45599269126863</v>
       </c>
       <c r="K11" t="n">
-        <v>18.70327705746432</v>
+        <v>-24.45599269126863</v>
       </c>
       <c r="L11" t="n">
-        <v>18.70327705746432</v>
+        <v>-24.45599269126863</v>
       </c>
       <c r="M11" t="n">
-        <v>18.70327705746432</v>
+        <v>-24.45599269126863</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>487.2499611826241</v>
+        <v>503.5939263486863</v>
       </c>
     </row>
     <row r="12">
@@ -1054,40 +1054,40 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>42675</v>
+        <v>43282</v>
       </c>
       <c r="C12" t="n">
-        <v>472.5308229390174</v>
+        <v>529.3133063586043</v>
       </c>
       <c r="D12" t="n">
-        <v>445.7995826237896</v>
+        <v>499.278777441815</v>
       </c>
       <c r="E12" t="n">
-        <v>510.3962915792156</v>
+        <v>559.2035573065175</v>
       </c>
       <c r="F12" t="n">
-        <v>472.5308229390174</v>
+        <v>529.3133063586043</v>
       </c>
       <c r="G12" t="n">
-        <v>472.5308229390174</v>
+        <v>529.3133063586043</v>
       </c>
       <c r="H12" t="n">
-        <v>4.623565143431837</v>
+        <v>0.3353481677592463</v>
       </c>
       <c r="I12" t="n">
-        <v>4.623565143431837</v>
+        <v>0.3353481677592463</v>
       </c>
       <c r="J12" t="n">
-        <v>4.623565143431837</v>
+        <v>0.3353481677592463</v>
       </c>
       <c r="K12" t="n">
-        <v>4.623565143431837</v>
+        <v>0.3353481677592463</v>
       </c>
       <c r="L12" t="n">
-        <v>4.623565143431837</v>
+        <v>0.3353481677592463</v>
       </c>
       <c r="M12" t="n">
-        <v>4.623565143431837</v>
+        <v>0.3353481677592463</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>477.1543880824493</v>
+        <v>529.6486545263635</v>
       </c>
     </row>
     <row r="13">
@@ -1107,40 +1107,40 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>42705</v>
+        <v>43313</v>
       </c>
       <c r="C13" t="n">
-        <v>476.3864411459764</v>
+        <v>530.6188065878754</v>
       </c>
       <c r="D13" t="n">
-        <v>445.0296008395555</v>
+        <v>512.9921320992685</v>
       </c>
       <c r="E13" t="n">
-        <v>508.4832107566502</v>
+        <v>572.5886674168494</v>
       </c>
       <c r="F13" t="n">
-        <v>476.3864411459764</v>
+        <v>530.6188065878754</v>
       </c>
       <c r="G13" t="n">
-        <v>476.3864411459764</v>
+        <v>530.6188065878754</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1302801599297148</v>
+        <v>12.81075176882204</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1302801599297148</v>
+        <v>12.81075176882204</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1302801599297148</v>
+        <v>12.81075176882204</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1302801599297148</v>
+        <v>12.81075176882204</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1302801599297148</v>
+        <v>12.81075176882204</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1302801599297148</v>
+        <v>12.81075176882204</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>476.5167213059062</v>
+        <v>543.4295583566974</v>
       </c>
     </row>
     <row r="14">
@@ -1160,40 +1160,40 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>42736</v>
+        <v>43344</v>
       </c>
       <c r="C14" t="n">
-        <v>480.3705799598341</v>
+        <v>531.9243068135073</v>
       </c>
       <c r="D14" t="n">
-        <v>455.1049943800448</v>
+        <v>541.2156271883698</v>
       </c>
       <c r="E14" t="n">
-        <v>518.7216655260888</v>
+        <v>598.600280625168</v>
       </c>
       <c r="F14" t="n">
-        <v>480.3705799598341</v>
+        <v>531.9243068135073</v>
       </c>
       <c r="G14" t="n">
-        <v>480.3705799598341</v>
+        <v>531.9243068135073</v>
       </c>
       <c r="H14" t="n">
-        <v>5.565150729810005</v>
+        <v>36.95126271180074</v>
       </c>
       <c r="I14" t="n">
-        <v>5.565150729810005</v>
+        <v>36.95126271180074</v>
       </c>
       <c r="J14" t="n">
-        <v>5.565150729810005</v>
+        <v>36.95126271180074</v>
       </c>
       <c r="K14" t="n">
-        <v>5.565150729810005</v>
+        <v>36.95126271180074</v>
       </c>
       <c r="L14" t="n">
-        <v>5.565150729810005</v>
+        <v>36.95126271180074</v>
       </c>
       <c r="M14" t="n">
-        <v>5.565150729810005</v>
+        <v>36.95126271180074</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>485.9357306896441</v>
+        <v>568.875569525308</v>
       </c>
     </row>
     <row r="15">
@@ -1213,40 +1213,40 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>42767</v>
+        <v>43374</v>
       </c>
       <c r="C15" t="n">
-        <v>484.354718688497</v>
+        <v>533.1876941276433</v>
       </c>
       <c r="D15" t="n">
-        <v>450.1271205106694</v>
+        <v>534.1357400991823</v>
       </c>
       <c r="E15" t="n">
-        <v>514.227207463259</v>
+        <v>594.4998289867199</v>
       </c>
       <c r="F15" t="n">
-        <v>484.354718688497</v>
+        <v>533.1876941276433</v>
       </c>
       <c r="G15" t="n">
-        <v>484.354718688497</v>
+        <v>533.1876941276433</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.871425601392527</v>
+        <v>31.66522311898998</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.871425601392527</v>
+        <v>31.66522311898998</v>
       </c>
       <c r="J15" t="n">
-        <v>-1.871425601392527</v>
+        <v>31.66522311898998</v>
       </c>
       <c r="K15" t="n">
-        <v>-1.871425601392527</v>
+        <v>31.66522311898998</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.871425601392527</v>
+        <v>31.66522311898998</v>
       </c>
       <c r="M15" t="n">
-        <v>-1.871425601392527</v>
+        <v>31.66522311898998</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>482.4832930871045</v>
+        <v>564.8529172466333</v>
       </c>
     </row>
     <row r="16">
@@ -1266,40 +1266,40 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>42795</v>
+        <v>43405</v>
       </c>
       <c r="C16" t="n">
-        <v>487.9532956047085</v>
+        <v>534.4931943522506</v>
       </c>
       <c r="D16" t="n">
-        <v>460.4929445704184</v>
+        <v>528.4840863933389</v>
       </c>
       <c r="E16" t="n">
-        <v>525.9649570334813</v>
+        <v>585.0742377944408</v>
       </c>
       <c r="F16" t="n">
-        <v>487.9532956047085</v>
+        <v>534.4931943522506</v>
       </c>
       <c r="G16" t="n">
-        <v>487.9532956047085</v>
+        <v>534.4931943522506</v>
       </c>
       <c r="H16" t="n">
-        <v>4.507047677988932</v>
+        <v>22.37120656688105</v>
       </c>
       <c r="I16" t="n">
-        <v>4.507047677988932</v>
+        <v>22.37120656688105</v>
       </c>
       <c r="J16" t="n">
-        <v>4.507047677988932</v>
+        <v>22.37120656688105</v>
       </c>
       <c r="K16" t="n">
-        <v>4.507047677988932</v>
+        <v>22.37120656688105</v>
       </c>
       <c r="L16" t="n">
-        <v>4.507047677988932</v>
+        <v>22.37120656688105</v>
       </c>
       <c r="M16" t="n">
-        <v>4.507047677988932</v>
+        <v>22.37120656688105</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>492.4603432826974</v>
+        <v>556.8644009191316</v>
       </c>
     </row>
     <row r="17">
@@ -1319,40 +1319,40 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>42826</v>
+        <v>43435</v>
       </c>
       <c r="C17" t="n">
-        <v>491.9374342481045</v>
+        <v>535.7565816658732</v>
       </c>
       <c r="D17" t="n">
-        <v>441.3036777810383</v>
+        <v>485.7926446350695</v>
       </c>
       <c r="E17" t="n">
-        <v>508.0035325723961</v>
+        <v>544.3261997361039</v>
       </c>
       <c r="F17" t="n">
-        <v>491.9374342481045</v>
+        <v>535.7565816658732</v>
       </c>
       <c r="G17" t="n">
-        <v>491.9374342481045</v>
+        <v>535.7565816658732</v>
       </c>
       <c r="H17" t="n">
-        <v>-17.49505773914022</v>
+        <v>-20.7902752374397</v>
       </c>
       <c r="I17" t="n">
-        <v>-17.49505773914022</v>
+        <v>-20.7902752374397</v>
       </c>
       <c r="J17" t="n">
-        <v>-17.49505773914022</v>
+        <v>-20.7902752374397</v>
       </c>
       <c r="K17" t="n">
-        <v>-17.49505773914022</v>
+        <v>-20.7902752374397</v>
       </c>
       <c r="L17" t="n">
-        <v>-17.49505773914022</v>
+        <v>-20.7902752374397</v>
       </c>
       <c r="M17" t="n">
-        <v>-17.49505773914022</v>
+        <v>-20.7902752374397</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>474.4423765089642</v>
+        <v>514.9663064284335</v>
       </c>
     </row>
     <row r="18">
@@ -1372,40 +1372,40 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>42856</v>
+        <v>43466</v>
       </c>
       <c r="C18" t="n">
-        <v>495.7930522901005</v>
+        <v>537.0620818899499</v>
       </c>
       <c r="D18" t="n">
-        <v>442.5045548909303</v>
+        <v>490.8443133017573</v>
       </c>
       <c r="E18" t="n">
-        <v>508.5774672931281</v>
+        <v>551.0694472261742</v>
       </c>
       <c r="F18" t="n">
-        <v>495.7930522901005</v>
+        <v>537.0620818899499</v>
       </c>
       <c r="G18" t="n">
-        <v>495.7930522901005</v>
+        <v>537.0620818899499</v>
       </c>
       <c r="H18" t="n">
-        <v>-19.34087140741909</v>
+        <v>-15.2058724607314</v>
       </c>
       <c r="I18" t="n">
-        <v>-19.34087140741909</v>
+        <v>-15.2058724607314</v>
       </c>
       <c r="J18" t="n">
-        <v>-19.34087140741909</v>
+        <v>-15.2058724607314</v>
       </c>
       <c r="K18" t="n">
-        <v>-19.34087140741909</v>
+        <v>-15.2058724607314</v>
       </c>
       <c r="L18" t="n">
-        <v>-19.34087140741909</v>
+        <v>-15.2058724607314</v>
       </c>
       <c r="M18" t="n">
-        <v>-19.34087140741909</v>
+        <v>-15.2058724607314</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>476.4521808826814</v>
+        <v>521.8562094292186</v>
       </c>
     </row>
     <row r="19">
@@ -1425,40 +1425,40 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>42887</v>
+        <v>43497</v>
       </c>
       <c r="C19" t="n">
-        <v>499.7771909334964</v>
+        <v>538.3675821130262</v>
       </c>
       <c r="D19" t="n">
-        <v>457.6011440287443</v>
+        <v>487.8729472176737</v>
       </c>
       <c r="E19" t="n">
-        <v>523.5997518512862</v>
+        <v>544.9496151821206</v>
       </c>
       <c r="F19" t="n">
-        <v>499.7771909334964</v>
+        <v>538.3675821130262</v>
       </c>
       <c r="G19" t="n">
-        <v>499.7771909334964</v>
+        <v>538.3675821130262</v>
       </c>
       <c r="H19" t="n">
-        <v>-9.824732963498132</v>
+        <v>-23.7567637486251</v>
       </c>
       <c r="I19" t="n">
-        <v>-9.824732963498132</v>
+        <v>-23.7567637486251</v>
       </c>
       <c r="J19" t="n">
-        <v>-9.824732963498132</v>
+        <v>-23.7567637486251</v>
       </c>
       <c r="K19" t="n">
-        <v>-9.824732963498132</v>
+        <v>-23.7567637486251</v>
       </c>
       <c r="L19" t="n">
-        <v>-9.824732963498132</v>
+        <v>-23.7567637486251</v>
       </c>
       <c r="M19" t="n">
-        <v>-9.824732963498132</v>
+        <v>-23.7567637486251</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>489.9524579699982</v>
+        <v>514.6108183644011</v>
       </c>
     </row>
     <row r="20">
@@ -1478,40 +1478,40 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>42917</v>
+        <v>43525</v>
       </c>
       <c r="C20" t="n">
-        <v>503.6300144392678</v>
+        <v>539.5467436048372</v>
       </c>
       <c r="D20" t="n">
-        <v>489.4835403653877</v>
+        <v>516.9188804597338</v>
       </c>
       <c r="E20" t="n">
-        <v>555.9901838087864</v>
+        <v>578.7348931187552</v>
       </c>
       <c r="F20" t="n">
-        <v>503.6300144392678</v>
+        <v>539.5467436048372</v>
       </c>
       <c r="G20" t="n">
-        <v>503.6300144392678</v>
+        <v>539.5467436048372</v>
       </c>
       <c r="H20" t="n">
-        <v>19.43513365968362</v>
+        <v>8.03935909799546</v>
       </c>
       <c r="I20" t="n">
-        <v>19.43513365968362</v>
+        <v>8.03935909799546</v>
       </c>
       <c r="J20" t="n">
-        <v>19.43513365968362</v>
+        <v>8.03935909799546</v>
       </c>
       <c r="K20" t="n">
-        <v>19.43513365968362</v>
+        <v>8.03935909799546</v>
       </c>
       <c r="L20" t="n">
-        <v>19.43513365968362</v>
+        <v>8.03935909799546</v>
       </c>
       <c r="M20" t="n">
-        <v>19.43513365968362</v>
+        <v>8.03935909799546</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>523.0651480989515</v>
+        <v>547.5861027028326</v>
       </c>
     </row>
     <row r="21">
@@ -1531,40 +1531,40 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>42948</v>
+        <v>43556</v>
       </c>
       <c r="C21" t="n">
-        <v>507.6112653952316</v>
+        <v>540.8522438236796</v>
       </c>
       <c r="D21" t="n">
-        <v>503.5893155768617</v>
+        <v>498.8518068934919</v>
       </c>
       <c r="E21" t="n">
-        <v>570.825120974869</v>
+        <v>558.2326728062693</v>
       </c>
       <c r="F21" t="n">
-        <v>507.6112653952316</v>
+        <v>540.8522438236796</v>
       </c>
       <c r="G21" t="n">
-        <v>507.6112653952316</v>
+        <v>540.8522438236796</v>
       </c>
       <c r="H21" t="n">
-        <v>30.15140830900174</v>
+        <v>-11.64695201301367</v>
       </c>
       <c r="I21" t="n">
-        <v>30.15140830900174</v>
+        <v>-11.64695201301367</v>
       </c>
       <c r="J21" t="n">
-        <v>30.15140830900174</v>
+        <v>-11.64695201301367</v>
       </c>
       <c r="K21" t="n">
-        <v>30.15140830900174</v>
+        <v>-11.64695201301367</v>
       </c>
       <c r="L21" t="n">
-        <v>30.15140830900174</v>
+        <v>-11.64695201301367</v>
       </c>
       <c r="M21" t="n">
-        <v>30.15140830900174</v>
+        <v>-11.64695201301367</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>537.7626737042333</v>
+        <v>529.2052918106659</v>
       </c>
     </row>
     <row r="22">
@@ -1584,40 +1584,40 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>42979</v>
+        <v>43586</v>
       </c>
       <c r="C22" t="n">
-        <v>508.9650251680623</v>
+        <v>542.1156311327023</v>
       </c>
       <c r="D22" t="n">
-        <v>508.3338037718442</v>
+        <v>479.8056760999556</v>
       </c>
       <c r="E22" t="n">
-        <v>572.3943698961111</v>
+        <v>538.4843331368793</v>
       </c>
       <c r="F22" t="n">
-        <v>508.9650251680623</v>
+        <v>542.1156311327023</v>
       </c>
       <c r="G22" t="n">
-        <v>508.9650251680623</v>
+        <v>542.1156311327023</v>
       </c>
       <c r="H22" t="n">
-        <v>30.52397420393434</v>
+        <v>-32.70608315009212</v>
       </c>
       <c r="I22" t="n">
-        <v>30.52397420393434</v>
+        <v>-32.70608315009212</v>
       </c>
       <c r="J22" t="n">
-        <v>30.52397420393434</v>
+        <v>-32.70608315009212</v>
       </c>
       <c r="K22" t="n">
-        <v>30.52397420393434</v>
+        <v>-32.70608315009212</v>
       </c>
       <c r="L22" t="n">
-        <v>30.52397420393434</v>
+        <v>-32.70608315009212</v>
       </c>
       <c r="M22" t="n">
-        <v>30.52397420393434</v>
+        <v>-32.70608315009212</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>539.4889993719966</v>
+        <v>509.4095479826102</v>
       </c>
     </row>
     <row r="23">
@@ -1637,40 +1637,40 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>43009</v>
+        <v>43617</v>
       </c>
       <c r="C23" t="n">
-        <v>510.2751152708015</v>
+        <v>543.4211313520259</v>
       </c>
       <c r="D23" t="n">
-        <v>503.2508503259947</v>
+        <v>485.5401507039871</v>
       </c>
       <c r="E23" t="n">
-        <v>566.026344675177</v>
+        <v>543.6260665032847</v>
       </c>
       <c r="F23" t="n">
-        <v>510.2751152708015</v>
+        <v>543.4211313520259</v>
       </c>
       <c r="G23" t="n">
-        <v>510.2751152708015</v>
+        <v>543.4211313520259</v>
       </c>
       <c r="H23" t="n">
-        <v>24.68779218550894</v>
+        <v>-27.72717124041493</v>
       </c>
       <c r="I23" t="n">
-        <v>24.68779218550894</v>
+        <v>-27.72717124041493</v>
       </c>
       <c r="J23" t="n">
-        <v>24.68779218550894</v>
+        <v>-27.72717124041493</v>
       </c>
       <c r="K23" t="n">
-        <v>24.68779218550894</v>
+        <v>-27.72717124041493</v>
       </c>
       <c r="L23" t="n">
-        <v>24.68779218550894</v>
+        <v>-27.72717124041493</v>
       </c>
       <c r="M23" t="n">
-        <v>24.68779218550894</v>
+        <v>-27.72717124041493</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>534.9629074563104</v>
+        <v>515.693960111611</v>
       </c>
     </row>
     <row r="24">
@@ -1690,40 +1690,40 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>43040</v>
+        <v>43647</v>
       </c>
       <c r="C24" t="n">
-        <v>511.625112282916</v>
+        <v>544.684518664693</v>
       </c>
       <c r="D24" t="n">
-        <v>491.8402588214091</v>
+        <v>508.6819385921551</v>
       </c>
       <c r="E24" t="n">
-        <v>557.3501884378601</v>
+        <v>570.0577336108403</v>
       </c>
       <c r="F24" t="n">
-        <v>511.625112282916</v>
+        <v>544.684518664693</v>
       </c>
       <c r="G24" t="n">
-        <v>511.625112282916</v>
+        <v>544.684518664693</v>
       </c>
       <c r="H24" t="n">
-        <v>13.23818670993238</v>
+        <v>-4.953835100686118</v>
       </c>
       <c r="I24" t="n">
-        <v>13.23818670993238</v>
+        <v>-4.953835100686118</v>
       </c>
       <c r="J24" t="n">
-        <v>13.23818670993238</v>
+        <v>-4.953835100686118</v>
       </c>
       <c r="K24" t="n">
-        <v>13.23818670993238</v>
+        <v>-4.953835100686118</v>
       </c>
       <c r="L24" t="n">
-        <v>13.23818670993238</v>
+        <v>-4.953835100686118</v>
       </c>
       <c r="M24" t="n">
-        <v>13.23818670993238</v>
+        <v>-4.953835100686118</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>524.8632989928484</v>
+        <v>539.7306835640069</v>
       </c>
     </row>
     <row r="25">
@@ -1743,40 +1743,40 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>43070</v>
+        <v>43678</v>
       </c>
       <c r="C25" t="n">
-        <v>512.9315610043172</v>
+        <v>545.9900188877824</v>
       </c>
       <c r="D25" t="n">
-        <v>475.6622129691903</v>
+        <v>523.2385817093078</v>
       </c>
       <c r="E25" t="n">
-        <v>538.7405515991129</v>
+        <v>583.8598085718237</v>
       </c>
       <c r="F25" t="n">
-        <v>512.9315610043172</v>
+        <v>545.9900188877824</v>
       </c>
       <c r="G25" t="n">
-        <v>512.9315610043172</v>
+        <v>545.9900188877824</v>
       </c>
       <c r="H25" t="n">
-        <v>-7.075747351647963</v>
+        <v>6.375973937180391</v>
       </c>
       <c r="I25" t="n">
-        <v>-7.075747351647963</v>
+        <v>6.375973937180391</v>
       </c>
       <c r="J25" t="n">
-        <v>-7.075747351647963</v>
+        <v>6.375973937180391</v>
       </c>
       <c r="K25" t="n">
-        <v>-7.075747351647963</v>
+        <v>6.375973937180391</v>
       </c>
       <c r="L25" t="n">
-        <v>-7.075747351647963</v>
+        <v>6.375973937180391</v>
       </c>
       <c r="M25" t="n">
-        <v>-7.075747351647963</v>
+        <v>6.375973937180391</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>505.8558136526693</v>
+        <v>552.3659928249629</v>
       </c>
     </row>
     <row r="26">
@@ -1796,40 +1796,40 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>43101</v>
+        <v>43709</v>
       </c>
       <c r="C26" t="n">
-        <v>514.2815580164317</v>
+        <v>547.2955191124728</v>
       </c>
       <c r="D26" t="n">
-        <v>480.3258013994276</v>
+        <v>558.9973931996097</v>
       </c>
       <c r="E26" t="n">
-        <v>544.535125568642</v>
+        <v>617.7577725514715</v>
       </c>
       <c r="F26" t="n">
-        <v>514.2815580164317</v>
+        <v>547.2955191124728</v>
       </c>
       <c r="G26" t="n">
-        <v>514.2815580164317</v>
+        <v>547.2955191124728</v>
       </c>
       <c r="H26" t="n">
-        <v>-2.85789732568106</v>
+        <v>40.77325410657893</v>
       </c>
       <c r="I26" t="n">
-        <v>-2.85789732568106</v>
+        <v>40.77325410657893</v>
       </c>
       <c r="J26" t="n">
-        <v>-2.85789732568106</v>
+        <v>40.77325410657893</v>
       </c>
       <c r="K26" t="n">
-        <v>-2.85789732568106</v>
+        <v>40.77325410657893</v>
       </c>
       <c r="L26" t="n">
-        <v>-2.85789732568106</v>
+        <v>40.77325410657893</v>
       </c>
       <c r="M26" t="n">
-        <v>-2.85789732568106</v>
+        <v>40.77325410657893</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>511.4236606907507</v>
+        <v>588.0687732190518</v>
       </c>
     </row>
     <row r="27">
@@ -1849,40 +1849,40 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>43132</v>
+        <v>43739</v>
       </c>
       <c r="C27" t="n">
-        <v>515.6280066613384</v>
+        <v>548.5589064266893</v>
       </c>
       <c r="D27" t="n">
-        <v>476.4418560941066</v>
+        <v>556.9994069343721</v>
       </c>
       <c r="E27" t="n">
-        <v>539.617615118205</v>
+        <v>618.4709177984009</v>
       </c>
       <c r="F27" t="n">
-        <v>515.6280066613384</v>
+        <v>548.5589064266893</v>
       </c>
       <c r="G27" t="n">
-        <v>515.6280066613384</v>
+        <v>548.5589064266893</v>
       </c>
       <c r="H27" t="n">
-        <v>-9.519454310163891</v>
+        <v>38.95446720431649</v>
       </c>
       <c r="I27" t="n">
-        <v>-9.519454310163891</v>
+        <v>38.95446720431649</v>
       </c>
       <c r="J27" t="n">
-        <v>-9.519454310163891</v>
+        <v>38.95446720431649</v>
       </c>
       <c r="K27" t="n">
-        <v>-9.519454310163891</v>
+        <v>38.95446720431649</v>
       </c>
       <c r="L27" t="n">
-        <v>-9.519454310163891</v>
+        <v>38.95446720431649</v>
       </c>
       <c r="M27" t="n">
-        <v>-9.519454310163891</v>
+        <v>38.95446720431649</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>506.1085523511745</v>
+        <v>587.5133736310058</v>
       </c>
     </row>
     <row r="28">
@@ -1902,40 +1902,40 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>43160</v>
+        <v>43770</v>
       </c>
       <c r="C28" t="n">
-        <v>516.84415382448</v>
+        <v>549.8644066510564</v>
       </c>
       <c r="D28" t="n">
-        <v>501.0816601288455</v>
+        <v>554.6379592581306</v>
       </c>
       <c r="E28" t="n">
-        <v>565.3086179458273</v>
+        <v>611.083901126767</v>
       </c>
       <c r="F28" t="n">
-        <v>516.84415382448</v>
+        <v>549.8644066510564</v>
       </c>
       <c r="G28" t="n">
-        <v>516.84415382448</v>
+        <v>549.8644066510564</v>
       </c>
       <c r="H28" t="n">
-        <v>16.48321229220945</v>
+        <v>31.77806575893184</v>
       </c>
       <c r="I28" t="n">
-        <v>16.48321229220945</v>
+        <v>31.77806575893184</v>
       </c>
       <c r="J28" t="n">
-        <v>16.48321229220945</v>
+        <v>31.77806575893184</v>
       </c>
       <c r="K28" t="n">
-        <v>16.48321229220945</v>
+        <v>31.77806575893184</v>
       </c>
       <c r="L28" t="n">
-        <v>16.48321229220945</v>
+        <v>31.77806575893184</v>
       </c>
       <c r="M28" t="n">
-        <v>16.48321229220945</v>
+        <v>31.77806575893184</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>533.3273661166895</v>
+        <v>581.6424724099882</v>
       </c>
     </row>
     <row r="29">
@@ -1955,40 +1955,40 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>43191</v>
+        <v>43800</v>
       </c>
       <c r="C29" t="n">
-        <v>518.189614360071</v>
+        <v>551.1277939685068</v>
       </c>
       <c r="D29" t="n">
-        <v>473.7372369037939</v>
+        <v>487.8198479556033</v>
       </c>
       <c r="E29" t="n">
-        <v>537.2499164679759</v>
+        <v>549.4577139810804</v>
       </c>
       <c r="F29" t="n">
-        <v>518.189614360071</v>
+        <v>551.1277939685068</v>
       </c>
       <c r="G29" t="n">
-        <v>518.189614360071</v>
+        <v>551.1277939685068</v>
       </c>
       <c r="H29" t="n">
-        <v>-11.50695144191994</v>
+        <v>-33.57632025449343</v>
       </c>
       <c r="I29" t="n">
-        <v>-11.50695144191994</v>
+        <v>-33.57632025449343</v>
       </c>
       <c r="J29" t="n">
-        <v>-11.50695144191994</v>
+        <v>-33.57632025449343</v>
       </c>
       <c r="K29" t="n">
-        <v>-11.50695144191994</v>
+        <v>-33.57632025449343</v>
       </c>
       <c r="L29" t="n">
-        <v>-11.50695144191994</v>
+        <v>-33.57632025449343</v>
       </c>
       <c r="M29" t="n">
-        <v>-11.50695144191994</v>
+        <v>-33.57632025449343</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>506.682662918151</v>
+        <v>517.5514737140134</v>
       </c>
     </row>
     <row r="30">
@@ -2008,40 +2008,40 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>43221</v>
+        <v>43831</v>
       </c>
       <c r="C30" t="n">
-        <v>519.491672942901</v>
+        <v>552.4332941965389</v>
       </c>
       <c r="D30" t="n">
-        <v>466.3839611362868</v>
+        <v>502.4686589578681</v>
       </c>
       <c r="E30" t="n">
-        <v>529.9380767249835</v>
+        <v>564.4452463522058</v>
       </c>
       <c r="F30" t="n">
-        <v>519.491672942901</v>
+        <v>552.4332941965389</v>
       </c>
       <c r="G30" t="n">
-        <v>519.491672942901</v>
+        <v>552.4332941965389</v>
       </c>
       <c r="H30" t="n">
-        <v>-21.64587828760171</v>
+        <v>-19.54717353206771</v>
       </c>
       <c r="I30" t="n">
-        <v>-21.64587828760171</v>
+        <v>-19.54717353206771</v>
       </c>
       <c r="J30" t="n">
-        <v>-21.64587828760171</v>
+        <v>-19.54717353206771</v>
       </c>
       <c r="K30" t="n">
-        <v>-21.64587828760171</v>
+        <v>-19.54717353206771</v>
       </c>
       <c r="L30" t="n">
-        <v>-21.64587828760171</v>
+        <v>-19.54717353206771</v>
       </c>
       <c r="M30" t="n">
-        <v>-21.64587828760171</v>
+        <v>-19.54717353206771</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>497.8457946552993</v>
+        <v>532.8861206644712</v>
       </c>
     </row>
     <row r="31">
@@ -2061,40 +2061,40 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>43252</v>
+        <v>43862</v>
       </c>
       <c r="C31" t="n">
-        <v>520.8350528734404</v>
+        <v>553.7387944191684</v>
       </c>
       <c r="D31" t="n">
-        <v>476.1386131585058</v>
+        <v>500.2926730558401</v>
       </c>
       <c r="E31" t="n">
-        <v>539.6647287211349</v>
+        <v>560.4939287872602</v>
       </c>
       <c r="F31" t="n">
-        <v>520.8350528734404</v>
+        <v>553.7387944191684</v>
       </c>
       <c r="G31" t="n">
-        <v>520.8350528734404</v>
+        <v>553.7387944191684</v>
       </c>
       <c r="H31" t="n">
-        <v>-12.52236862985083</v>
+        <v>-22.14045166463227</v>
       </c>
       <c r="I31" t="n">
-        <v>-12.52236862985083</v>
+        <v>-22.14045166463227</v>
       </c>
       <c r="J31" t="n">
-        <v>-12.52236862985083</v>
+        <v>-22.14045166463227</v>
       </c>
       <c r="K31" t="n">
-        <v>-12.52236862985083</v>
+        <v>-22.14045166463227</v>
       </c>
       <c r="L31" t="n">
-        <v>-12.52236862985083</v>
+        <v>-22.14045166463227</v>
       </c>
       <c r="M31" t="n">
-        <v>-12.52236862985083</v>
+        <v>-22.14045166463227</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>508.3126842435896</v>
+        <v>531.5983427545361</v>
       </c>
     </row>
     <row r="32">
@@ -2114,40 +2114,40 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>43282</v>
+        <v>43891</v>
       </c>
       <c r="C32" t="n">
-        <v>522.135097967511</v>
+        <v>554.960068820983</v>
       </c>
       <c r="D32" t="n">
-        <v>504.4809212630019</v>
+        <v>536.4583519501397</v>
       </c>
       <c r="E32" t="n">
-        <v>568.8465956249756</v>
+        <v>594.8160438007902</v>
       </c>
       <c r="F32" t="n">
-        <v>522.135097967511</v>
+        <v>554.960068820983</v>
       </c>
       <c r="G32" t="n">
-        <v>522.135097967511</v>
+        <v>554.960068820983</v>
       </c>
       <c r="H32" t="n">
-        <v>15.51883421049187</v>
+        <v>11.4285462092993</v>
       </c>
       <c r="I32" t="n">
-        <v>15.51883421049187</v>
+        <v>11.4285462092993</v>
       </c>
       <c r="J32" t="n">
-        <v>15.51883421049187</v>
+        <v>11.4285462092993</v>
       </c>
       <c r="K32" t="n">
-        <v>15.51883421049187</v>
+        <v>11.4285462092993</v>
       </c>
       <c r="L32" t="n">
-        <v>15.51883421049187</v>
+        <v>11.4285462092993</v>
       </c>
       <c r="M32" t="n">
-        <v>15.51883421049187</v>
+        <v>11.4285462092993</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>537.6539321780028</v>
+        <v>566.3886150302823</v>
       </c>
     </row>
     <row r="33">
@@ -2167,40 +2167,40 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>43313</v>
+        <v>43922</v>
       </c>
       <c r="C33" t="n">
-        <v>523.4784778980505</v>
+        <v>556.2655690386365</v>
       </c>
       <c r="D33" t="n">
-        <v>510.7560603817029</v>
+        <v>489.9294006645323</v>
       </c>
       <c r="E33" t="n">
-        <v>576.5788088828897</v>
+        <v>548.9948275432531</v>
       </c>
       <c r="F33" t="n">
-        <v>523.4784778980505</v>
+        <v>556.2655690386365</v>
       </c>
       <c r="G33" t="n">
-        <v>523.4784778980505</v>
+        <v>556.2655690386365</v>
       </c>
       <c r="H33" t="n">
-        <v>20.37945575331009</v>
+        <v>-36.04217365147652</v>
       </c>
       <c r="I33" t="n">
-        <v>20.37945575331009</v>
+        <v>-36.04217365147652</v>
       </c>
       <c r="J33" t="n">
-        <v>20.37945575331009</v>
+        <v>-36.04217365147652</v>
       </c>
       <c r="K33" t="n">
-        <v>20.37945575331009</v>
+        <v>-36.04217365147652</v>
       </c>
       <c r="L33" t="n">
-        <v>20.37945575331009</v>
+        <v>-36.04217365147652</v>
       </c>
       <c r="M33" t="n">
-        <v>20.37945575331009</v>
+        <v>-36.04217365147652</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>543.8579336513607</v>
+        <v>520.2233953871599</v>
       </c>
     </row>
     <row r="34">
@@ -2220,40 +2220,40 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>43344</v>
+        <v>43952</v>
       </c>
       <c r="C34" t="n">
-        <v>524.8206369176029</v>
+        <v>557.5289563460431</v>
       </c>
       <c r="D34" t="n">
-        <v>530.7360698307915</v>
+        <v>488.775116866099</v>
       </c>
       <c r="E34" t="n">
-        <v>595.9567521674678</v>
+        <v>549.2857774468054</v>
       </c>
       <c r="F34" t="n">
-        <v>524.8206369176029</v>
+        <v>557.5289563460431</v>
       </c>
       <c r="G34" t="n">
-        <v>524.8206369176029</v>
+        <v>557.5289563460431</v>
       </c>
       <c r="H34" t="n">
-        <v>38.33313979670861</v>
+        <v>-38.68655979451812</v>
       </c>
       <c r="I34" t="n">
-        <v>38.33313979670861</v>
+        <v>-38.68655979451812</v>
       </c>
       <c r="J34" t="n">
-        <v>38.33313979670861</v>
+        <v>-38.68655979451812</v>
       </c>
       <c r="K34" t="n">
-        <v>38.33313979670861</v>
+        <v>-38.68655979451812</v>
       </c>
       <c r="L34" t="n">
-        <v>38.33313979670861</v>
+        <v>-38.68655979451812</v>
       </c>
       <c r="M34" t="n">
-        <v>38.33313979670861</v>
+        <v>-38.68655979451812</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>563.1537767143114</v>
+        <v>518.842396551525</v>
       </c>
     </row>
     <row r="35">
@@ -2273,40 +2273,40 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>43374</v>
+        <v>43983</v>
       </c>
       <c r="C35" t="n">
-        <v>526.1195004849117</v>
+        <v>558.8285931556114</v>
       </c>
       <c r="D35" t="n">
-        <v>525.7017681914082</v>
+        <v>515.2347823225575</v>
       </c>
       <c r="E35" t="n">
-        <v>586.8903026337342</v>
+        <v>570.1707658349991</v>
       </c>
       <c r="F35" t="n">
-        <v>526.1195004849117</v>
+        <v>558.8285931556114</v>
       </c>
       <c r="G35" t="n">
-        <v>526.1195004849117</v>
+        <v>558.8285931556114</v>
       </c>
       <c r="H35" t="n">
-        <v>30.67182436026986</v>
+        <v>-18.43167663266383</v>
       </c>
       <c r="I35" t="n">
-        <v>30.67182436026986</v>
+        <v>-18.43167663266383</v>
       </c>
       <c r="J35" t="n">
-        <v>30.67182436026986</v>
+        <v>-18.43167663266383</v>
       </c>
       <c r="K35" t="n">
-        <v>30.67182436026986</v>
+        <v>-18.43167663266383</v>
       </c>
       <c r="L35" t="n">
-        <v>30.67182436026986</v>
+        <v>-18.43167663266383</v>
       </c>
       <c r="M35" t="n">
-        <v>30.67182436026986</v>
+        <v>-18.43167663266383</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>556.7913248451815</v>
+        <v>540.3969165229475</v>
       </c>
     </row>
     <row r="36">
@@ -2326,40 +2326,40 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>43405</v>
+        <v>44013</v>
       </c>
       <c r="C36" t="n">
-        <v>527.4607594176313</v>
+        <v>560.0770738477863</v>
       </c>
       <c r="D36" t="n">
-        <v>515.1764601295016</v>
+        <v>544.2966811975469</v>
       </c>
       <c r="E36" t="n">
-        <v>581.1804511926475</v>
+        <v>600.9885435610527</v>
       </c>
       <c r="F36" t="n">
-        <v>527.4607594176313</v>
+        <v>560.0770738477863</v>
       </c>
       <c r="G36" t="n">
-        <v>527.4607594176313</v>
+        <v>560.0770738477863</v>
       </c>
       <c r="H36" t="n">
-        <v>21.58801889217277</v>
+        <v>10.83520202733776</v>
       </c>
       <c r="I36" t="n">
-        <v>21.58801889217277</v>
+        <v>10.83520202733776</v>
       </c>
       <c r="J36" t="n">
-        <v>21.58801889217277</v>
+        <v>10.83520202733776</v>
       </c>
       <c r="K36" t="n">
-        <v>21.58801889217277</v>
+        <v>10.83520202733776</v>
       </c>
       <c r="L36" t="n">
-        <v>21.58801889217277</v>
+        <v>10.83520202733776</v>
       </c>
       <c r="M36" t="n">
-        <v>21.58801889217277</v>
+        <v>10.83520202733776</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>549.048778309804</v>
+        <v>570.9122758751241</v>
       </c>
     </row>
     <row r="37">
@@ -2379,40 +2379,40 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>43435</v>
+        <v>44044</v>
       </c>
       <c r="C37" t="n">
-        <v>528.7587519331663</v>
+        <v>561.3671705630338</v>
       </c>
       <c r="D37" t="n">
-        <v>483.4045395953485</v>
+        <v>558.2678687266199</v>
       </c>
       <c r="E37" t="n">
-        <v>546.1263684905406</v>
+        <v>616.8988792949112</v>
       </c>
       <c r="F37" t="n">
-        <v>528.7587519331663</v>
+        <v>561.3671705630338</v>
       </c>
       <c r="G37" t="n">
-        <v>528.7587519331663</v>
+        <v>561.3671705630338</v>
       </c>
       <c r="H37" t="n">
-        <v>-14.57407557396645</v>
+        <v>26.28112678925853</v>
       </c>
       <c r="I37" t="n">
-        <v>-14.57407557396645</v>
+        <v>26.28112678925853</v>
       </c>
       <c r="J37" t="n">
-        <v>-14.57407557396645</v>
+        <v>26.28112678925853</v>
       </c>
       <c r="K37" t="n">
-        <v>-14.57407557396645</v>
+        <v>26.28112678925853</v>
       </c>
       <c r="L37" t="n">
-        <v>-14.57407557396645</v>
+        <v>26.28112678925853</v>
       </c>
       <c r="M37" t="n">
-        <v>-14.57407557396645</v>
+        <v>26.28112678925853</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>514.1846763591999</v>
+        <v>587.6482973522924</v>
       </c>
     </row>
     <row r="38">
@@ -2432,40 +2432,40 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>43466</v>
+        <v>44075</v>
       </c>
       <c r="C38" t="n">
-        <v>530.0985803575087</v>
+        <v>562.4304779588125</v>
       </c>
       <c r="D38" t="n">
-        <v>488.4901646988797</v>
+        <v>562.3261592982464</v>
       </c>
       <c r="E38" t="n">
-        <v>550.863162950374</v>
+        <v>622.9298861377332</v>
       </c>
       <c r="F38" t="n">
-        <v>530.0985803575087</v>
+        <v>562.4304779588125</v>
       </c>
       <c r="G38" t="n">
-        <v>530.0985803575087</v>
+        <v>562.4304779588125</v>
       </c>
       <c r="H38" t="n">
-        <v>-11.27910443343795</v>
+        <v>30.08935682571125</v>
       </c>
       <c r="I38" t="n">
-        <v>-11.27910443343795</v>
+        <v>30.08935682571125</v>
       </c>
       <c r="J38" t="n">
-        <v>-11.27910443343795</v>
+        <v>30.08935682571125</v>
       </c>
       <c r="K38" t="n">
-        <v>-11.27910443343795</v>
+        <v>30.08935682571125</v>
       </c>
       <c r="L38" t="n">
-        <v>-11.27910443343795</v>
+        <v>30.08935682571125</v>
       </c>
       <c r="M38" t="n">
-        <v>-11.27910443343795</v>
+        <v>30.08935682571125</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>518.8194759240707</v>
+        <v>592.5198347845237</v>
       </c>
     </row>
     <row r="39">
@@ -2485,40 +2485,40 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>43497</v>
+        <v>44105</v>
       </c>
       <c r="C39" t="n">
-        <v>531.4384087818512</v>
+        <v>563.4594851160176</v>
       </c>
       <c r="D39" t="n">
-        <v>484.2135795697583</v>
+        <v>551.6209987579076</v>
       </c>
       <c r="E39" t="n">
-        <v>545.9008745930903</v>
+        <v>610.6296922530026</v>
       </c>
       <c r="F39" t="n">
-        <v>531.4384087818512</v>
+        <v>563.4594851160176</v>
       </c>
       <c r="G39" t="n">
-        <v>531.4384087818512</v>
+        <v>563.4594851160176</v>
       </c>
       <c r="H39" t="n">
-        <v>-16.857264577589</v>
+        <v>17.21751885442553</v>
       </c>
       <c r="I39" t="n">
-        <v>-16.857264577589</v>
+        <v>17.21751885442553</v>
       </c>
       <c r="J39" t="n">
-        <v>-16.857264577589</v>
+        <v>17.21751885442553</v>
       </c>
       <c r="K39" t="n">
-        <v>-16.857264577589</v>
+        <v>17.21751885442553</v>
       </c>
       <c r="L39" t="n">
-        <v>-16.857264577589</v>
+        <v>17.21751885442553</v>
       </c>
       <c r="M39" t="n">
-        <v>-16.857264577589</v>
+        <v>17.21751885442553</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>514.5811442042622</v>
+        <v>580.6770039704431</v>
       </c>
     </row>
     <row r="40">
@@ -2538,40 +2538,40 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>43525</v>
+        <v>44136</v>
       </c>
       <c r="C40" t="n">
-        <v>532.6485763909346</v>
+        <v>564.5137643206206</v>
       </c>
       <c r="D40" t="n">
-        <v>528.651663138603</v>
+        <v>536.5998983914973</v>
       </c>
       <c r="E40" t="n">
-        <v>593.0129301863469</v>
+        <v>596.6081614632889</v>
       </c>
       <c r="F40" t="n">
-        <v>532.6485763909346</v>
+        <v>564.5137643206206</v>
       </c>
       <c r="G40" t="n">
-        <v>532.6485763909346</v>
+        <v>564.5137643206206</v>
       </c>
       <c r="H40" t="n">
-        <v>28.6168984487356</v>
+        <v>2.610718226404821</v>
       </c>
       <c r="I40" t="n">
-        <v>28.6168984487356</v>
+        <v>2.610718226404821</v>
       </c>
       <c r="J40" t="n">
-        <v>28.6168984487356</v>
+        <v>2.610718226404821</v>
       </c>
       <c r="K40" t="n">
-        <v>28.6168984487356</v>
+        <v>2.610718226404821</v>
       </c>
       <c r="L40" t="n">
-        <v>28.6168984487356</v>
+        <v>2.610718226404821</v>
       </c>
       <c r="M40" t="n">
-        <v>28.6168984487356</v>
+        <v>2.610718226404821</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>561.2654748396702</v>
+        <v>567.1244825470254</v>
       </c>
     </row>
     <row r="41">
@@ -2591,40 +2591,40 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>43556</v>
+        <v>44166</v>
       </c>
       <c r="C41" t="n">
-        <v>533.9871379546739</v>
+        <v>565.5340345186233</v>
       </c>
       <c r="D41" t="n">
-        <v>497.6785146318807</v>
+        <v>538.8299242307343</v>
       </c>
       <c r="E41" t="n">
-        <v>559.7629630766037</v>
+        <v>599.4359585274098</v>
       </c>
       <c r="F41" t="n">
-        <v>533.9871379546739</v>
+        <v>565.5340345186233</v>
       </c>
       <c r="G41" t="n">
-        <v>533.9871379546739</v>
+        <v>565.5340345186233</v>
       </c>
       <c r="H41" t="n">
-        <v>-5.705912119777305</v>
+        <v>4.126843735119364</v>
       </c>
       <c r="I41" t="n">
-        <v>-5.705912119777305</v>
+        <v>4.126843735119364</v>
       </c>
       <c r="J41" t="n">
-        <v>-5.705912119777305</v>
+        <v>4.126843735119364</v>
       </c>
       <c r="K41" t="n">
-        <v>-5.705912119777305</v>
+        <v>4.126843735119364</v>
       </c>
       <c r="L41" t="n">
-        <v>-5.705912119777305</v>
+        <v>4.126843735119364</v>
       </c>
       <c r="M41" t="n">
-        <v>-5.705912119777305</v>
+        <v>4.126843735119364</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>528.2812258348966</v>
+        <v>569.6608782537427</v>
       </c>
     </row>
     <row r="42">
@@ -2644,40 +2644,40 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>43586</v>
+        <v>44197</v>
       </c>
       <c r="C42" t="n">
-        <v>535.2825201131312</v>
+        <v>566.5840476628185</v>
       </c>
       <c r="D42" t="n">
-        <v>476.7710318276556</v>
+        <v>531.5628473314342</v>
       </c>
       <c r="E42" t="n">
-        <v>543.5692921548406</v>
+        <v>590.1508419062365</v>
       </c>
       <c r="F42" t="n">
-        <v>535.2825201131312</v>
+        <v>566.5840476628185</v>
       </c>
       <c r="G42" t="n">
-        <v>535.2825201131312</v>
+        <v>566.5840476628185</v>
       </c>
       <c r="H42" t="n">
-        <v>-24.15946926701364</v>
+        <v>-6.074591429238839</v>
       </c>
       <c r="I42" t="n">
-        <v>-24.15946926701364</v>
+        <v>-6.074591429238839</v>
       </c>
       <c r="J42" t="n">
-        <v>-24.15946926701364</v>
+        <v>-6.074591429238839</v>
       </c>
       <c r="K42" t="n">
-        <v>-24.15946926701364</v>
+        <v>-6.074591429238839</v>
       </c>
       <c r="L42" t="n">
-        <v>-24.15946926701364</v>
+        <v>-6.074591429238839</v>
       </c>
       <c r="M42" t="n">
-        <v>-24.15946926701364</v>
+        <v>-6.074591429238839</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>511.1230508461176</v>
+        <v>560.5094562335797</v>
       </c>
     </row>
     <row r="43">
@@ -2697,40 +2697,40 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>43617</v>
+        <v>44228</v>
       </c>
       <c r="C43" t="n">
-        <v>536.620034634902</v>
+        <v>567.6339217345227</v>
       </c>
       <c r="D43" t="n">
-        <v>487.2150279108366</v>
+        <v>511.618063848525</v>
       </c>
       <c r="E43" t="n">
-        <v>555.079206489122</v>
+        <v>569.6128114514058</v>
       </c>
       <c r="F43" t="n">
-        <v>536.620034634902</v>
+        <v>567.6339217345227</v>
       </c>
       <c r="G43" t="n">
-        <v>536.620034634902</v>
+        <v>567.6339217345227</v>
       </c>
       <c r="H43" t="n">
-        <v>-15.32653150821985</v>
+        <v>-26.58096415862609</v>
       </c>
       <c r="I43" t="n">
-        <v>-15.32653150821985</v>
+        <v>-26.58096415862609</v>
       </c>
       <c r="J43" t="n">
-        <v>-15.32653150821985</v>
+        <v>-26.58096415862609</v>
       </c>
       <c r="K43" t="n">
-        <v>-15.32653150821985</v>
+        <v>-26.58096415862609</v>
       </c>
       <c r="L43" t="n">
-        <v>-15.32653150821985</v>
+        <v>-26.58096415862609</v>
       </c>
       <c r="M43" t="n">
-        <v>-15.32653150821985</v>
+        <v>-26.58096415862609</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>521.2935031266821</v>
+        <v>541.0529575758966</v>
       </c>
     </row>
     <row r="44">
@@ -2750,40 +2750,40 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>43647</v>
+        <v>44256</v>
       </c>
       <c r="C44" t="n">
-        <v>537.9144035269383</v>
+        <v>568.5821950896102</v>
       </c>
       <c r="D44" t="n">
-        <v>520.2214459701513</v>
+        <v>550.0694458165659</v>
       </c>
       <c r="E44" t="n">
-        <v>582.4412488772801</v>
+        <v>607.7080771424082</v>
       </c>
       <c r="F44" t="n">
-        <v>537.9144035269383</v>
+        <v>568.5821950896102</v>
       </c>
       <c r="G44" t="n">
-        <v>537.9144035269383</v>
+        <v>568.5821950896102</v>
       </c>
       <c r="H44" t="n">
-        <v>11.56570925042847</v>
+        <v>10.18473216578842</v>
       </c>
       <c r="I44" t="n">
-        <v>11.56570925042847</v>
+        <v>10.18473216578842</v>
       </c>
       <c r="J44" t="n">
-        <v>11.56570925042847</v>
+        <v>10.18473216578842</v>
       </c>
       <c r="K44" t="n">
-        <v>11.56570925042847</v>
+        <v>10.18473216578842</v>
       </c>
       <c r="L44" t="n">
-        <v>11.56570925042847</v>
+        <v>10.18473216578842</v>
       </c>
       <c r="M44" t="n">
-        <v>11.56570925042847</v>
+        <v>10.18473216578842</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>549.4801127773667</v>
+        <v>578.7669272553986</v>
       </c>
     </row>
     <row r="45">
@@ -2803,40 +2803,40 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>43678</v>
+        <v>44287</v>
       </c>
       <c r="C45" t="n">
-        <v>539.2493190646344</v>
+        <v>569.632069154041</v>
       </c>
       <c r="D45" t="n">
-        <v>519.6062041581461</v>
+        <v>513.6197006084345</v>
       </c>
       <c r="E45" t="n">
-        <v>582.457184785923</v>
+        <v>571.6705910952068</v>
       </c>
       <c r="F45" t="n">
-        <v>539.2493190646344</v>
+        <v>569.632069154041</v>
       </c>
       <c r="G45" t="n">
-        <v>539.2493190646344</v>
+        <v>569.632069154041</v>
       </c>
       <c r="H45" t="n">
-        <v>10.85546660176568</v>
+        <v>-27.94204061851135</v>
       </c>
       <c r="I45" t="n">
-        <v>10.85546660176568</v>
+        <v>-27.94204061851135</v>
       </c>
       <c r="J45" t="n">
-        <v>10.85546660176568</v>
+        <v>-27.94204061851135</v>
       </c>
       <c r="K45" t="n">
-        <v>10.85546660176568</v>
+        <v>-27.94204061851135</v>
       </c>
       <c r="L45" t="n">
-        <v>10.85546660176568</v>
+        <v>-27.94204061851135</v>
       </c>
       <c r="M45" t="n">
-        <v>10.85546660176568</v>
+        <v>-27.94204061851135</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>550.1047856664001</v>
+        <v>541.6900285355297</v>
       </c>
     </row>
     <row r="46">
@@ -2856,40 +2856,40 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>43709</v>
+        <v>44317</v>
       </c>
       <c r="C46" t="n">
-        <v>540.5842346023305</v>
+        <v>570.6480763131676</v>
       </c>
       <c r="D46" t="n">
-        <v>555.07849492048</v>
+        <v>504.2955158644771</v>
       </c>
       <c r="E46" t="n">
-        <v>618.2228502796755</v>
+        <v>562.1712030725557</v>
       </c>
       <c r="F46" t="n">
-        <v>540.5842346023305</v>
+        <v>570.6480763131676</v>
       </c>
       <c r="G46" t="n">
-        <v>540.5842346023305</v>
+        <v>570.6480763131676</v>
       </c>
       <c r="H46" t="n">
-        <v>46.42876895989671</v>
+        <v>-36.49440153308179</v>
       </c>
       <c r="I46" t="n">
-        <v>46.42876895989671</v>
+        <v>-36.49440153308179</v>
       </c>
       <c r="J46" t="n">
-        <v>46.42876895989671</v>
+        <v>-36.49440153308179</v>
       </c>
       <c r="K46" t="n">
-        <v>46.42876895989671</v>
+        <v>-36.49440153308179</v>
       </c>
       <c r="L46" t="n">
-        <v>46.42876895989671</v>
+        <v>-36.49440153308179</v>
       </c>
       <c r="M46" t="n">
-        <v>46.42876895989671</v>
+        <v>-36.49440153308179</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>587.0130035622273</v>
+        <v>534.1536747800858</v>
       </c>
     </row>
     <row r="47">
@@ -2909,40 +2909,40 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>43739</v>
+        <v>44348</v>
       </c>
       <c r="C47" t="n">
-        <v>541.8760883484881</v>
+        <v>571.6979503762632</v>
       </c>
       <c r="D47" t="n">
-        <v>546.8933028515228</v>
+        <v>519.1342570826148</v>
       </c>
       <c r="E47" t="n">
-        <v>612.4242297265424</v>
+        <v>581.1697870226449</v>
       </c>
       <c r="F47" t="n">
-        <v>541.8760883484881</v>
+        <v>571.6979503762632</v>
       </c>
       <c r="G47" t="n">
-        <v>541.8760883484881</v>
+        <v>571.6979503762632</v>
       </c>
       <c r="H47" t="n">
-        <v>36.64331978662356</v>
+        <v>-21.35601635024157</v>
       </c>
       <c r="I47" t="n">
-        <v>36.64331978662356</v>
+        <v>-21.35601635024157</v>
       </c>
       <c r="J47" t="n">
-        <v>36.64331978662356</v>
+        <v>-21.35601635024157</v>
       </c>
       <c r="K47" t="n">
-        <v>36.64331978662356</v>
+        <v>-21.35601635024157</v>
       </c>
       <c r="L47" t="n">
-        <v>36.64331978662356</v>
+        <v>-21.35601635024157</v>
       </c>
       <c r="M47" t="n">
-        <v>36.64331978662356</v>
+        <v>-21.35601635024157</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>578.5194081351117</v>
+        <v>550.3419340260216</v>
       </c>
     </row>
     <row r="48">
@@ -2962,40 +2962,40 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>43770</v>
+        <v>44378</v>
       </c>
       <c r="C48" t="n">
-        <v>543.2093261123074</v>
+        <v>572.7139575340975</v>
       </c>
       <c r="D48" t="n">
-        <v>540.4810266524066</v>
+        <v>548.8040965423153</v>
       </c>
       <c r="E48" t="n">
-        <v>605.1313444109655</v>
+        <v>608.9165499898893</v>
       </c>
       <c r="F48" t="n">
-        <v>543.2093261123074</v>
+        <v>572.7139575340975</v>
       </c>
       <c r="G48" t="n">
-        <v>543.2093261123074</v>
+        <v>572.7139575340975</v>
       </c>
       <c r="H48" t="n">
-        <v>29.66309176486142</v>
+        <v>5.601454202838498</v>
       </c>
       <c r="I48" t="n">
-        <v>29.66309176486142</v>
+        <v>5.601454202838498</v>
       </c>
       <c r="J48" t="n">
-        <v>29.66309176486142</v>
+        <v>5.601454202838498</v>
       </c>
       <c r="K48" t="n">
-        <v>29.66309176486142</v>
+        <v>5.601454202838498</v>
       </c>
       <c r="L48" t="n">
-        <v>29.66309176486142</v>
+        <v>5.601454202838498</v>
       </c>
       <c r="M48" t="n">
-        <v>29.66309176486142</v>
+        <v>5.601454202838498</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>572.8724178771688</v>
+        <v>578.315411736936</v>
       </c>
     </row>
     <row r="49">
@@ -3015,40 +3015,40 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>43800</v>
+        <v>44409</v>
       </c>
       <c r="C49" t="n">
-        <v>544.4995562063259</v>
+        <v>573.7638315971931</v>
       </c>
       <c r="D49" t="n">
-        <v>489.6875744509191</v>
+        <v>561.1829091879963</v>
       </c>
       <c r="E49" t="n">
-        <v>554.5588017583262</v>
+        <v>623.1995921089223</v>
       </c>
       <c r="F49" t="n">
-        <v>544.4995562063259</v>
+        <v>573.7638315971931</v>
       </c>
       <c r="G49" t="n">
-        <v>544.4995562063259</v>
+        <v>573.7638315971931</v>
       </c>
       <c r="H49" t="n">
-        <v>-22.35470374597381</v>
+        <v>19.4485514730737</v>
       </c>
       <c r="I49" t="n">
-        <v>-22.35470374597381</v>
+        <v>19.4485514730737</v>
       </c>
       <c r="J49" t="n">
-        <v>-22.35470374597381</v>
+        <v>19.4485514730737</v>
       </c>
       <c r="K49" t="n">
-        <v>-22.35470374597381</v>
+        <v>19.4485514730737</v>
       </c>
       <c r="L49" t="n">
-        <v>-22.35470374597381</v>
+        <v>19.4485514730737</v>
       </c>
       <c r="M49" t="n">
-        <v>-22.35470374597381</v>
+        <v>19.4485514730737</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>522.1448524603521</v>
+        <v>593.2123830702668</v>
       </c>
     </row>
     <row r="50">
@@ -3068,40 +3068,40 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>43831</v>
+        <v>44440</v>
       </c>
       <c r="C50" t="n">
-        <v>545.8327773564187</v>
+        <v>574.8137056602885</v>
       </c>
       <c r="D50" t="n">
-        <v>493.825900667495</v>
+        <v>576.6921030533722</v>
       </c>
       <c r="E50" t="n">
-        <v>558.7384447239571</v>
+        <v>638.9722085145261</v>
       </c>
       <c r="F50" t="n">
-        <v>545.8327773564187</v>
+        <v>574.8137056602885</v>
       </c>
       <c r="G50" t="n">
-        <v>545.8327773564187</v>
+        <v>574.8137056602885</v>
       </c>
       <c r="H50" t="n">
-        <v>-19.68388697478301</v>
+        <v>33.38843742010661</v>
       </c>
       <c r="I50" t="n">
-        <v>-19.68388697478301</v>
+        <v>33.38843742010661</v>
       </c>
       <c r="J50" t="n">
-        <v>-19.68388697478301</v>
+        <v>33.38843742010661</v>
       </c>
       <c r="K50" t="n">
-        <v>-19.68388697478301</v>
+        <v>33.38843742010661</v>
       </c>
       <c r="L50" t="n">
-        <v>-19.68388697478301</v>
+        <v>33.38843742010661</v>
       </c>
       <c r="M50" t="n">
-        <v>-19.68388697478301</v>
+        <v>33.38843742010661</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>526.1488903816356</v>
+        <v>608.2021430803951</v>
       </c>
     </row>
     <row r="51">
@@ -3121,40 +3121,40 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>43862</v>
+        <v>44470</v>
       </c>
       <c r="C51" t="n">
-        <v>547.1659985065114</v>
+        <v>575.8297128181229</v>
       </c>
       <c r="D51" t="n">
-        <v>492.1841368019684</v>
+        <v>570.4634034709641</v>
       </c>
       <c r="E51" t="n">
-        <v>555.1142852076423</v>
+        <v>629.8050756225174</v>
       </c>
       <c r="F51" t="n">
-        <v>547.1659985065114</v>
+        <v>575.8297128181229</v>
       </c>
       <c r="G51" t="n">
-        <v>547.1659985065114</v>
+        <v>575.8297128181229</v>
       </c>
       <c r="H51" t="n">
-        <v>-23.87546252476517</v>
+        <v>24.4153717356944</v>
       </c>
       <c r="I51" t="n">
-        <v>-23.87546252476517</v>
+        <v>24.4153717356944</v>
       </c>
       <c r="J51" t="n">
-        <v>-23.87546252476517</v>
+        <v>24.4153717356944</v>
       </c>
       <c r="K51" t="n">
-        <v>-23.87546252476517</v>
+        <v>24.4153717356944</v>
       </c>
       <c r="L51" t="n">
-        <v>-23.87546252476517</v>
+        <v>24.4153717356944</v>
       </c>
       <c r="M51" t="n">
-        <v>-23.87546252476517</v>
+        <v>24.4153717356944</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>523.2905359817462</v>
+        <v>600.2450845538173</v>
       </c>
     </row>
     <row r="52">
@@ -3174,40 +3174,40 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>43891</v>
+        <v>44501</v>
       </c>
       <c r="C52" t="n">
-        <v>548.4132053888562</v>
+        <v>576.8795868812183</v>
       </c>
       <c r="D52" t="n">
-        <v>508.4894017517723</v>
+        <v>560.5727555685087</v>
       </c>
       <c r="E52" t="n">
-        <v>573.0192086720064</v>
+        <v>619.940182357463</v>
       </c>
       <c r="F52" t="n">
-        <v>548.4132053888562</v>
+        <v>576.8795868812183</v>
       </c>
       <c r="G52" t="n">
-        <v>548.4132053888562</v>
+        <v>576.8795868812183</v>
       </c>
       <c r="H52" t="n">
-        <v>-7.296107261114535</v>
+        <v>12.64527381048019</v>
       </c>
       <c r="I52" t="n">
-        <v>-7.296107261114535</v>
+        <v>12.64527381048019</v>
       </c>
       <c r="J52" t="n">
-        <v>-7.296107261114535</v>
+        <v>12.64527381048019</v>
       </c>
       <c r="K52" t="n">
-        <v>-7.296107261114535</v>
+        <v>12.64527381048019</v>
       </c>
       <c r="L52" t="n">
-        <v>-7.296107261114535</v>
+        <v>12.64527381048019</v>
       </c>
       <c r="M52" t="n">
-        <v>-7.296107261114535</v>
+        <v>12.64527381048019</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>541.1170981277417</v>
+        <v>589.5248606916984</v>
       </c>
     </row>
     <row r="53">
@@ -3227,40 +3227,40 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>43922</v>
+        <v>44531</v>
       </c>
       <c r="C53" t="n">
-        <v>549.7453482961804</v>
+        <v>577.8955940390528</v>
       </c>
       <c r="D53" t="n">
-        <v>492.3285187760338</v>
+        <v>539.6297379225518</v>
       </c>
       <c r="E53" t="n">
-        <v>556.8589102142926</v>
+        <v>597.6799254332561</v>
       </c>
       <c r="F53" t="n">
-        <v>549.7453482961804</v>
+        <v>577.8955940390528</v>
       </c>
       <c r="G53" t="n">
-        <v>549.7453482961804</v>
+        <v>577.8955940390528</v>
       </c>
       <c r="H53" t="n">
-        <v>-23.65972118929105</v>
+        <v>-8.217838166622156</v>
       </c>
       <c r="I53" t="n">
-        <v>-23.65972118929105</v>
+        <v>-8.217838166622156</v>
       </c>
       <c r="J53" t="n">
-        <v>-23.65972118929105</v>
+        <v>-8.217838166622156</v>
       </c>
       <c r="K53" t="n">
-        <v>-23.65972118929105</v>
+        <v>-8.217838166622156</v>
       </c>
       <c r="L53" t="n">
-        <v>-23.65972118929105</v>
+        <v>-8.217838166622156</v>
       </c>
       <c r="M53" t="n">
-        <v>-23.65972118929105</v>
+        <v>-8.217838166622156</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>526.0856271068893</v>
+        <v>569.6777558724306</v>
       </c>
     </row>
     <row r="54">
@@ -3280,40 +3280,40 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>43952</v>
+        <v>44562</v>
       </c>
       <c r="C54" t="n">
-        <v>551.0345188516555</v>
+        <v>578.9454681021482</v>
       </c>
       <c r="D54" t="n">
-        <v>499.9549566544235</v>
+        <v>538.3226369812463</v>
       </c>
       <c r="E54" t="n">
-        <v>565.4287927832625</v>
+        <v>597.3458209697153</v>
       </c>
       <c r="F54" t="n">
-        <v>551.0345188516555</v>
+        <v>578.9454681021482</v>
       </c>
       <c r="G54" t="n">
-        <v>551.0345188516555</v>
+        <v>578.9454681021482</v>
       </c>
       <c r="H54" t="n">
-        <v>-17.24618053901947</v>
+        <v>-10.71201590382601</v>
       </c>
       <c r="I54" t="n">
-        <v>-17.24618053901947</v>
+        <v>-10.71201590382601</v>
       </c>
       <c r="J54" t="n">
-        <v>-17.24618053901947</v>
+        <v>-10.71201590382601</v>
       </c>
       <c r="K54" t="n">
-        <v>-17.24618053901947</v>
+        <v>-10.71201590382601</v>
       </c>
       <c r="L54" t="n">
-        <v>-17.24618053901947</v>
+        <v>-10.71201590382601</v>
       </c>
       <c r="M54" t="n">
-        <v>-17.24618053901947</v>
+        <v>-10.71201590382601</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>533.788338312636</v>
+        <v>568.2334521983222</v>
       </c>
     </row>
     <row r="55">
@@ -3333,40 +3333,40 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>43983</v>
+        <v>44593</v>
       </c>
       <c r="C55" t="n">
-        <v>552.3659526586655</v>
+        <v>579.9953421652438</v>
       </c>
       <c r="D55" t="n">
-        <v>512.8756788095062</v>
+        <v>526.5064035731031</v>
       </c>
       <c r="E55" t="n">
-        <v>574.2732404793677</v>
+        <v>583.7571581933431</v>
       </c>
       <c r="F55" t="n">
-        <v>552.3659526586655</v>
+        <v>579.9953421652438</v>
       </c>
       <c r="G55" t="n">
-        <v>552.3659526586655</v>
+        <v>579.9953421652438</v>
       </c>
       <c r="H55" t="n">
-        <v>-7.238763267369529</v>
+        <v>-25.23674676710561</v>
       </c>
       <c r="I55" t="n">
-        <v>-7.238763267369529</v>
+        <v>-25.23674676710561</v>
       </c>
       <c r="J55" t="n">
-        <v>-7.238763267369529</v>
+        <v>-25.23674676710561</v>
       </c>
       <c r="K55" t="n">
-        <v>-7.238763267369529</v>
+        <v>-25.23674676710561</v>
       </c>
       <c r="L55" t="n">
-        <v>-7.238763267369529</v>
+        <v>-25.23674676710561</v>
       </c>
       <c r="M55" t="n">
-        <v>-7.238763267369529</v>
+        <v>-25.23674676710561</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>545.1271893912959</v>
+        <v>554.7585953981381</v>
       </c>
     </row>
     <row r="56">
@@ -3386,40 +3386,40 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>44013</v>
+        <v>44621</v>
       </c>
       <c r="C56" t="n">
-        <v>553.6544369880301</v>
+        <v>580.9436155125558</v>
       </c>
       <c r="D56" t="n">
-        <v>541.9546351710712</v>
+        <v>560.5861770907757</v>
       </c>
       <c r="E56" t="n">
-        <v>609.2870079094117</v>
+        <v>618.5152287786671</v>
       </c>
       <c r="F56" t="n">
-        <v>553.6544369880301</v>
+        <v>580.9436155125558</v>
       </c>
       <c r="G56" t="n">
-        <v>553.6544369880301</v>
+        <v>580.9436155125558</v>
       </c>
       <c r="H56" t="n">
-        <v>23.30606362742388</v>
+        <v>9.055718856171218</v>
       </c>
       <c r="I56" t="n">
-        <v>23.30606362742388</v>
+        <v>9.055718856171218</v>
       </c>
       <c r="J56" t="n">
-        <v>23.30606362742388</v>
+        <v>9.055718856171218</v>
       </c>
       <c r="K56" t="n">
-        <v>23.30606362742388</v>
+        <v>9.055718856171218</v>
       </c>
       <c r="L56" t="n">
-        <v>23.30606362742388</v>
+        <v>9.055718856171218</v>
       </c>
       <c r="M56" t="n">
-        <v>23.30606362742388</v>
+        <v>9.055718856171218</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>576.960500615454</v>
+        <v>589.999334368727</v>
       </c>
     </row>
     <row r="57">
@@ -3439,40 +3439,40 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>44044</v>
+        <v>44652</v>
       </c>
       <c r="C57" t="n">
-        <v>554.6681918781421</v>
+        <v>581.9934895756513</v>
       </c>
       <c r="D57" t="n">
-        <v>563.6105893993011</v>
+        <v>529.9378432279349</v>
       </c>
       <c r="E57" t="n">
-        <v>626.0517150370617</v>
+        <v>593.4979729472154</v>
       </c>
       <c r="F57" t="n">
-        <v>554.6681918781421</v>
+        <v>581.9934895756513</v>
       </c>
       <c r="G57" t="n">
-        <v>554.6681918781421</v>
+        <v>581.9934895756513</v>
       </c>
       <c r="H57" t="n">
-        <v>40.16093959691842</v>
+        <v>-19.8068883875119</v>
       </c>
       <c r="I57" t="n">
-        <v>40.16093959691842</v>
+        <v>-19.8068883875119</v>
       </c>
       <c r="J57" t="n">
-        <v>40.16093959691842</v>
+        <v>-19.8068883875119</v>
       </c>
       <c r="K57" t="n">
-        <v>40.16093959691842</v>
+        <v>-19.8068883875119</v>
       </c>
       <c r="L57" t="n">
-        <v>40.16093959691842</v>
+        <v>-19.8068883875119</v>
       </c>
       <c r="M57" t="n">
-        <v>40.16093959691842</v>
+        <v>-19.8068883875119</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>594.8291314750605</v>
+        <v>562.1866011881394</v>
       </c>
     </row>
     <row r="58">
@@ -3492,40 +3492,40 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>44075</v>
+        <v>44682</v>
       </c>
       <c r="C58" t="n">
-        <v>555.6819467682542</v>
+        <v>583.0094967334857</v>
       </c>
       <c r="D58" t="n">
-        <v>545.7148056742848</v>
+        <v>519.5456858211821</v>
       </c>
       <c r="E58" t="n">
-        <v>608.4327137604175</v>
+        <v>579.3245937717538</v>
       </c>
       <c r="F58" t="n">
-        <v>555.6819467682542</v>
+        <v>583.0094967334857</v>
       </c>
       <c r="G58" t="n">
-        <v>555.6819467682542</v>
+        <v>583.0094967334857</v>
       </c>
       <c r="H58" t="n">
-        <v>23.00967237111744</v>
+        <v>-34.49968697949635</v>
       </c>
       <c r="I58" t="n">
-        <v>23.00967237111744</v>
+        <v>-34.49968697949635</v>
       </c>
       <c r="J58" t="n">
-        <v>23.00967237111744</v>
+        <v>-34.49968697949635</v>
       </c>
       <c r="K58" t="n">
-        <v>23.00967237111744</v>
+        <v>-34.49968697949635</v>
       </c>
       <c r="L58" t="n">
-        <v>23.00967237111744</v>
+        <v>-34.49968697949635</v>
       </c>
       <c r="M58" t="n">
-        <v>23.00967237111744</v>
+        <v>-34.49968697949635</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>578.6916191393716</v>
+        <v>548.5098097539893</v>
       </c>
     </row>
     <row r="59">
@@ -3545,40 +3545,40 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>44105</v>
+        <v>44713</v>
       </c>
       <c r="C59" t="n">
-        <v>556.6629998877174</v>
+        <v>584.0593707965811</v>
       </c>
       <c r="D59" t="n">
-        <v>541.1494451444992</v>
+        <v>530.0578302134717</v>
       </c>
       <c r="E59" t="n">
-        <v>610.4467146431514</v>
+        <v>588.8124281759573</v>
       </c>
       <c r="F59" t="n">
-        <v>556.6629998877174</v>
+        <v>584.0569326937791</v>
       </c>
       <c r="G59" t="n">
-        <v>556.6629998877174</v>
+        <v>584.0625088769945</v>
       </c>
       <c r="H59" t="n">
-        <v>18.70327705747186</v>
+        <v>-24.45599269122992</v>
       </c>
       <c r="I59" t="n">
-        <v>18.70327705747186</v>
+        <v>-24.45599269122992</v>
       </c>
       <c r="J59" t="n">
-        <v>18.70327705747186</v>
+        <v>-24.45599269122992</v>
       </c>
       <c r="K59" t="n">
-        <v>18.70327705747186</v>
+        <v>-24.45599269122992</v>
       </c>
       <c r="L59" t="n">
-        <v>18.70327705747186</v>
+        <v>-24.45599269122992</v>
       </c>
       <c r="M59" t="n">
-        <v>18.70327705747186</v>
+        <v>-24.45599269122992</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>575.3662769451893</v>
+        <v>559.6033781053512</v>
       </c>
     </row>
     <row r="60">
@@ -3598,40 +3598,40 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>44136</v>
+        <v>44743</v>
       </c>
       <c r="C60" t="n">
-        <v>557.6719327873195</v>
+        <v>585.0753779544156</v>
       </c>
       <c r="D60" t="n">
-        <v>530.8653009088229</v>
+        <v>554.976998801638</v>
       </c>
       <c r="E60" t="n">
-        <v>593.1590778086271</v>
+        <v>614.7053899029731</v>
       </c>
       <c r="F60" t="n">
-        <v>557.6719327873195</v>
+        <v>585.0616670276983</v>
       </c>
       <c r="G60" t="n">
-        <v>557.6719327873195</v>
+        <v>585.0899220556403</v>
       </c>
       <c r="H60" t="n">
-        <v>4.623565143423019</v>
+        <v>0.3353481677647108</v>
       </c>
       <c r="I60" t="n">
-        <v>4.623565143423019</v>
+        <v>0.3353481677647108</v>
       </c>
       <c r="J60" t="n">
-        <v>4.623565143423019</v>
+        <v>0.3353481677647108</v>
       </c>
       <c r="K60" t="n">
-        <v>4.623565143423019</v>
+        <v>0.3353481677647108</v>
       </c>
       <c r="L60" t="n">
-        <v>4.623565143423019</v>
+        <v>0.3353481677647108</v>
       </c>
       <c r="M60" t="n">
-        <v>4.623565143423019</v>
+        <v>0.3353481677647108</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>562.2954979307425</v>
+        <v>585.4107261221802</v>
       </c>
     </row>
     <row r="61">
@@ -3651,40 +3651,40 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>44166</v>
+        <v>44774</v>
       </c>
       <c r="C61" t="n">
-        <v>558.6483194643537</v>
+        <v>586.125252017511</v>
       </c>
       <c r="D61" t="n">
-        <v>525.3404449787962</v>
+        <v>571.5706306743479</v>
       </c>
       <c r="E61" t="n">
-        <v>590.7017996686041</v>
+        <v>627.7645406059474</v>
       </c>
       <c r="F61" t="n">
-        <v>558.6483194643537</v>
+        <v>586.1000826321351</v>
       </c>
       <c r="G61" t="n">
-        <v>558.6483194643537</v>
+        <v>586.1559918065818</v>
       </c>
       <c r="H61" t="n">
-        <v>0.1302801599851327</v>
+        <v>12.81075176879925</v>
       </c>
       <c r="I61" t="n">
-        <v>0.1302801599851327</v>
+        <v>12.81075176879925</v>
       </c>
       <c r="J61" t="n">
-        <v>0.1302801599851327</v>
+        <v>12.81075176879925</v>
       </c>
       <c r="K61" t="n">
-        <v>0.1302801599851327</v>
+        <v>12.81075176879925</v>
       </c>
       <c r="L61" t="n">
-        <v>0.1302801599851327</v>
+        <v>12.81075176879925</v>
       </c>
       <c r="M61" t="n">
-        <v>0.1302801599851327</v>
+        <v>12.81075176879925</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>558.7785996243388</v>
+        <v>598.9360037863103</v>
       </c>
     </row>
     <row r="62">
@@ -3704,40 +3704,40 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44197</v>
+        <v>44805</v>
       </c>
       <c r="C62" t="n">
-        <v>559.6562062093642</v>
+        <v>587.1751260806066</v>
       </c>
       <c r="D62" t="n">
-        <v>531.995651500188</v>
+        <v>594.6506239679169</v>
       </c>
       <c r="E62" t="n">
-        <v>599.1701937247385</v>
+        <v>654.1778327515609</v>
       </c>
       <c r="F62" t="n">
-        <v>559.6562062093642</v>
+        <v>587.1303145402139</v>
       </c>
       <c r="G62" t="n">
-        <v>559.6562062093642</v>
+        <v>587.2255736729603</v>
       </c>
       <c r="H62" t="n">
-        <v>5.565150729764024</v>
+        <v>36.95126271178803</v>
       </c>
       <c r="I62" t="n">
-        <v>5.565150729764024</v>
+        <v>36.95126271178803</v>
       </c>
       <c r="J62" t="n">
-        <v>5.565150729764024</v>
+        <v>36.95126271178803</v>
       </c>
       <c r="K62" t="n">
-        <v>5.565150729764024</v>
+        <v>36.95126271178803</v>
       </c>
       <c r="L62" t="n">
-        <v>5.565150729764024</v>
+        <v>36.95126271178803</v>
       </c>
       <c r="M62" t="n">
-        <v>5.565150729764024</v>
+        <v>36.95126271178803</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>565.2213569391282</v>
+        <v>624.1263887923946</v>
       </c>
     </row>
     <row r="63">
@@ -3757,40 +3757,40 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44228</v>
+        <v>44835</v>
       </c>
       <c r="C63" t="n">
-        <v>560.6640929543747</v>
+        <v>588.1911332384408</v>
       </c>
       <c r="D63" t="n">
-        <v>524.9173294491496</v>
+        <v>589.2862537517781</v>
       </c>
       <c r="E63" t="n">
-        <v>590.3547105805421</v>
+        <v>648.3908256136676</v>
       </c>
       <c r="F63" t="n">
-        <v>560.6640929543747</v>
+        <v>588.1241082051862</v>
       </c>
       <c r="G63" t="n">
-        <v>560.6640929543747</v>
+        <v>588.2656602798061</v>
       </c>
       <c r="H63" t="n">
-        <v>-1.871425601412065</v>
+        <v>31.66522311902281</v>
       </c>
       <c r="I63" t="n">
-        <v>-1.871425601412065</v>
+        <v>31.66522311902281</v>
       </c>
       <c r="J63" t="n">
-        <v>-1.871425601412065</v>
+        <v>31.66522311902281</v>
       </c>
       <c r="K63" t="n">
-        <v>-1.871425601412065</v>
+        <v>31.66522311902281</v>
       </c>
       <c r="L63" t="n">
-        <v>-1.871425601412065</v>
+        <v>31.66522311902281</v>
       </c>
       <c r="M63" t="n">
-        <v>-1.871425601412065</v>
+        <v>31.66522311902281</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>558.7926673529627</v>
+        <v>619.8563563574636</v>
       </c>
     </row>
     <row r="64">
@@ -3810,40 +3810,40 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>44256</v>
+        <v>44866</v>
       </c>
       <c r="C64" t="n">
-        <v>561.5744422724488</v>
+        <v>589.2410073015363</v>
       </c>
       <c r="D64" t="n">
-        <v>534.6471747302988</v>
+        <v>581.31253103035</v>
       </c>
       <c r="E64" t="n">
-        <v>598.9019241332535</v>
+        <v>641.0942269963061</v>
       </c>
       <c r="F64" t="n">
-        <v>561.5744422724488</v>
+        <v>589.1507223013911</v>
       </c>
       <c r="G64" t="n">
-        <v>561.5744422724488</v>
+        <v>589.3424118192457</v>
       </c>
       <c r="H64" t="n">
-        <v>4.507047677994032</v>
+        <v>22.37120656690524</v>
       </c>
       <c r="I64" t="n">
-        <v>4.507047677994032</v>
+        <v>22.37120656690524</v>
       </c>
       <c r="J64" t="n">
-        <v>4.507047677994032</v>
+        <v>22.37120656690524</v>
       </c>
       <c r="K64" t="n">
-        <v>4.507047677994032</v>
+        <v>22.37120656690524</v>
       </c>
       <c r="L64" t="n">
-        <v>4.507047677994032</v>
+        <v>22.37120656690524</v>
       </c>
       <c r="M64" t="n">
-        <v>4.507047677994032</v>
+        <v>22.37120656690524</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>566.0814899504428</v>
+        <v>611.6122138684416</v>
       </c>
     </row>
     <row r="65">
@@ -3863,40 +3863,40 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>44287</v>
+        <v>44896</v>
       </c>
       <c r="C65" t="n">
-        <v>562.5823290174592</v>
+        <v>590.2570144593707</v>
       </c>
       <c r="D65" t="n">
-        <v>512.4727839494332</v>
+        <v>540.8181167423184</v>
       </c>
       <c r="E65" t="n">
-        <v>577.3302978343052</v>
+        <v>599.1103771766892</v>
       </c>
       <c r="F65" t="n">
-        <v>562.5823290174592</v>
+        <v>590.1468204699889</v>
       </c>
       <c r="G65" t="n">
-        <v>562.5823290174592</v>
+        <v>590.3823787451216</v>
       </c>
       <c r="H65" t="n">
-        <v>-17.49505773923423</v>
+        <v>-20.79027523741233</v>
       </c>
       <c r="I65" t="n">
-        <v>-17.49505773923423</v>
+        <v>-20.79027523741233</v>
       </c>
       <c r="J65" t="n">
-        <v>-17.49505773923423</v>
+        <v>-20.79027523741233</v>
       </c>
       <c r="K65" t="n">
-        <v>-17.49505773923423</v>
+        <v>-20.79027523741233</v>
       </c>
       <c r="L65" t="n">
-        <v>-17.49505773923423</v>
+        <v>-20.79027523741233</v>
       </c>
       <c r="M65" t="n">
-        <v>-17.49505773923423</v>
+        <v>-20.79027523741233</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>545.087271278225</v>
+        <v>569.4667392219584</v>
       </c>
     </row>
     <row r="66">
@@ -3916,40 +3916,40 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>44317</v>
+        <v>44927</v>
       </c>
       <c r="C66" t="n">
-        <v>563.5577032868242</v>
+        <v>591.3068885224661</v>
       </c>
       <c r="D66" t="n">
-        <v>512.4795949143308</v>
+        <v>545.0449869071709</v>
       </c>
       <c r="E66" t="n">
-        <v>576.7196831650406</v>
+        <v>605.5491335816791</v>
       </c>
       <c r="F66" t="n">
-        <v>563.5577032868242</v>
+        <v>591.1720658144535</v>
       </c>
       <c r="G66" t="n">
-        <v>563.5577032868242</v>
+        <v>591.4625614213118</v>
       </c>
       <c r="H66" t="n">
-        <v>-19.34087140741446</v>
+        <v>-15.20587246066271</v>
       </c>
       <c r="I66" t="n">
-        <v>-19.34087140741446</v>
+        <v>-15.20587246066271</v>
       </c>
       <c r="J66" t="n">
-        <v>-19.34087140741446</v>
+        <v>-15.20587246066271</v>
       </c>
       <c r="K66" t="n">
-        <v>-19.34087140741446</v>
+        <v>-15.20587246066271</v>
       </c>
       <c r="L66" t="n">
-        <v>-19.34087140741446</v>
+        <v>-15.20587246066271</v>
       </c>
       <c r="M66" t="n">
-        <v>-19.34087140741446</v>
+        <v>-15.20587246066271</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>544.2168318794097</v>
+        <v>576.1010160618034</v>
       </c>
     </row>
     <row r="67">
@@ -3969,40 +3969,40 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>44348</v>
+        <v>44958</v>
       </c>
       <c r="C67" t="n">
-        <v>564.5655900318347</v>
+        <v>592.3567625855617</v>
       </c>
       <c r="D67" t="n">
-        <v>523.2584213286141</v>
+        <v>538.8669439107398</v>
       </c>
       <c r="E67" t="n">
-        <v>588.3431771459806</v>
+        <v>596.9999028688346</v>
       </c>
       <c r="F67" t="n">
-        <v>564.5655900318347</v>
+        <v>592.1942756712498</v>
       </c>
       <c r="G67" t="n">
-        <v>564.5655900318347</v>
+        <v>592.5470619451446</v>
       </c>
       <c r="H67" t="n">
-        <v>-9.824732963446772</v>
+        <v>-23.75676374862655</v>
       </c>
       <c r="I67" t="n">
-        <v>-9.824732963446772</v>
+        <v>-23.75676374862655</v>
       </c>
       <c r="J67" t="n">
-        <v>-9.824732963446772</v>
+        <v>-23.75676374862655</v>
       </c>
       <c r="K67" t="n">
-        <v>-9.824732963446772</v>
+        <v>-23.75676374862655</v>
       </c>
       <c r="L67" t="n">
-        <v>-9.824732963446772</v>
+        <v>-23.75676374862655</v>
       </c>
       <c r="M67" t="n">
-        <v>-9.824732963446772</v>
+        <v>-23.75676374862655</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>554.740857068388</v>
+        <v>568.5999988369351</v>
       </c>
     </row>
     <row r="68">
@@ -4022,40 +4022,40 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>44378</v>
+        <v>44986</v>
       </c>
       <c r="C68" t="n">
-        <v>565.5409643011998</v>
+        <v>593.3050359328738</v>
       </c>
       <c r="D68" t="n">
-        <v>553.6577099235095</v>
+        <v>572.1171693830196</v>
       </c>
       <c r="E68" t="n">
-        <v>615.5578022517277</v>
+        <v>632.7964717297814</v>
       </c>
       <c r="F68" t="n">
-        <v>565.5409643011998</v>
+        <v>593.1186290900264</v>
       </c>
       <c r="G68" t="n">
-        <v>565.5409643011998</v>
+        <v>593.5201707882903</v>
       </c>
       <c r="H68" t="n">
-        <v>19.43513365960325</v>
+        <v>8.039359097942054</v>
       </c>
       <c r="I68" t="n">
-        <v>19.43513365960325</v>
+        <v>8.039359097942054</v>
       </c>
       <c r="J68" t="n">
-        <v>19.43513365960325</v>
+        <v>8.039359097942054</v>
       </c>
       <c r="K68" t="n">
-        <v>19.43513365960325</v>
+        <v>8.039359097942054</v>
       </c>
       <c r="L68" t="n">
-        <v>19.43513365960325</v>
+        <v>8.039359097942054</v>
       </c>
       <c r="M68" t="n">
-        <v>19.43513365960325</v>
+        <v>8.039359097942054</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>584.976097960803</v>
+        <v>601.3443950308158</v>
       </c>
     </row>
     <row r="69">
@@ -4075,40 +4075,40 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>44409</v>
+        <v>45017</v>
       </c>
       <c r="C69" t="n">
-        <v>566.5488510462103</v>
+        <v>594.3549099959693</v>
       </c>
       <c r="D69" t="n">
-        <v>564.5359399444766</v>
+        <v>550.8651640131608</v>
       </c>
       <c r="E69" t="n">
-        <v>629.5597997706938</v>
+        <v>611.096867838026</v>
       </c>
       <c r="F69" t="n">
-        <v>566.5488510462103</v>
+        <v>594.1375190149454</v>
       </c>
       <c r="G69" t="n">
-        <v>566.5488510462103</v>
+        <v>594.6042396458234</v>
       </c>
       <c r="H69" t="n">
-        <v>30.15140830896697</v>
+        <v>-11.64695201301629</v>
       </c>
       <c r="I69" t="n">
-        <v>30.15140830896697</v>
+        <v>-11.64695201301629</v>
       </c>
       <c r="J69" t="n">
-        <v>30.15140830896697</v>
+        <v>-11.64695201301629</v>
       </c>
       <c r="K69" t="n">
-        <v>30.15140830896697</v>
+        <v>-11.64695201301629</v>
       </c>
       <c r="L69" t="n">
-        <v>30.15140830896697</v>
+        <v>-11.64695201301629</v>
       </c>
       <c r="M69" t="n">
-        <v>30.15140830896697</v>
+        <v>-11.64695201301629</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>596.7002593551773</v>
+        <v>582.707957982953</v>
       </c>
     </row>
     <row r="70">
@@ -4128,40 +4128,40 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>44440</v>
+        <v>45047</v>
       </c>
       <c r="C70" t="n">
-        <v>567.5567377912207</v>
+        <v>595.3709171538036</v>
       </c>
       <c r="D70" t="n">
-        <v>566.4675421004072</v>
+        <v>534.3255016411695</v>
       </c>
       <c r="E70" t="n">
-        <v>629.7371803758542</v>
+        <v>592.7985642468526</v>
       </c>
       <c r="F70" t="n">
-        <v>567.5567377912207</v>
+        <v>595.1214403832315</v>
       </c>
       <c r="G70" t="n">
-        <v>567.5567377912207</v>
+        <v>595.6544390481099</v>
       </c>
       <c r="H70" t="n">
-        <v>30.5239742039723</v>
+        <v>-32.70608315006481</v>
       </c>
       <c r="I70" t="n">
-        <v>30.5239742039723</v>
+        <v>-32.70608315006481</v>
       </c>
       <c r="J70" t="n">
-        <v>30.5239742039723</v>
+        <v>-32.70608315006481</v>
       </c>
       <c r="K70" t="n">
-        <v>30.5239742039723</v>
+        <v>-32.70608315006481</v>
       </c>
       <c r="L70" t="n">
-        <v>30.5239742039723</v>
+        <v>-32.70608315006481</v>
       </c>
       <c r="M70" t="n">
-        <v>30.5239742039723</v>
+        <v>-32.70608315006481</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>598.080711995193</v>
+        <v>562.6648340037387</v>
       </c>
     </row>
     <row r="71">
@@ -4181,40 +4181,40 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>44470</v>
+        <v>45078</v>
       </c>
       <c r="C71" t="n">
-        <v>568.5321120605857</v>
+        <v>596.420791216899</v>
       </c>
       <c r="D71" t="n">
-        <v>562.4849585914823</v>
+        <v>539.701683327929</v>
       </c>
       <c r="E71" t="n">
-        <v>626.7743943358373</v>
+        <v>599.6900544423894</v>
       </c>
       <c r="F71" t="n">
-        <v>568.5321120605857</v>
+        <v>596.1337130244034</v>
       </c>
       <c r="G71" t="n">
-        <v>568.5321120605857</v>
+        <v>596.7347080619459</v>
       </c>
       <c r="H71" t="n">
-        <v>24.68779218549409</v>
+        <v>-27.72717124040991</v>
       </c>
       <c r="I71" t="n">
-        <v>24.68779218549409</v>
+        <v>-27.72717124040991</v>
       </c>
       <c r="J71" t="n">
-        <v>24.68779218549409</v>
+        <v>-27.72717124040991</v>
       </c>
       <c r="K71" t="n">
-        <v>24.68779218549409</v>
+        <v>-27.72717124040991</v>
       </c>
       <c r="L71" t="n">
-        <v>24.68779218549409</v>
+        <v>-27.72717124040991</v>
       </c>
       <c r="M71" t="n">
-        <v>24.68779218549409</v>
+        <v>-27.72717124040991</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>593.2199042460799</v>
+        <v>568.6936199764891</v>
       </c>
     </row>
     <row r="72">
@@ -4234,40 +4234,40 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>44501</v>
+        <v>45108</v>
       </c>
       <c r="C72" t="n">
-        <v>569.5399988055963</v>
+        <v>597.4367983747335</v>
       </c>
       <c r="D72" t="n">
-        <v>548.0654734465443</v>
+        <v>561.7005086937609</v>
       </c>
       <c r="E72" t="n">
-        <v>613.1666462992829</v>
+        <v>622.278470492731</v>
       </c>
       <c r="F72" t="n">
-        <v>569.5399988055963</v>
+        <v>597.1156033914177</v>
       </c>
       <c r="G72" t="n">
-        <v>569.5399988055963</v>
+        <v>597.7865180431581</v>
       </c>
       <c r="H72" t="n">
-        <v>13.23818670997447</v>
+        <v>-4.953835100674561</v>
       </c>
       <c r="I72" t="n">
-        <v>13.23818670997447</v>
+        <v>-4.953835100674561</v>
       </c>
       <c r="J72" t="n">
-        <v>13.23818670997447</v>
+        <v>-4.953835100674561</v>
       </c>
       <c r="K72" t="n">
-        <v>13.23818670997447</v>
+        <v>-4.953835100674561</v>
       </c>
       <c r="L72" t="n">
-        <v>13.23818670997447</v>
+        <v>-4.953835100674561</v>
       </c>
       <c r="M72" t="n">
-        <v>13.23818670997447</v>
+        <v>-4.953835100674561</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>582.7781855155707</v>
+        <v>592.4829632740589</v>
       </c>
     </row>
     <row r="73">
@@ -4287,40 +4287,40 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>44531</v>
+        <v>45139</v>
       </c>
       <c r="C73" t="n">
-        <v>570.5153730749613</v>
+        <v>598.4866724378289</v>
       </c>
       <c r="D73" t="n">
-        <v>530.9267381818538</v>
+        <v>574.5508737563752</v>
       </c>
       <c r="E73" t="n">
-        <v>597.4874284049836</v>
+        <v>634.9671121167759</v>
       </c>
       <c r="F73" t="n">
-        <v>570.5153730749613</v>
+        <v>598.1228635538929</v>
       </c>
       <c r="G73" t="n">
-        <v>570.5153730749613</v>
+        <v>598.8747631086108</v>
       </c>
       <c r="H73" t="n">
-        <v>-7.075747351698066</v>
+        <v>6.375973937159233</v>
       </c>
       <c r="I73" t="n">
-        <v>-7.075747351698066</v>
+        <v>6.375973937159233</v>
       </c>
       <c r="J73" t="n">
-        <v>-7.075747351698066</v>
+        <v>6.375973937159233</v>
       </c>
       <c r="K73" t="n">
-        <v>-7.075747351698066</v>
+        <v>6.375973937159233</v>
       </c>
       <c r="L73" t="n">
-        <v>-7.075747351698066</v>
+        <v>6.375973937159233</v>
       </c>
       <c r="M73" t="n">
-        <v>-7.075747351698066</v>
+        <v>6.375973937159233</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>563.4396257232632</v>
+        <v>604.8626463749881</v>
       </c>
     </row>
     <row r="74">
@@ -4340,40 +4340,40 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>44562</v>
+        <v>45170</v>
       </c>
       <c r="C74" t="n">
-        <v>571.5232598199717</v>
+        <v>599.5365465009245</v>
       </c>
       <c r="D74" t="n">
-        <v>540.0671340524943</v>
+        <v>612.7098304508683</v>
       </c>
       <c r="E74" t="n">
-        <v>600.2139942007479</v>
+        <v>669.1450235593002</v>
       </c>
       <c r="F74" t="n">
-        <v>571.5232598199717</v>
+        <v>599.1225192582509</v>
       </c>
       <c r="G74" t="n">
-        <v>571.5232598199717</v>
+        <v>599.9744760589701</v>
       </c>
       <c r="H74" t="n">
-        <v>-2.857897325728437</v>
+        <v>40.77325410661889</v>
       </c>
       <c r="I74" t="n">
-        <v>-2.857897325728437</v>
+        <v>40.77325410661889</v>
       </c>
       <c r="J74" t="n">
-        <v>-2.857897325728437</v>
+        <v>40.77325410661889</v>
       </c>
       <c r="K74" t="n">
-        <v>-2.857897325728437</v>
+        <v>40.77325410661889</v>
       </c>
       <c r="L74" t="n">
-        <v>-2.857897325728437</v>
+        <v>40.77325410661889</v>
       </c>
       <c r="M74" t="n">
-        <v>-2.857897325728437</v>
+        <v>40.77325410661889</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>568.6653624942433</v>
+        <v>640.3098006075434</v>
       </c>
     </row>
     <row r="75">
@@ -4393,40 +4393,40 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>44593</v>
+        <v>45200</v>
       </c>
       <c r="C75" t="n">
-        <v>572.5311465649824</v>
+        <v>600.5525536587588</v>
       </c>
       <c r="D75" t="n">
-        <v>533.0590175212885</v>
+        <v>609.3718146778391</v>
       </c>
       <c r="E75" t="n">
-        <v>596.1518337387072</v>
+        <v>668.7647487199456</v>
       </c>
       <c r="F75" t="n">
-        <v>572.5311465649824</v>
+        <v>600.096854644184</v>
       </c>
       <c r="G75" t="n">
-        <v>572.5311465649824</v>
+        <v>601.0119800140893</v>
       </c>
       <c r="H75" t="n">
-        <v>-9.519454310135373</v>
+        <v>38.95446720428661</v>
       </c>
       <c r="I75" t="n">
-        <v>-9.519454310135373</v>
+        <v>38.95446720428661</v>
       </c>
       <c r="J75" t="n">
-        <v>-9.519454310135373</v>
+        <v>38.95446720428661</v>
       </c>
       <c r="K75" t="n">
-        <v>-9.519454310135373</v>
+        <v>38.95446720428661</v>
       </c>
       <c r="L75" t="n">
-        <v>-9.519454310135373</v>
+        <v>38.95446720428661</v>
       </c>
       <c r="M75" t="n">
-        <v>-9.519454310135373</v>
+        <v>38.95446720428661</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4438,1014 +4438,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>563.0116922548469</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" s="2" t="n">
-        <v>44621</v>
-      </c>
-      <c r="C76" t="n">
-        <v>573.4414958830563</v>
-      </c>
-      <c r="D76" t="n">
-        <v>556.3667376499199</v>
-      </c>
-      <c r="E76" t="n">
-        <v>620.1569965866728</v>
-      </c>
-      <c r="F76" t="n">
-        <v>573.4414958830563</v>
-      </c>
-      <c r="G76" t="n">
-        <v>573.4414958830563</v>
-      </c>
-      <c r="H76" t="n">
-        <v>16.48321229220515</v>
-      </c>
-      <c r="I76" t="n">
-        <v>16.48321229220515</v>
-      </c>
-      <c r="J76" t="n">
-        <v>16.48321229220515</v>
-      </c>
-      <c r="K76" t="n">
-        <v>16.48321229220515</v>
-      </c>
-      <c r="L76" t="n">
-        <v>16.48321229220515</v>
-      </c>
-      <c r="M76" t="n">
-        <v>16.48321229220515</v>
-      </c>
-      <c r="N76" t="n">
-        <v>0</v>
-      </c>
-      <c r="O76" t="n">
-        <v>0</v>
-      </c>
-      <c r="P76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>589.9247081752615</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" s="2" t="n">
-        <v>44652</v>
-      </c>
-      <c r="C77" t="n">
-        <v>574.4493826280668</v>
-      </c>
-      <c r="D77" t="n">
-        <v>531.7122424587508</v>
-      </c>
-      <c r="E77" t="n">
-        <v>593.7240380104851</v>
-      </c>
-      <c r="F77" t="n">
-        <v>574.4493826280668</v>
-      </c>
-      <c r="G77" t="n">
-        <v>574.4493826280668</v>
-      </c>
-      <c r="H77" t="n">
-        <v>-11.50695144202833</v>
-      </c>
-      <c r="I77" t="n">
-        <v>-11.50695144202833</v>
-      </c>
-      <c r="J77" t="n">
-        <v>-11.50695144202833</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-11.50695144202833</v>
-      </c>
-      <c r="L77" t="n">
-        <v>-11.50695144202833</v>
-      </c>
-      <c r="M77" t="n">
-        <v>-11.50695144202833</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0</v>
-      </c>
-      <c r="P77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>562.9424311860384</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" s="2" t="n">
-        <v>44682</v>
-      </c>
-      <c r="C78" t="n">
-        <v>575.4247568974318</v>
-      </c>
-      <c r="D78" t="n">
-        <v>524.0646001536516</v>
-      </c>
-      <c r="E78" t="n">
-        <v>585.1555124712054</v>
-      </c>
-      <c r="F78" t="n">
-        <v>575.4071110045189</v>
-      </c>
-      <c r="G78" t="n">
-        <v>575.4346929612281</v>
-      </c>
-      <c r="H78" t="n">
-        <v>-21.64587828763352</v>
-      </c>
-      <c r="I78" t="n">
-        <v>-21.64587828763352</v>
-      </c>
-      <c r="J78" t="n">
-        <v>-21.64587828763352</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-21.64587828763352</v>
-      </c>
-      <c r="L78" t="n">
-        <v>-21.64587828763352</v>
-      </c>
-      <c r="M78" t="n">
-        <v>-21.64587828763352</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>553.7788786097983</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" s="2" t="n">
-        <v>44713</v>
-      </c>
-      <c r="C79" t="n">
-        <v>576.4326436424423</v>
-      </c>
-      <c r="D79" t="n">
-        <v>530.7159504246218</v>
-      </c>
-      <c r="E79" t="n">
-        <v>598.7488374761178</v>
-      </c>
-      <c r="F79" t="n">
-        <v>576.3142005829401</v>
-      </c>
-      <c r="G79" t="n">
-        <v>576.5329124972211</v>
-      </c>
-      <c r="H79" t="n">
-        <v>-12.52236862982292</v>
-      </c>
-      <c r="I79" t="n">
-        <v>-12.52236862982292</v>
-      </c>
-      <c r="J79" t="n">
-        <v>-12.52236862982292</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-12.52236862982292</v>
-      </c>
-      <c r="L79" t="n">
-        <v>-12.52236862982292</v>
-      </c>
-      <c r="M79" t="n">
-        <v>-12.52236862982292</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>563.9102750126193</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" s="2" t="n">
-        <v>44743</v>
-      </c>
-      <c r="C80" t="n">
-        <v>577.4080179118073</v>
-      </c>
-      <c r="D80" t="n">
-        <v>561.6584117522951</v>
-      </c>
-      <c r="E80" t="n">
-        <v>626.7525496281255</v>
-      </c>
-      <c r="F80" t="n">
-        <v>577.1436952197689</v>
-      </c>
-      <c r="G80" t="n">
-        <v>577.6316346746908</v>
-      </c>
-      <c r="H80" t="n">
-        <v>15.51883421050836</v>
-      </c>
-      <c r="I80" t="n">
-        <v>15.51883421050836</v>
-      </c>
-      <c r="J80" t="n">
-        <v>15.51883421050836</v>
-      </c>
-      <c r="K80" t="n">
-        <v>15.51883421050836</v>
-      </c>
-      <c r="L80" t="n">
-        <v>15.51883421050836</v>
-      </c>
-      <c r="M80" t="n">
-        <v>15.51883421050836</v>
-      </c>
-      <c r="N80" t="n">
-        <v>0</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0</v>
-      </c>
-      <c r="P80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>592.9268521223156</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" s="2" t="n">
-        <v>44774</v>
-      </c>
-      <c r="C81" t="n">
-        <v>578.4159046568178</v>
-      </c>
-      <c r="D81" t="n">
-        <v>566.4593292497639</v>
-      </c>
-      <c r="E81" t="n">
-        <v>630.8031462489641</v>
-      </c>
-      <c r="F81" t="n">
-        <v>577.9711070888191</v>
-      </c>
-      <c r="G81" t="n">
-        <v>578.8094640163343</v>
-      </c>
-      <c r="H81" t="n">
-        <v>20.37945575330511</v>
-      </c>
-      <c r="I81" t="n">
-        <v>20.37945575330511</v>
-      </c>
-      <c r="J81" t="n">
-        <v>20.37945575330511</v>
-      </c>
-      <c r="K81" t="n">
-        <v>20.37945575330511</v>
-      </c>
-      <c r="L81" t="n">
-        <v>20.37945575330511</v>
-      </c>
-      <c r="M81" t="n">
-        <v>20.37945575330511</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0</v>
-      </c>
-      <c r="P81" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>598.795360410123</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" s="2" t="n">
-        <v>44805</v>
-      </c>
-      <c r="C82" t="n">
-        <v>579.4237914018283</v>
-      </c>
-      <c r="D82" t="n">
-        <v>583.2695226582769</v>
-      </c>
-      <c r="E82" t="n">
-        <v>649.6539671297298</v>
-      </c>
-      <c r="F82" t="n">
-        <v>578.7707377154247</v>
-      </c>
-      <c r="G82" t="n">
-        <v>580.016049233477</v>
-      </c>
-      <c r="H82" t="n">
-        <v>38.3331397967403</v>
-      </c>
-      <c r="I82" t="n">
-        <v>38.3331397967403</v>
-      </c>
-      <c r="J82" t="n">
-        <v>38.3331397967403</v>
-      </c>
-      <c r="K82" t="n">
-        <v>38.3331397967403</v>
-      </c>
-      <c r="L82" t="n">
-        <v>38.3331397967403</v>
-      </c>
-      <c r="M82" t="n">
-        <v>38.3331397967403</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0</v>
-      </c>
-      <c r="P82" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>617.7569311985686</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" s="2" t="n">
-        <v>44835</v>
-      </c>
-      <c r="C83" t="n">
-        <v>580.3991656711934</v>
-      </c>
-      <c r="D83" t="n">
-        <v>579.8737296689599</v>
-      </c>
-      <c r="E83" t="n">
-        <v>643.0218260979076</v>
-      </c>
-      <c r="F83" t="n">
-        <v>579.5227831547753</v>
-      </c>
-      <c r="G83" t="n">
-        <v>581.2090284766322</v>
-      </c>
-      <c r="H83" t="n">
-        <v>30.67182436032062</v>
-      </c>
-      <c r="I83" t="n">
-        <v>30.67182436032062</v>
-      </c>
-      <c r="J83" t="n">
-        <v>30.67182436032062</v>
-      </c>
-      <c r="K83" t="n">
-        <v>30.67182436032062</v>
-      </c>
-      <c r="L83" t="n">
-        <v>30.67182436032062</v>
-      </c>
-      <c r="M83" t="n">
-        <v>30.67182436032062</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0</v>
-      </c>
-      <c r="P83" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>611.070990031514</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" s="2" t="n">
-        <v>44866</v>
-      </c>
-      <c r="C84" t="n">
-        <v>581.4070524162038</v>
-      </c>
-      <c r="D84" t="n">
-        <v>571.2981204276365</v>
-      </c>
-      <c r="E84" t="n">
-        <v>635.6022349192071</v>
-      </c>
-      <c r="F84" t="n">
-        <v>580.2654664478604</v>
-      </c>
-      <c r="G84" t="n">
-        <v>582.4004264952923</v>
-      </c>
-      <c r="H84" t="n">
-        <v>21.58801889218763</v>
-      </c>
-      <c r="I84" t="n">
-        <v>21.58801889218763</v>
-      </c>
-      <c r="J84" t="n">
-        <v>21.58801889218763</v>
-      </c>
-      <c r="K84" t="n">
-        <v>21.58801889218763</v>
-      </c>
-      <c r="L84" t="n">
-        <v>21.58801889218763</v>
-      </c>
-      <c r="M84" t="n">
-        <v>21.58801889218763</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0</v>
-      </c>
-      <c r="P84" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>602.9950713083914</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" s="2" t="n">
-        <v>44896</v>
-      </c>
-      <c r="C85" t="n">
-        <v>582.3824266855688</v>
-      </c>
-      <c r="D85" t="n">
-        <v>534.6399538523131</v>
-      </c>
-      <c r="E85" t="n">
-        <v>601.7651324859445</v>
-      </c>
-      <c r="F85" t="n">
-        <v>580.9785266621543</v>
-      </c>
-      <c r="G85" t="n">
-        <v>583.5996335243493</v>
-      </c>
-      <c r="H85" t="n">
-        <v>-14.57407557397794</v>
-      </c>
-      <c r="I85" t="n">
-        <v>-14.57407557397794</v>
-      </c>
-      <c r="J85" t="n">
-        <v>-14.57407557397794</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-14.57407557397794</v>
-      </c>
-      <c r="L85" t="n">
-        <v>-14.57407557397794</v>
-      </c>
-      <c r="M85" t="n">
-        <v>-14.57407557397794</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>567.8083511115909</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" s="2" t="n">
-        <v>44927</v>
-      </c>
-      <c r="C86" t="n">
-        <v>583.3903134305793</v>
-      </c>
-      <c r="D86" t="n">
-        <v>538.4919871589188</v>
-      </c>
-      <c r="E86" t="n">
-        <v>601.8038057347046</v>
-      </c>
-      <c r="F86" t="n">
-        <v>581.6943471453518</v>
-      </c>
-      <c r="G86" t="n">
-        <v>584.9355882479116</v>
-      </c>
-      <c r="H86" t="n">
-        <v>-11.27910443335264</v>
-      </c>
-      <c r="I86" t="n">
-        <v>-11.27910443335264</v>
-      </c>
-      <c r="J86" t="n">
-        <v>-11.27910443335264</v>
-      </c>
-      <c r="K86" t="n">
-        <v>-11.27910443335264</v>
-      </c>
-      <c r="L86" t="n">
-        <v>-11.27910443335264</v>
-      </c>
-      <c r="M86" t="n">
-        <v>-11.27910443335264</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0</v>
-      </c>
-      <c r="P86" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>572.1112089972268</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" s="2" t="n">
-        <v>44958</v>
-      </c>
-      <c r="C87" t="n">
-        <v>584.3982001755899</v>
-      </c>
-      <c r="D87" t="n">
-        <v>537.6853849088177</v>
-      </c>
-      <c r="E87" t="n">
-        <v>600.8058145286544</v>
-      </c>
-      <c r="F87" t="n">
-        <v>582.3992694344093</v>
-      </c>
-      <c r="G87" t="n">
-        <v>586.3382138249318</v>
-      </c>
-      <c r="H87" t="n">
-        <v>-16.85726457759752</v>
-      </c>
-      <c r="I87" t="n">
-        <v>-16.85726457759752</v>
-      </c>
-      <c r="J87" t="n">
-        <v>-16.85726457759752</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-16.85726457759752</v>
-      </c>
-      <c r="L87" t="n">
-        <v>-16.85726457759752</v>
-      </c>
-      <c r="M87" t="n">
-        <v>-16.85726457759752</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>567.5409355979923</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" s="2" t="n">
-        <v>44986</v>
-      </c>
-      <c r="C88" t="n">
-        <v>585.3085494936639</v>
-      </c>
-      <c r="D88" t="n">
-        <v>583.9314196348381</v>
-      </c>
-      <c r="E88" t="n">
-        <v>647.2178029931097</v>
-      </c>
-      <c r="F88" t="n">
-        <v>583.0429887051571</v>
-      </c>
-      <c r="G88" t="n">
-        <v>587.602589375655</v>
-      </c>
-      <c r="H88" t="n">
-        <v>28.61689844869816</v>
-      </c>
-      <c r="I88" t="n">
-        <v>28.61689844869816</v>
-      </c>
-      <c r="J88" t="n">
-        <v>28.61689844869816</v>
-      </c>
-      <c r="K88" t="n">
-        <v>28.61689844869816</v>
-      </c>
-      <c r="L88" t="n">
-        <v>28.61689844869816</v>
-      </c>
-      <c r="M88" t="n">
-        <v>28.61689844869816</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0</v>
-      </c>
-      <c r="O88" t="n">
-        <v>0</v>
-      </c>
-      <c r="P88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>613.9254479423621</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="C89" t="n">
-        <v>586.3164362386743</v>
-      </c>
-      <c r="D89" t="n">
-        <v>550.597340412492</v>
-      </c>
-      <c r="E89" t="n">
-        <v>612.6561071636634</v>
-      </c>
-      <c r="F89" t="n">
-        <v>583.6834045745971</v>
-      </c>
-      <c r="G89" t="n">
-        <v>588.925206465248</v>
-      </c>
-      <c r="H89" t="n">
-        <v>-5.70591211978878</v>
-      </c>
-      <c r="I89" t="n">
-        <v>-5.70591211978878</v>
-      </c>
-      <c r="J89" t="n">
-        <v>-5.70591211978878</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-5.70591211978878</v>
-      </c>
-      <c r="L89" t="n">
-        <v>-5.70591211978878</v>
-      </c>
-      <c r="M89" t="n">
-        <v>-5.70591211978878</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0</v>
-      </c>
-      <c r="O89" t="n">
-        <v>0</v>
-      </c>
-      <c r="P89" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>580.6105241188856</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="C90" t="n">
-        <v>587.2918105080394</v>
-      </c>
-      <c r="D90" t="n">
-        <v>530.7242174862344</v>
-      </c>
-      <c r="E90" t="n">
-        <v>594.7472195975001</v>
-      </c>
-      <c r="F90" t="n">
-        <v>584.2950702282205</v>
-      </c>
-      <c r="G90" t="n">
-        <v>590.255418396902</v>
-      </c>
-      <c r="H90" t="n">
-        <v>-24.15946926698327</v>
-      </c>
-      <c r="I90" t="n">
-        <v>-24.15946926698327</v>
-      </c>
-      <c r="J90" t="n">
-        <v>-24.15946926698327</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-24.15946926698327</v>
-      </c>
-      <c r="L90" t="n">
-        <v>-24.15946926698327</v>
-      </c>
-      <c r="M90" t="n">
-        <v>-24.15946926698327</v>
-      </c>
-      <c r="N90" t="n">
-        <v>0</v>
-      </c>
-      <c r="O90" t="n">
-        <v>0</v>
-      </c>
-      <c r="P90" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>563.1323412410561</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" s="2" t="n">
-        <v>45078</v>
-      </c>
-      <c r="C91" t="n">
-        <v>588.2996972530499</v>
-      </c>
-      <c r="D91" t="n">
-        <v>540.8716514188308</v>
-      </c>
-      <c r="E91" t="n">
-        <v>606.7202270384724</v>
-      </c>
-      <c r="F91" t="n">
-        <v>584.8243318360832</v>
-      </c>
-      <c r="G91" t="n">
-        <v>591.6870604800515</v>
-      </c>
-      <c r="H91" t="n">
-        <v>-15.32653150827324</v>
-      </c>
-      <c r="I91" t="n">
-        <v>-15.32653150827324</v>
-      </c>
-      <c r="J91" t="n">
-        <v>-15.32653150827324</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-15.32653150827324</v>
-      </c>
-      <c r="L91" t="n">
-        <v>-15.32653150827324</v>
-      </c>
-      <c r="M91" t="n">
-        <v>-15.32653150827324</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0</v>
-      </c>
-      <c r="O91" t="n">
-        <v>0</v>
-      </c>
-      <c r="P91" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>572.9731657447767</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" s="2" t="n">
-        <v>45108</v>
-      </c>
-      <c r="C92" t="n">
-        <v>589.2750715224149</v>
-      </c>
-      <c r="D92" t="n">
-        <v>565.5350651168158</v>
-      </c>
-      <c r="E92" t="n">
-        <v>632.9570041441871</v>
-      </c>
-      <c r="F92" t="n">
-        <v>585.4382613863122</v>
-      </c>
-      <c r="G92" t="n">
-        <v>593.0045811515218</v>
-      </c>
-      <c r="H92" t="n">
-        <v>11.56570925045123</v>
-      </c>
-      <c r="I92" t="n">
-        <v>11.56570925045123</v>
-      </c>
-      <c r="J92" t="n">
-        <v>11.56570925045123</v>
-      </c>
-      <c r="K92" t="n">
-        <v>11.56570925045123</v>
-      </c>
-      <c r="L92" t="n">
-        <v>11.56570925045123</v>
-      </c>
-      <c r="M92" t="n">
-        <v>11.56570925045123</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0</v>
-      </c>
-      <c r="O92" t="n">
-        <v>0</v>
-      </c>
-      <c r="P92" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>600.8407807728662</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" s="2" t="n">
-        <v>45139</v>
-      </c>
-      <c r="C93" t="n">
-        <v>590.2829582674254</v>
-      </c>
-      <c r="D93" t="n">
-        <v>569.950161000456</v>
-      </c>
-      <c r="E93" t="n">
-        <v>633.0803029958126</v>
-      </c>
-      <c r="F93" t="n">
-        <v>586.1451370967752</v>
-      </c>
-      <c r="G93" t="n">
-        <v>594.4430980236478</v>
-      </c>
-      <c r="H93" t="n">
-        <v>10.85546660176326</v>
-      </c>
-      <c r="I93" t="n">
-        <v>10.85546660176326</v>
-      </c>
-      <c r="J93" t="n">
-        <v>10.85546660176326</v>
-      </c>
-      <c r="K93" t="n">
-        <v>10.85546660176326</v>
-      </c>
-      <c r="L93" t="n">
-        <v>10.85546660176326</v>
-      </c>
-      <c r="M93" t="n">
-        <v>10.85546660176326</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0</v>
-      </c>
-      <c r="O93" t="n">
-        <v>0</v>
-      </c>
-      <c r="P93" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>601.1384248691887</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" s="2" t="n">
-        <v>45170</v>
-      </c>
-      <c r="C94" t="n">
-        <v>591.2908450124359</v>
-      </c>
-      <c r="D94" t="n">
-        <v>604.0763324972581</v>
-      </c>
-      <c r="E94" t="n">
-        <v>669.6933871274675</v>
-      </c>
-      <c r="F94" t="n">
-        <v>586.6859599421155</v>
-      </c>
-      <c r="G94" t="n">
-        <v>595.9010086558552</v>
-      </c>
-      <c r="H94" t="n">
-        <v>46.42876895985827</v>
-      </c>
-      <c r="I94" t="n">
-        <v>46.42876895985827</v>
-      </c>
-      <c r="J94" t="n">
-        <v>46.42876895985827</v>
-      </c>
-      <c r="K94" t="n">
-        <v>46.42876895985827</v>
-      </c>
-      <c r="L94" t="n">
-        <v>46.42876895985827</v>
-      </c>
-      <c r="M94" t="n">
-        <v>46.42876895985827</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0</v>
-      </c>
-      <c r="P94" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>637.7196139722942</v>
+        <v>639.5070208630455</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/aht/cb_sales_aht_monthly.xlsx
+++ b/outputs/aht/cb_sales_aht_monthly.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,37 +527,37 @@
         <v>42979</v>
       </c>
       <c r="C2" t="n">
-        <v>516.5530944705491</v>
+        <v>516.8945697963693</v>
       </c>
       <c r="D2" t="n">
-        <v>517.9926556441428</v>
+        <v>519.6415586167925</v>
       </c>
       <c r="E2" t="n">
-        <v>577.6424682271941</v>
+        <v>578.2707541123333</v>
       </c>
       <c r="F2" t="n">
-        <v>516.5530944705491</v>
+        <v>516.8945697963693</v>
       </c>
       <c r="G2" t="n">
-        <v>516.5530944705491</v>
+        <v>516.8945697963693</v>
       </c>
       <c r="H2" t="n">
-        <v>33.38843742008712</v>
+        <v>33.05583738949815</v>
       </c>
       <c r="I2" t="n">
-        <v>33.38843742008712</v>
+        <v>33.05583738949815</v>
       </c>
       <c r="J2" t="n">
-        <v>33.38843742008712</v>
+        <v>33.05583738949815</v>
       </c>
       <c r="K2" t="n">
-        <v>33.38843742008712</v>
+        <v>33.05583738949815</v>
       </c>
       <c r="L2" t="n">
-        <v>33.38843742008712</v>
+        <v>33.05583738949815</v>
       </c>
       <c r="M2" t="n">
-        <v>33.38843742008712</v>
+        <v>33.05583738949815</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>549.9415318906363</v>
+        <v>549.9504071858674</v>
       </c>
     </row>
     <row r="3">
@@ -580,37 +580,37 @@
         <v>43009</v>
       </c>
       <c r="C3" t="n">
-        <v>517.816481785825</v>
+        <v>518.1447624343587</v>
       </c>
       <c r="D3" t="n">
-        <v>512.5359708390819</v>
+        <v>512.8519180893177</v>
       </c>
       <c r="E3" t="n">
-        <v>570.8726775295025</v>
+        <v>570.7137154189445</v>
       </c>
       <c r="F3" t="n">
-        <v>517.816481785825</v>
+        <v>518.1447624343587</v>
       </c>
       <c r="G3" t="n">
-        <v>517.816481785825</v>
+        <v>518.1447624343587</v>
       </c>
       <c r="H3" t="n">
-        <v>24.41537173570574</v>
+        <v>24.03100546430355</v>
       </c>
       <c r="I3" t="n">
-        <v>24.41537173570574</v>
+        <v>24.03100546430355</v>
       </c>
       <c r="J3" t="n">
-        <v>24.41537173570574</v>
+        <v>24.03100546430355</v>
       </c>
       <c r="K3" t="n">
-        <v>24.41537173570574</v>
+        <v>24.03100546430355</v>
       </c>
       <c r="L3" t="n">
-        <v>24.41537173570574</v>
+        <v>24.03100546430355</v>
       </c>
       <c r="M3" t="n">
-        <v>24.41537173570574</v>
+        <v>24.03100546430355</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>542.2318535215308</v>
+        <v>542.1757678986622</v>
       </c>
     </row>
     <row r="4">
@@ -633,37 +633,37 @@
         <v>43040</v>
       </c>
       <c r="C4" t="n">
-        <v>519.1219820116099</v>
+        <v>519.436628160281</v>
       </c>
       <c r="D4" t="n">
-        <v>502.1802440410033</v>
+        <v>505.4733206047301</v>
       </c>
       <c r="E4" t="n">
-        <v>561.225194865042</v>
+        <v>562.0987205294942</v>
       </c>
       <c r="F4" t="n">
-        <v>519.1219820116099</v>
+        <v>519.436628160281</v>
       </c>
       <c r="G4" t="n">
-        <v>519.1219820116099</v>
+        <v>519.436628160281</v>
       </c>
       <c r="H4" t="n">
-        <v>12.64527381043382</v>
+        <v>12.19876408684286</v>
       </c>
       <c r="I4" t="n">
-        <v>12.64527381043382</v>
+        <v>12.19876408684286</v>
       </c>
       <c r="J4" t="n">
-        <v>12.64527381043382</v>
+        <v>12.19876408684286</v>
       </c>
       <c r="K4" t="n">
-        <v>12.64527381043382</v>
+        <v>12.19876408684286</v>
       </c>
       <c r="L4" t="n">
-        <v>12.64527381043382</v>
+        <v>12.19876408684286</v>
       </c>
       <c r="M4" t="n">
-        <v>12.64527381043382</v>
+        <v>12.19876408684286</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>531.7672558220438</v>
+        <v>531.6353922471238</v>
       </c>
     </row>
     <row r="5">
@@ -686,37 +686,37 @@
         <v>43070</v>
       </c>
       <c r="C5" t="n">
-        <v>520.3853693253145</v>
+        <v>520.6868207841216</v>
       </c>
       <c r="D5" t="n">
-        <v>481.6045885577606</v>
+        <v>483.9598762561515</v>
       </c>
       <c r="E5" t="n">
-        <v>541.1465662638741</v>
+        <v>541.9642804175927</v>
       </c>
       <c r="F5" t="n">
-        <v>520.3853693253145</v>
+        <v>520.6868207841216</v>
       </c>
       <c r="G5" t="n">
-        <v>520.3853693253145</v>
+        <v>520.6868207841216</v>
       </c>
       <c r="H5" t="n">
-        <v>-8.217838166594449</v>
+        <v>-8.707177334856183</v>
       </c>
       <c r="I5" t="n">
-        <v>-8.217838166594449</v>
+        <v>-8.707177334856183</v>
       </c>
       <c r="J5" t="n">
-        <v>-8.217838166594449</v>
+        <v>-8.707177334856183</v>
       </c>
       <c r="K5" t="n">
-        <v>-8.217838166594449</v>
+        <v>-8.707177334856183</v>
       </c>
       <c r="L5" t="n">
-        <v>-8.217838166594449</v>
+        <v>-8.707177334856183</v>
       </c>
       <c r="M5" t="n">
-        <v>-8.217838166594449</v>
+        <v>-8.707177334856183</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>512.1675311587201</v>
+        <v>511.9796434492654</v>
       </c>
     </row>
     <row r="6">
@@ -739,37 +739,37 @@
         <v>43101</v>
       </c>
       <c r="C6" t="n">
-        <v>521.6908695494759</v>
+        <v>521.9786864954235</v>
       </c>
       <c r="D6" t="n">
-        <v>479.7940262091857</v>
+        <v>480.8116772612102</v>
       </c>
       <c r="E6" t="n">
-        <v>541.5266600999252</v>
+        <v>541.3279574707462</v>
       </c>
       <c r="F6" t="n">
-        <v>521.6908695494759</v>
+        <v>521.9786864954235</v>
       </c>
       <c r="G6" t="n">
-        <v>521.6908695494759</v>
+        <v>521.9786864954235</v>
       </c>
       <c r="H6" t="n">
-        <v>-10.71201590377429</v>
+        <v>-11.2711473380301</v>
       </c>
       <c r="I6" t="n">
-        <v>-10.71201590377429</v>
+        <v>-11.2711473380301</v>
       </c>
       <c r="J6" t="n">
-        <v>-10.71201590377429</v>
+        <v>-11.2711473380301</v>
       </c>
       <c r="K6" t="n">
-        <v>-10.71201590377429</v>
+        <v>-11.2711473380301</v>
       </c>
       <c r="L6" t="n">
-        <v>-10.71201590377429</v>
+        <v>-11.2711473380301</v>
       </c>
       <c r="M6" t="n">
-        <v>-10.71201590377429</v>
+        <v>-11.2711473380301</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>510.9788536457016</v>
+        <v>510.7075391573934</v>
       </c>
     </row>
     <row r="7">
@@ -792,37 +792,37 @@
         <v>43132</v>
       </c>
       <c r="C7" t="n">
-        <v>522.996369776063</v>
+        <v>523.2705522279816</v>
       </c>
       <c r="D7" t="n">
-        <v>466.565488726611</v>
+        <v>467.1638449829</v>
       </c>
       <c r="E7" t="n">
-        <v>528.0150456157785</v>
+        <v>526.9585012239551</v>
       </c>
       <c r="F7" t="n">
-        <v>522.996369776063</v>
+        <v>523.2705522279816</v>
       </c>
       <c r="G7" t="n">
-        <v>522.996369776063</v>
+        <v>523.2705522279816</v>
       </c>
       <c r="H7" t="n">
-        <v>-25.23674676717801</v>
+        <v>-25.85952022677832</v>
       </c>
       <c r="I7" t="n">
-        <v>-25.23674676717801</v>
+        <v>-25.85952022677832</v>
       </c>
       <c r="J7" t="n">
-        <v>-25.23674676717801</v>
+        <v>-25.85952022677832</v>
       </c>
       <c r="K7" t="n">
-        <v>-25.23674676717801</v>
+        <v>-25.85952022677832</v>
       </c>
       <c r="L7" t="n">
-        <v>-25.23674676717801</v>
+        <v>-25.85952022677832</v>
       </c>
       <c r="M7" t="n">
-        <v>-25.23674676717801</v>
+        <v>-25.85952022677832</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>497.759623008885</v>
+        <v>497.4110320012033</v>
       </c>
     </row>
     <row r="8">
@@ -845,37 +845,37 @@
         <v>43160</v>
       </c>
       <c r="C8" t="n">
-        <v>524.1755312686237</v>
+        <v>524.4373986477544</v>
       </c>
       <c r="D8" t="n">
-        <v>502.2548861035377</v>
+        <v>503.4918265858649</v>
       </c>
       <c r="E8" t="n">
-        <v>562.0302610278371</v>
+        <v>562.5922560057619</v>
       </c>
       <c r="F8" t="n">
-        <v>524.1755312686237</v>
+        <v>524.4373986477544</v>
       </c>
       <c r="G8" t="n">
-        <v>524.1755312686237</v>
+        <v>524.4373986477544</v>
       </c>
       <c r="H8" t="n">
-        <v>9.055718856140118</v>
+        <v>8.399977132654168</v>
       </c>
       <c r="I8" t="n">
-        <v>9.055718856140118</v>
+        <v>8.399977132654168</v>
       </c>
       <c r="J8" t="n">
-        <v>9.055718856140118</v>
+        <v>8.399977132654168</v>
       </c>
       <c r="K8" t="n">
-        <v>9.055718856140118</v>
+        <v>8.399977132654168</v>
       </c>
       <c r="L8" t="n">
-        <v>9.055718856140118</v>
+        <v>8.399977132654168</v>
       </c>
       <c r="M8" t="n">
-        <v>9.055718856140118</v>
+        <v>8.399977132654168</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>533.2312501247638</v>
+        <v>532.8373757804086</v>
       </c>
     </row>
     <row r="9">
@@ -898,37 +898,37 @@
         <v>43191</v>
       </c>
       <c r="C9" t="n">
-        <v>525.4810314925301</v>
+        <v>525.7292643267888</v>
       </c>
       <c r="D9" t="n">
-        <v>477.1967749571325</v>
+        <v>475.5018753921847</v>
       </c>
       <c r="E9" t="n">
-        <v>536.8282824232402</v>
+        <v>534.4976954770065</v>
       </c>
       <c r="F9" t="n">
-        <v>525.4810314925301</v>
+        <v>525.7292643267888</v>
       </c>
       <c r="G9" t="n">
-        <v>525.4810314925301</v>
+        <v>525.7292643267888</v>
       </c>
       <c r="H9" t="n">
-        <v>-19.8068883873974</v>
+        <v>-20.48959599411843</v>
       </c>
       <c r="I9" t="n">
-        <v>-19.8068883873974</v>
+        <v>-20.48959599411843</v>
       </c>
       <c r="J9" t="n">
-        <v>-19.8068883873974</v>
+        <v>-20.48959599411843</v>
       </c>
       <c r="K9" t="n">
-        <v>-19.8068883873974</v>
+        <v>-20.48959599411843</v>
       </c>
       <c r="L9" t="n">
-        <v>-19.8068883873974</v>
+        <v>-20.48959599411843</v>
       </c>
       <c r="M9" t="n">
-        <v>-19.8068883873974</v>
+        <v>-20.48959599411843</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>505.6741431051327</v>
+        <v>505.2396683326704</v>
       </c>
     </row>
     <row r="10">
@@ -951,37 +951,37 @@
         <v>43221</v>
       </c>
       <c r="C10" t="n">
-        <v>526.7444188109357</v>
+        <v>526.9794569812095</v>
       </c>
       <c r="D10" t="n">
-        <v>463.4803376276872</v>
+        <v>461.6960291237193</v>
       </c>
       <c r="E10" t="n">
-        <v>521.7859634623996</v>
+        <v>520.30324064287</v>
       </c>
       <c r="F10" t="n">
-        <v>526.7444188109357</v>
+        <v>526.9794569812095</v>
       </c>
       <c r="G10" t="n">
-        <v>526.7444188109357</v>
+        <v>526.9794569812095</v>
       </c>
       <c r="H10" t="n">
-        <v>-34.49968697944424</v>
+        <v>-35.22768587751548</v>
       </c>
       <c r="I10" t="n">
-        <v>-34.49968697944424</v>
+        <v>-35.22768587751548</v>
       </c>
       <c r="J10" t="n">
-        <v>-34.49968697944424</v>
+        <v>-35.22768587751548</v>
       </c>
       <c r="K10" t="n">
-        <v>-34.49968697944424</v>
+        <v>-35.22768587751548</v>
       </c>
       <c r="L10" t="n">
-        <v>-34.49968697944424</v>
+        <v>-35.22768587751548</v>
       </c>
       <c r="M10" t="n">
-        <v>-34.49968697944424</v>
+        <v>-35.22768587751548</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>492.2447318314915</v>
+        <v>491.7517711036941</v>
       </c>
     </row>
     <row r="11">
@@ -1004,37 +1004,37 @@
         <v>43252</v>
       </c>
       <c r="C11" t="n">
-        <v>528.0499190399549</v>
+        <v>528.271322724111</v>
       </c>
       <c r="D11" t="n">
-        <v>473.4509548653441</v>
+        <v>475.3577242274188</v>
       </c>
       <c r="E11" t="n">
-        <v>534.0610436075333</v>
+        <v>536.6603846132177</v>
       </c>
       <c r="F11" t="n">
-        <v>528.0499190399549</v>
+        <v>528.271322724111</v>
       </c>
       <c r="G11" t="n">
-        <v>528.0499190399549</v>
+        <v>528.271322724111</v>
       </c>
       <c r="H11" t="n">
-        <v>-24.45599269126863</v>
+        <v>-22.04075310896887</v>
       </c>
       <c r="I11" t="n">
-        <v>-24.45599269126863</v>
+        <v>-22.04075310896887</v>
       </c>
       <c r="J11" t="n">
-        <v>-24.45599269126863</v>
+        <v>-22.04075310896887</v>
       </c>
       <c r="K11" t="n">
-        <v>-24.45599269126863</v>
+        <v>-22.04075310896887</v>
       </c>
       <c r="L11" t="n">
-        <v>-24.45599269126863</v>
+        <v>-22.04075310896887</v>
       </c>
       <c r="M11" t="n">
-        <v>-24.45599269126863</v>
+        <v>-22.04075310896887</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>503.5939263486863</v>
+        <v>506.2305696151421</v>
       </c>
     </row>
     <row r="12">
@@ -1057,37 +1057,37 @@
         <v>43282</v>
       </c>
       <c r="C12" t="n">
-        <v>529.3133063586043</v>
+        <v>529.5215154486415</v>
       </c>
       <c r="D12" t="n">
-        <v>499.278777441815</v>
+        <v>501.0597629702891</v>
       </c>
       <c r="E12" t="n">
-        <v>559.2035573065175</v>
+        <v>558.0835026325112</v>
       </c>
       <c r="F12" t="n">
-        <v>529.3133063586043</v>
+        <v>529.5215154486415</v>
       </c>
       <c r="G12" t="n">
-        <v>529.3133063586043</v>
+        <v>529.5215154486415</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3353481677592463</v>
+        <v>-0.04400124436419559</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3353481677592463</v>
+        <v>-0.04400124436419559</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3353481677592463</v>
+        <v>-0.04400124436419559</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3353481677592463</v>
+        <v>-0.04400124436419559</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3353481677592463</v>
+        <v>-0.04400124436419559</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3353481677592463</v>
+        <v>-0.04400124436419559</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>529.6486545263635</v>
+        <v>529.4775142042773</v>
       </c>
     </row>
     <row r="13">
@@ -1110,37 +1110,37 @@
         <v>43313</v>
       </c>
       <c r="C13" t="n">
-        <v>530.6188065878754</v>
+        <v>530.8133812639895</v>
       </c>
       <c r="D13" t="n">
-        <v>512.9921320992685</v>
+        <v>512.9553914421316</v>
       </c>
       <c r="E13" t="n">
-        <v>572.5886674168494</v>
+        <v>572.1251048098736</v>
       </c>
       <c r="F13" t="n">
-        <v>530.6188065878754</v>
+        <v>530.8133812639895</v>
       </c>
       <c r="G13" t="n">
-        <v>530.6188065878754</v>
+        <v>530.8133812639895</v>
       </c>
       <c r="H13" t="n">
-        <v>12.81075176882204</v>
+        <v>12.41529769376237</v>
       </c>
       <c r="I13" t="n">
-        <v>12.81075176882204</v>
+        <v>12.41529769376237</v>
       </c>
       <c r="J13" t="n">
-        <v>12.81075176882204</v>
+        <v>12.41529769376237</v>
       </c>
       <c r="K13" t="n">
-        <v>12.81075176882204</v>
+        <v>12.41529769376237</v>
       </c>
       <c r="L13" t="n">
-        <v>12.81075176882204</v>
+        <v>12.41529769376237</v>
       </c>
       <c r="M13" t="n">
-        <v>12.81075176882204</v>
+        <v>12.41529769376237</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>543.4295583566974</v>
+        <v>543.2286789577519</v>
       </c>
     </row>
     <row r="14">
@@ -1163,37 +1163,37 @@
         <v>43344</v>
       </c>
       <c r="C14" t="n">
-        <v>531.9243068135073</v>
+        <v>532.1052471099389</v>
       </c>
       <c r="D14" t="n">
-        <v>541.2156271883698</v>
+        <v>540.8017557935337</v>
       </c>
       <c r="E14" t="n">
-        <v>598.600280625168</v>
+        <v>599.1945051085057</v>
       </c>
       <c r="F14" t="n">
-        <v>531.9243068135073</v>
+        <v>532.1052471099389</v>
       </c>
       <c r="G14" t="n">
-        <v>531.9243068135073</v>
+        <v>532.1052471099389</v>
       </c>
       <c r="H14" t="n">
-        <v>36.95126271180074</v>
+        <v>36.53590219662328</v>
       </c>
       <c r="I14" t="n">
-        <v>36.95126271180074</v>
+        <v>36.53590219662328</v>
       </c>
       <c r="J14" t="n">
-        <v>36.95126271180074</v>
+        <v>36.53590219662328</v>
       </c>
       <c r="K14" t="n">
-        <v>36.95126271180074</v>
+        <v>36.53590219662328</v>
       </c>
       <c r="L14" t="n">
-        <v>36.95126271180074</v>
+        <v>36.53590219662328</v>
       </c>
       <c r="M14" t="n">
-        <v>36.95126271180074</v>
+        <v>36.53590219662328</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>568.875569525308</v>
+        <v>568.6411493065622</v>
       </c>
     </row>
     <row r="15">
@@ -1216,37 +1216,37 @@
         <v>43374</v>
       </c>
       <c r="C15" t="n">
-        <v>533.1876941276433</v>
+        <v>533.3554398640836</v>
       </c>
       <c r="D15" t="n">
-        <v>534.1357400991823</v>
+        <v>532.9930003890724</v>
       </c>
       <c r="E15" t="n">
-        <v>594.4998289867199</v>
+        <v>594.7174565429031</v>
       </c>
       <c r="F15" t="n">
-        <v>533.1876941276433</v>
+        <v>533.3554398640836</v>
       </c>
       <c r="G15" t="n">
-        <v>533.1876941276433</v>
+        <v>533.3554398640836</v>
       </c>
       <c r="H15" t="n">
-        <v>31.66522311898998</v>
+        <v>31.24250465439813</v>
       </c>
       <c r="I15" t="n">
-        <v>31.66522311898998</v>
+        <v>31.24250465439813</v>
       </c>
       <c r="J15" t="n">
-        <v>31.66522311898998</v>
+        <v>31.24250465439813</v>
       </c>
       <c r="K15" t="n">
-        <v>31.66522311898998</v>
+        <v>31.24250465439813</v>
       </c>
       <c r="L15" t="n">
-        <v>31.66522311898998</v>
+        <v>31.24250465439813</v>
       </c>
       <c r="M15" t="n">
-        <v>31.66522311898998</v>
+        <v>31.24250465439813</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>564.8529172466333</v>
+        <v>564.5979445184817</v>
       </c>
     </row>
     <row r="16">
@@ -1269,37 +1269,37 @@
         <v>43405</v>
       </c>
       <c r="C16" t="n">
-        <v>534.4931943522506</v>
+        <v>534.6473057061249</v>
       </c>
       <c r="D16" t="n">
-        <v>528.4840863933389</v>
+        <v>526.2483516516871</v>
       </c>
       <c r="E16" t="n">
-        <v>585.0742377944408</v>
+        <v>587.9570318405683</v>
       </c>
       <c r="F16" t="n">
-        <v>534.4931943522506</v>
+        <v>534.6473057061249</v>
       </c>
       <c r="G16" t="n">
-        <v>534.4931943522506</v>
+        <v>534.6473057061249</v>
       </c>
       <c r="H16" t="n">
-        <v>22.37120656688105</v>
+        <v>21.94954820819165</v>
       </c>
       <c r="I16" t="n">
-        <v>22.37120656688105</v>
+        <v>21.94954820819165</v>
       </c>
       <c r="J16" t="n">
-        <v>22.37120656688105</v>
+        <v>21.94954820819165</v>
       </c>
       <c r="K16" t="n">
-        <v>22.37120656688105</v>
+        <v>21.94954820819165</v>
       </c>
       <c r="L16" t="n">
-        <v>22.37120656688105</v>
+        <v>21.94954820819165</v>
       </c>
       <c r="M16" t="n">
-        <v>22.37120656688105</v>
+        <v>21.94954820819165</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>556.8644009191316</v>
+        <v>556.5968539143166</v>
       </c>
     </row>
     <row r="17">
@@ -1322,37 +1322,37 @@
         <v>43435</v>
       </c>
       <c r="C17" t="n">
-        <v>535.7565816658732</v>
+        <v>535.8974984151831</v>
       </c>
       <c r="D17" t="n">
-        <v>485.7926446350695</v>
+        <v>483.2953142871253</v>
       </c>
       <c r="E17" t="n">
-        <v>544.3261997361039</v>
+        <v>545.8969958081171</v>
       </c>
       <c r="F17" t="n">
-        <v>535.7565816658732</v>
+        <v>535.8974984151831</v>
       </c>
       <c r="G17" t="n">
-        <v>535.7565816658732</v>
+        <v>535.8974984151831</v>
       </c>
       <c r="H17" t="n">
-        <v>-20.7902752374397</v>
+        <v>-21.25362402568136</v>
       </c>
       <c r="I17" t="n">
-        <v>-20.7902752374397</v>
+        <v>-21.25362402568136</v>
       </c>
       <c r="J17" t="n">
-        <v>-20.7902752374397</v>
+        <v>-21.25362402568136</v>
       </c>
       <c r="K17" t="n">
-        <v>-20.7902752374397</v>
+        <v>-21.25362402568136</v>
       </c>
       <c r="L17" t="n">
-        <v>-20.7902752374397</v>
+        <v>-21.25362402568136</v>
       </c>
       <c r="M17" t="n">
-        <v>-20.7902752374397</v>
+        <v>-21.25362402568136</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>514.9663064284335</v>
+        <v>514.6438743895018</v>
       </c>
     </row>
     <row r="18">
@@ -1375,37 +1375,37 @@
         <v>43466</v>
       </c>
       <c r="C18" t="n">
-        <v>537.0620818899499</v>
+        <v>537.1893642145434</v>
       </c>
       <c r="D18" t="n">
-        <v>490.8443133017573</v>
+        <v>491.1011819230052</v>
       </c>
       <c r="E18" t="n">
-        <v>551.0694472261742</v>
+        <v>549.5542017122065</v>
       </c>
       <c r="F18" t="n">
-        <v>537.0620818899499</v>
+        <v>537.1893642145434</v>
       </c>
       <c r="G18" t="n">
-        <v>537.0620818899499</v>
+        <v>537.1893642145434</v>
       </c>
       <c r="H18" t="n">
-        <v>-15.2058724607314</v>
+        <v>-15.63699259366335</v>
       </c>
       <c r="I18" t="n">
-        <v>-15.2058724607314</v>
+        <v>-15.63699259366335</v>
       </c>
       <c r="J18" t="n">
-        <v>-15.2058724607314</v>
+        <v>-15.63699259366335</v>
       </c>
       <c r="K18" t="n">
-        <v>-15.2058724607314</v>
+        <v>-15.63699259366335</v>
       </c>
       <c r="L18" t="n">
-        <v>-15.2058724607314</v>
+        <v>-15.63699259366335</v>
       </c>
       <c r="M18" t="n">
-        <v>-15.2058724607314</v>
+        <v>-15.63699259366335</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>521.8562094292186</v>
+        <v>521.5523716208801</v>
       </c>
     </row>
     <row r="19">
@@ -1428,37 +1428,37 @@
         <v>43497</v>
       </c>
       <c r="C19" t="n">
-        <v>538.3675821130262</v>
+        <v>538.4812300249862</v>
       </c>
       <c r="D19" t="n">
-        <v>487.8729472176737</v>
+        <v>483.5585321841094</v>
       </c>
       <c r="E19" t="n">
-        <v>544.9496151821206</v>
+        <v>543.3471693789596</v>
       </c>
       <c r="F19" t="n">
-        <v>538.3675821130262</v>
+        <v>538.4812300249862</v>
       </c>
       <c r="G19" t="n">
-        <v>538.3675821130262</v>
+        <v>538.4812300249862</v>
       </c>
       <c r="H19" t="n">
-        <v>-23.7567637486251</v>
+        <v>-24.17297636391252</v>
       </c>
       <c r="I19" t="n">
-        <v>-23.7567637486251</v>
+        <v>-24.17297636391252</v>
       </c>
       <c r="J19" t="n">
-        <v>-23.7567637486251</v>
+        <v>-24.17297636391252</v>
       </c>
       <c r="K19" t="n">
-        <v>-23.7567637486251</v>
+        <v>-24.17297636391252</v>
       </c>
       <c r="L19" t="n">
-        <v>-23.7567637486251</v>
+        <v>-24.17297636391252</v>
       </c>
       <c r="M19" t="n">
-        <v>-23.7567637486251</v>
+        <v>-24.17297636391252</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>514.6108183644011</v>
+        <v>514.3082536610736</v>
       </c>
     </row>
     <row r="20">
@@ -1481,37 +1481,37 @@
         <v>43525</v>
       </c>
       <c r="C20" t="n">
-        <v>539.5467436048372</v>
+        <v>539.6480765634508</v>
       </c>
       <c r="D20" t="n">
-        <v>516.9188804597338</v>
+        <v>516.5136492623644</v>
       </c>
       <c r="E20" t="n">
-        <v>578.7348931187552</v>
+        <v>577.9619565999405</v>
       </c>
       <c r="F20" t="n">
-        <v>539.5467436048372</v>
+        <v>539.6480765634508</v>
       </c>
       <c r="G20" t="n">
-        <v>539.5467436048372</v>
+        <v>539.6480765634508</v>
       </c>
       <c r="H20" t="n">
-        <v>8.03935909799546</v>
+        <v>7.120526056675579</v>
       </c>
       <c r="I20" t="n">
-        <v>8.03935909799546</v>
+        <v>7.120526056675579</v>
       </c>
       <c r="J20" t="n">
-        <v>8.03935909799546</v>
+        <v>7.120526056675579</v>
       </c>
       <c r="K20" t="n">
-        <v>8.03935909799546</v>
+        <v>7.120526056675579</v>
       </c>
       <c r="L20" t="n">
-        <v>8.03935909799546</v>
+        <v>7.120526056675579</v>
       </c>
       <c r="M20" t="n">
-        <v>8.03935909799546</v>
+        <v>7.120526056675579</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>547.5861027028326</v>
+        <v>546.7686026201263</v>
       </c>
     </row>
     <row r="21">
@@ -1534,37 +1534,37 @@
         <v>43556</v>
       </c>
       <c r="C21" t="n">
-        <v>540.8522438236796</v>
+        <v>540.9399424210387</v>
       </c>
       <c r="D21" t="n">
-        <v>498.8518068934919</v>
+        <v>497.3896930363991</v>
       </c>
       <c r="E21" t="n">
-        <v>558.2326728062693</v>
+        <v>556.8552266374319</v>
       </c>
       <c r="F21" t="n">
-        <v>540.8522438236796</v>
+        <v>540.9399424210387</v>
       </c>
       <c r="G21" t="n">
-        <v>540.8522438236796</v>
+        <v>540.9399424210387</v>
       </c>
       <c r="H21" t="n">
-        <v>-11.64695201301367</v>
+        <v>-12.53103116447457</v>
       </c>
       <c r="I21" t="n">
-        <v>-11.64695201301367</v>
+        <v>-12.53103116447457</v>
       </c>
       <c r="J21" t="n">
-        <v>-11.64695201301367</v>
+        <v>-12.53103116447457</v>
       </c>
       <c r="K21" t="n">
-        <v>-11.64695201301367</v>
+        <v>-12.53103116447457</v>
       </c>
       <c r="L21" t="n">
-        <v>-11.64695201301367</v>
+        <v>-12.53103116447457</v>
       </c>
       <c r="M21" t="n">
-        <v>-11.64695201301367</v>
+        <v>-12.53103116447457</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>529.2052918106659</v>
+        <v>528.4089112565641</v>
       </c>
     </row>
     <row r="22">
@@ -1587,37 +1587,37 @@
         <v>43586</v>
       </c>
       <c r="C22" t="n">
-        <v>542.1156311327023</v>
+        <v>542.1901351864465</v>
       </c>
       <c r="D22" t="n">
-        <v>479.8056760999556</v>
+        <v>480.6276364862964</v>
       </c>
       <c r="E22" t="n">
-        <v>538.4843331368793</v>
+        <v>536.2250765292154</v>
       </c>
       <c r="F22" t="n">
-        <v>542.1156311327023</v>
+        <v>542.1901351864465</v>
       </c>
       <c r="G22" t="n">
-        <v>542.1156311327023</v>
+        <v>542.1901351864465</v>
       </c>
       <c r="H22" t="n">
-        <v>-32.70608315009212</v>
+        <v>-33.63648661557512</v>
       </c>
       <c r="I22" t="n">
-        <v>-32.70608315009212</v>
+        <v>-33.63648661557512</v>
       </c>
       <c r="J22" t="n">
-        <v>-32.70608315009212</v>
+        <v>-33.63648661557512</v>
       </c>
       <c r="K22" t="n">
-        <v>-32.70608315009212</v>
+        <v>-33.63648661557512</v>
       </c>
       <c r="L22" t="n">
-        <v>-32.70608315009212</v>
+        <v>-33.63648661557512</v>
       </c>
       <c r="M22" t="n">
-        <v>-32.70608315009212</v>
+        <v>-33.63648661557512</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>509.4095479826102</v>
+        <v>508.5536485708714</v>
       </c>
     </row>
     <row r="23">
@@ -1640,37 +1640,37 @@
         <v>43617</v>
       </c>
       <c r="C23" t="n">
-        <v>543.4211313520259</v>
+        <v>543.4820010889009</v>
       </c>
       <c r="D23" t="n">
-        <v>485.5401507039871</v>
+        <v>487.6255618328762</v>
       </c>
       <c r="E23" t="n">
-        <v>543.6260665032847</v>
+        <v>548.1711482394971</v>
       </c>
       <c r="F23" t="n">
-        <v>543.4211313520259</v>
+        <v>543.4820010889009</v>
       </c>
       <c r="G23" t="n">
-        <v>543.4211313520259</v>
+        <v>543.4820010889009</v>
       </c>
       <c r="H23" t="n">
-        <v>-27.72717124041493</v>
+        <v>-24.52045486408904</v>
       </c>
       <c r="I23" t="n">
-        <v>-27.72717124041493</v>
+        <v>-24.52045486408904</v>
       </c>
       <c r="J23" t="n">
-        <v>-27.72717124041493</v>
+        <v>-24.52045486408904</v>
       </c>
       <c r="K23" t="n">
-        <v>-27.72717124041493</v>
+        <v>-24.52045486408904</v>
       </c>
       <c r="L23" t="n">
-        <v>-27.72717124041493</v>
+        <v>-24.52045486408904</v>
       </c>
       <c r="M23" t="n">
-        <v>-27.72717124041493</v>
+        <v>-24.52045486408904</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>515.693960111611</v>
+        <v>518.9615462248119</v>
       </c>
     </row>
     <row r="24">
@@ -1693,37 +1693,37 @@
         <v>43647</v>
       </c>
       <c r="C24" t="n">
-        <v>544.684518664693</v>
+        <v>544.7321938977277</v>
       </c>
       <c r="D24" t="n">
-        <v>508.6819385921551</v>
+        <v>510.9664572940844</v>
       </c>
       <c r="E24" t="n">
-        <v>570.0577336108403</v>
+        <v>568.1108511786055</v>
       </c>
       <c r="F24" t="n">
-        <v>544.684518664693</v>
+        <v>544.7321938977277</v>
       </c>
       <c r="G24" t="n">
-        <v>544.684518664693</v>
+        <v>544.7321938977277</v>
       </c>
       <c r="H24" t="n">
-        <v>-4.953835100686118</v>
+        <v>-5.523550464892319</v>
       </c>
       <c r="I24" t="n">
-        <v>-4.953835100686118</v>
+        <v>-5.523550464892319</v>
       </c>
       <c r="J24" t="n">
-        <v>-4.953835100686118</v>
+        <v>-5.523550464892319</v>
       </c>
       <c r="K24" t="n">
-        <v>-4.953835100686118</v>
+        <v>-5.523550464892319</v>
       </c>
       <c r="L24" t="n">
-        <v>-4.953835100686118</v>
+        <v>-5.523550464892319</v>
       </c>
       <c r="M24" t="n">
-        <v>-4.953835100686118</v>
+        <v>-5.523550464892319</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>539.7306835640069</v>
+        <v>539.2086434328354</v>
       </c>
     </row>
     <row r="25">
@@ -1746,37 +1746,37 @@
         <v>43678</v>
       </c>
       <c r="C25" t="n">
-        <v>545.9900188877824</v>
+        <v>546.0240598535763</v>
       </c>
       <c r="D25" t="n">
-        <v>523.2385817093078</v>
+        <v>521.4962511358317</v>
       </c>
       <c r="E25" t="n">
-        <v>583.8598085718237</v>
+        <v>581.6125522135452</v>
       </c>
       <c r="F25" t="n">
-        <v>545.9900188877824</v>
+        <v>546.0240598535763</v>
       </c>
       <c r="G25" t="n">
-        <v>545.9900188877824</v>
+        <v>546.0240598535763</v>
       </c>
       <c r="H25" t="n">
-        <v>6.375973937180391</v>
+        <v>5.795677360577074</v>
       </c>
       <c r="I25" t="n">
-        <v>6.375973937180391</v>
+        <v>5.795677360577074</v>
       </c>
       <c r="J25" t="n">
-        <v>6.375973937180391</v>
+        <v>5.795677360577074</v>
       </c>
       <c r="K25" t="n">
-        <v>6.375973937180391</v>
+        <v>5.795677360577074</v>
       </c>
       <c r="L25" t="n">
-        <v>6.375973937180391</v>
+        <v>5.795677360577074</v>
       </c>
       <c r="M25" t="n">
-        <v>6.375973937180391</v>
+        <v>5.795677360577074</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>552.3659928249629</v>
+        <v>551.8197372141534</v>
       </c>
     </row>
     <row r="26">
@@ -1799,37 +1799,37 @@
         <v>43709</v>
       </c>
       <c r="C26" t="n">
-        <v>547.2955191124728</v>
+        <v>547.3159258257189</v>
       </c>
       <c r="D26" t="n">
-        <v>558.9973931996097</v>
+        <v>559.5050440354989</v>
       </c>
       <c r="E26" t="n">
-        <v>617.7577725514715</v>
+        <v>618.969670595751</v>
       </c>
       <c r="F26" t="n">
-        <v>547.2955191124728</v>
+        <v>547.3159258257189</v>
       </c>
       <c r="G26" t="n">
-        <v>547.2955191124728</v>
+        <v>547.3159258257189</v>
       </c>
       <c r="H26" t="n">
-        <v>40.77325410657893</v>
+        <v>40.27678353920884</v>
       </c>
       <c r="I26" t="n">
-        <v>40.77325410657893</v>
+        <v>40.27678353920884</v>
       </c>
       <c r="J26" t="n">
-        <v>40.77325410657893</v>
+        <v>40.27678353920884</v>
       </c>
       <c r="K26" t="n">
-        <v>40.77325410657893</v>
+        <v>40.27678353920884</v>
       </c>
       <c r="L26" t="n">
-        <v>40.77325410657893</v>
+        <v>40.27678353920884</v>
       </c>
       <c r="M26" t="n">
-        <v>40.77325410657893</v>
+        <v>40.27678353920884</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>588.0687732190518</v>
+        <v>587.5927093649277</v>
       </c>
     </row>
     <row r="27">
@@ -1852,37 +1852,37 @@
         <v>43739</v>
       </c>
       <c r="C27" t="n">
-        <v>548.5589064266893</v>
+        <v>548.5661187019859</v>
       </c>
       <c r="D27" t="n">
-        <v>556.9994069343721</v>
+        <v>556.3556197441342</v>
       </c>
       <c r="E27" t="n">
-        <v>618.4709177984009</v>
+        <v>618.6284150859996</v>
       </c>
       <c r="F27" t="n">
-        <v>548.5589064266893</v>
+        <v>548.5661187019859</v>
       </c>
       <c r="G27" t="n">
-        <v>548.5589064266893</v>
+        <v>548.5661187019859</v>
       </c>
       <c r="H27" t="n">
-        <v>38.95446720431649</v>
+        <v>38.49649211974099</v>
       </c>
       <c r="I27" t="n">
-        <v>38.95446720431649</v>
+        <v>38.49649211974099</v>
       </c>
       <c r="J27" t="n">
-        <v>38.95446720431649</v>
+        <v>38.49649211974099</v>
       </c>
       <c r="K27" t="n">
-        <v>38.95446720431649</v>
+        <v>38.49649211974099</v>
       </c>
       <c r="L27" t="n">
-        <v>38.95446720431649</v>
+        <v>38.49649211974099</v>
       </c>
       <c r="M27" t="n">
-        <v>38.95446720431649</v>
+        <v>38.49649211974099</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>587.5133736310058</v>
+        <v>587.0626108217269</v>
       </c>
     </row>
     <row r="28">
@@ -1905,37 +1905,37 @@
         <v>43770</v>
       </c>
       <c r="C28" t="n">
-        <v>549.8644066510564</v>
+        <v>549.8579846552634</v>
       </c>
       <c r="D28" t="n">
-        <v>554.6379592581306</v>
+        <v>550.6249638567552</v>
       </c>
       <c r="E28" t="n">
-        <v>611.083901126767</v>
+        <v>611.1000459267084</v>
       </c>
       <c r="F28" t="n">
-        <v>549.8644066510564</v>
+        <v>549.8579846552634</v>
       </c>
       <c r="G28" t="n">
-        <v>549.8644066510564</v>
+        <v>549.8579846552634</v>
       </c>
       <c r="H28" t="n">
-        <v>31.77806575893184</v>
+        <v>31.3841120328074</v>
       </c>
       <c r="I28" t="n">
-        <v>31.77806575893184</v>
+        <v>31.3841120328074</v>
       </c>
       <c r="J28" t="n">
-        <v>31.77806575893184</v>
+        <v>31.3841120328074</v>
       </c>
       <c r="K28" t="n">
-        <v>31.77806575893184</v>
+        <v>31.3841120328074</v>
       </c>
       <c r="L28" t="n">
-        <v>31.77806575893184</v>
+        <v>31.3841120328074</v>
       </c>
       <c r="M28" t="n">
-        <v>31.77806575893184</v>
+        <v>31.3841120328074</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>581.6424724099882</v>
+        <v>581.2420966880708</v>
       </c>
     </row>
     <row r="29">
@@ -1958,37 +1958,37 @@
         <v>43800</v>
       </c>
       <c r="C29" t="n">
-        <v>551.1277939685068</v>
+        <v>551.108177513274</v>
       </c>
       <c r="D29" t="n">
-        <v>487.8198479556033</v>
+        <v>487.3157952723452</v>
       </c>
       <c r="E29" t="n">
-        <v>549.4577139810804</v>
+        <v>545.6719563413186</v>
       </c>
       <c r="F29" t="n">
-        <v>551.1277939685068</v>
+        <v>551.108177513274</v>
       </c>
       <c r="G29" t="n">
-        <v>551.1277939685068</v>
+        <v>551.108177513274</v>
       </c>
       <c r="H29" t="n">
-        <v>-33.57632025449343</v>
+        <v>-34.01126013213963</v>
       </c>
       <c r="I29" t="n">
-        <v>-33.57632025449343</v>
+        <v>-34.01126013213963</v>
       </c>
       <c r="J29" t="n">
-        <v>-33.57632025449343</v>
+        <v>-34.01126013213963</v>
       </c>
       <c r="K29" t="n">
-        <v>-33.57632025449343</v>
+        <v>-34.01126013213963</v>
       </c>
       <c r="L29" t="n">
-        <v>-33.57632025449343</v>
+        <v>-34.01126013213963</v>
       </c>
       <c r="M29" t="n">
-        <v>-33.57632025449343</v>
+        <v>-34.01126013213963</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>517.5514737140134</v>
+        <v>517.0969173811343</v>
       </c>
     </row>
     <row r="30">
@@ -2011,37 +2011,37 @@
         <v>43831</v>
       </c>
       <c r="C30" t="n">
-        <v>552.4332941965389</v>
+        <v>552.4000434077332</v>
       </c>
       <c r="D30" t="n">
-        <v>502.4686589578681</v>
+        <v>500.4644204549015</v>
       </c>
       <c r="E30" t="n">
-        <v>564.4452463522058</v>
+        <v>561.9529785346465</v>
       </c>
       <c r="F30" t="n">
-        <v>552.4332941965389</v>
+        <v>552.4000434077332</v>
       </c>
       <c r="G30" t="n">
-        <v>552.4332941965389</v>
+        <v>552.4000434077332</v>
       </c>
       <c r="H30" t="n">
-        <v>-19.54717353206771</v>
+        <v>-19.84942998678855</v>
       </c>
       <c r="I30" t="n">
-        <v>-19.54717353206771</v>
+        <v>-19.84942998678855</v>
       </c>
       <c r="J30" t="n">
-        <v>-19.54717353206771</v>
+        <v>-19.84942998678855</v>
       </c>
       <c r="K30" t="n">
-        <v>-19.54717353206771</v>
+        <v>-19.84942998678855</v>
       </c>
       <c r="L30" t="n">
-        <v>-19.54717353206771</v>
+        <v>-19.84942998678855</v>
       </c>
       <c r="M30" t="n">
-        <v>-19.54717353206771</v>
+        <v>-19.84942998678855</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>532.8861206644712</v>
+        <v>532.5506134209446</v>
       </c>
     </row>
     <row r="31">
@@ -2064,37 +2064,37 @@
         <v>43862</v>
       </c>
       <c r="C31" t="n">
-        <v>553.7387944191684</v>
+        <v>553.6919093021925</v>
       </c>
       <c r="D31" t="n">
-        <v>500.2926730558401</v>
+        <v>502.3491440784371</v>
       </c>
       <c r="E31" t="n">
-        <v>560.4939287872602</v>
+        <v>560.5950869493627</v>
       </c>
       <c r="F31" t="n">
-        <v>553.7387944191684</v>
+        <v>553.6919093021925</v>
       </c>
       <c r="G31" t="n">
-        <v>553.7387944191684</v>
+        <v>553.6919093021925</v>
       </c>
       <c r="H31" t="n">
-        <v>-22.14045166463227</v>
+        <v>-22.35627946748615</v>
       </c>
       <c r="I31" t="n">
-        <v>-22.14045166463227</v>
+        <v>-22.35627946748615</v>
       </c>
       <c r="J31" t="n">
-        <v>-22.14045166463227</v>
+        <v>-22.35627946748615</v>
       </c>
       <c r="K31" t="n">
-        <v>-22.14045166463227</v>
+        <v>-22.35627946748615</v>
       </c>
       <c r="L31" t="n">
-        <v>-22.14045166463227</v>
+        <v>-22.35627946748615</v>
       </c>
       <c r="M31" t="n">
-        <v>-22.14045166463227</v>
+        <v>-22.35627946748615</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>531.5983427545361</v>
+        <v>531.3356298347063</v>
       </c>
     </row>
     <row r="32">
@@ -2117,37 +2117,37 @@
         <v>43891</v>
       </c>
       <c r="C32" t="n">
-        <v>554.960068820983</v>
+        <v>554.9004290146463</v>
       </c>
       <c r="D32" t="n">
-        <v>536.4583519501397</v>
+        <v>538.3992008430004</v>
       </c>
       <c r="E32" t="n">
-        <v>594.8160438007902</v>
+        <v>593.6184047551012</v>
       </c>
       <c r="F32" t="n">
-        <v>554.960068820983</v>
+        <v>554.9004290146463</v>
       </c>
       <c r="G32" t="n">
-        <v>554.960068820983</v>
+        <v>554.9004290146463</v>
       </c>
       <c r="H32" t="n">
-        <v>11.4285462092993</v>
+        <v>11.2833172163417</v>
       </c>
       <c r="I32" t="n">
-        <v>11.4285462092993</v>
+        <v>11.2833172163417</v>
       </c>
       <c r="J32" t="n">
-        <v>11.4285462092993</v>
+        <v>11.2833172163417</v>
       </c>
       <c r="K32" t="n">
-        <v>11.4285462092993</v>
+        <v>11.2833172163417</v>
       </c>
       <c r="L32" t="n">
-        <v>11.4285462092993</v>
+        <v>11.2833172163417</v>
       </c>
       <c r="M32" t="n">
-        <v>11.4285462092993</v>
+        <v>11.2833172163417</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>566.3886150302823</v>
+        <v>566.183746230988</v>
       </c>
     </row>
     <row r="33">
@@ -2170,37 +2170,37 @@
         <v>43922</v>
       </c>
       <c r="C33" t="n">
-        <v>556.2655690386365</v>
+        <v>556.1922949141658</v>
       </c>
       <c r="D33" t="n">
-        <v>489.9294006645323</v>
+        <v>490.0037697087344</v>
       </c>
       <c r="E33" t="n">
-        <v>548.9948275432531</v>
+        <v>549.7341784566868</v>
       </c>
       <c r="F33" t="n">
-        <v>556.2655690386365</v>
+        <v>556.1922949141658</v>
       </c>
       <c r="G33" t="n">
-        <v>556.2655690386365</v>
+        <v>556.1922949141658</v>
       </c>
       <c r="H33" t="n">
-        <v>-36.04217365147652</v>
+        <v>-36.31261622159798</v>
       </c>
       <c r="I33" t="n">
-        <v>-36.04217365147652</v>
+        <v>-36.31261622159798</v>
       </c>
       <c r="J33" t="n">
-        <v>-36.04217365147652</v>
+        <v>-36.31261622159798</v>
       </c>
       <c r="K33" t="n">
-        <v>-36.04217365147652</v>
+        <v>-36.31261622159798</v>
       </c>
       <c r="L33" t="n">
-        <v>-36.04217365147652</v>
+        <v>-36.31261622159798</v>
       </c>
       <c r="M33" t="n">
-        <v>-36.04217365147652</v>
+        <v>-36.31261622159798</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>520.2233953871599</v>
+        <v>519.8796786925678</v>
       </c>
     </row>
     <row r="34">
@@ -2223,37 +2223,37 @@
         <v>43952</v>
       </c>
       <c r="C34" t="n">
-        <v>557.5289563460431</v>
+        <v>557.4400788642881</v>
       </c>
       <c r="D34" t="n">
-        <v>488.775116866099</v>
+        <v>488.945519918604</v>
       </c>
       <c r="E34" t="n">
-        <v>549.2857774468054</v>
+        <v>547.5510486445892</v>
       </c>
       <c r="F34" t="n">
-        <v>557.5289563460431</v>
+        <v>557.4400788642881</v>
       </c>
       <c r="G34" t="n">
-        <v>557.5289563460431</v>
+        <v>557.4400788642881</v>
       </c>
       <c r="H34" t="n">
-        <v>-38.68655979451812</v>
+        <v>-38.96470218841052</v>
       </c>
       <c r="I34" t="n">
-        <v>-38.68655979451812</v>
+        <v>-38.96470218841052</v>
       </c>
       <c r="J34" t="n">
-        <v>-38.68655979451812</v>
+        <v>-38.96470218841052</v>
       </c>
       <c r="K34" t="n">
-        <v>-38.68655979451812</v>
+        <v>-38.96470218841052</v>
       </c>
       <c r="L34" t="n">
-        <v>-38.68655979451812</v>
+        <v>-38.96470218841052</v>
       </c>
       <c r="M34" t="n">
-        <v>-38.68655979451812</v>
+        <v>-38.96470218841052</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>518.842396551525</v>
+        <v>518.4753766758776</v>
       </c>
     </row>
     <row r="35">
@@ -2276,37 +2276,37 @@
         <v>43983</v>
       </c>
       <c r="C35" t="n">
-        <v>558.8285931556114</v>
+        <v>558.7233432699401</v>
       </c>
       <c r="D35" t="n">
-        <v>515.2347823225575</v>
+        <v>512.2281868671339</v>
       </c>
       <c r="E35" t="n">
-        <v>570.1707658349991</v>
+        <v>570.7318574865971</v>
       </c>
       <c r="F35" t="n">
-        <v>558.8285931556114</v>
+        <v>558.7233432699401</v>
       </c>
       <c r="G35" t="n">
-        <v>558.8285931556114</v>
+        <v>558.7233432699401</v>
       </c>
       <c r="H35" t="n">
-        <v>-18.43167663266383</v>
+        <v>-17.59724655848949</v>
       </c>
       <c r="I35" t="n">
-        <v>-18.43167663266383</v>
+        <v>-17.59724655848949</v>
       </c>
       <c r="J35" t="n">
-        <v>-18.43167663266383</v>
+        <v>-17.59724655848949</v>
       </c>
       <c r="K35" t="n">
-        <v>-18.43167663266383</v>
+        <v>-17.59724655848949</v>
       </c>
       <c r="L35" t="n">
-        <v>-18.43167663266383</v>
+        <v>-17.59724655848949</v>
       </c>
       <c r="M35" t="n">
-        <v>-18.43167663266383</v>
+        <v>-17.59724655848949</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>540.3969165229475</v>
+        <v>541.1260967114506</v>
       </c>
     </row>
     <row r="36">
@@ -2329,37 +2329,37 @@
         <v>44013</v>
       </c>
       <c r="C36" t="n">
-        <v>560.0770738477863</v>
+        <v>559.9652120496032</v>
       </c>
       <c r="D36" t="n">
-        <v>544.2966811975469</v>
+        <v>542.6733263405399</v>
       </c>
       <c r="E36" t="n">
-        <v>600.9885435610527</v>
+        <v>600.5577280689254</v>
       </c>
       <c r="F36" t="n">
-        <v>560.0770738477863</v>
+        <v>559.9652120496032</v>
       </c>
       <c r="G36" t="n">
-        <v>560.0770738477863</v>
+        <v>559.9652120496032</v>
       </c>
       <c r="H36" t="n">
-        <v>10.83520202733776</v>
+        <v>10.79811116350598</v>
       </c>
       <c r="I36" t="n">
-        <v>10.83520202733776</v>
+        <v>10.79811116350598</v>
       </c>
       <c r="J36" t="n">
-        <v>10.83520202733776</v>
+        <v>10.79811116350598</v>
       </c>
       <c r="K36" t="n">
-        <v>10.83520202733776</v>
+        <v>10.79811116350598</v>
       </c>
       <c r="L36" t="n">
-        <v>10.83520202733776</v>
+        <v>10.79811116350598</v>
       </c>
       <c r="M36" t="n">
-        <v>10.83520202733776</v>
+        <v>10.79811116350598</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>570.9122758751241</v>
+        <v>570.7633232131092</v>
       </c>
     </row>
     <row r="37">
@@ -2382,37 +2382,37 @@
         <v>44044</v>
       </c>
       <c r="C37" t="n">
-        <v>561.3671705630338</v>
+        <v>561.2432217084643</v>
       </c>
       <c r="D37" t="n">
-        <v>558.2678687266199</v>
+        <v>557.9026796995524</v>
       </c>
       <c r="E37" t="n">
-        <v>616.8988792949112</v>
+        <v>615.242536478843</v>
       </c>
       <c r="F37" t="n">
-        <v>561.3671705630338</v>
+        <v>561.2432217084643</v>
       </c>
       <c r="G37" t="n">
-        <v>561.3671705630338</v>
+        <v>561.2432217084643</v>
       </c>
       <c r="H37" t="n">
-        <v>26.28112678925853</v>
+        <v>26.24746968486385</v>
       </c>
       <c r="I37" t="n">
-        <v>26.28112678925853</v>
+        <v>26.24746968486385</v>
       </c>
       <c r="J37" t="n">
-        <v>26.28112678925853</v>
+        <v>26.24746968486385</v>
       </c>
       <c r="K37" t="n">
-        <v>26.28112678925853</v>
+        <v>26.24746968486385</v>
       </c>
       <c r="L37" t="n">
-        <v>26.28112678925853</v>
+        <v>26.24746968486385</v>
       </c>
       <c r="M37" t="n">
-        <v>26.28112678925853</v>
+        <v>26.24746968486385</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>587.6482973522924</v>
+        <v>587.4906913933281</v>
       </c>
     </row>
     <row r="38">
@@ -2435,37 +2435,37 @@
         <v>44075</v>
       </c>
       <c r="C38" t="n">
-        <v>562.4304779588125</v>
+        <v>562.5212313673253</v>
       </c>
       <c r="D38" t="n">
-        <v>562.3261592982464</v>
+        <v>561.3438574411742</v>
       </c>
       <c r="E38" t="n">
-        <v>622.9298861377332</v>
+        <v>621.7803163213787</v>
       </c>
       <c r="F38" t="n">
-        <v>562.4304779588125</v>
+        <v>562.5212313673253</v>
       </c>
       <c r="G38" t="n">
-        <v>562.4304779588125</v>
+        <v>562.5212313673253</v>
       </c>
       <c r="H38" t="n">
-        <v>30.08935682571125</v>
+        <v>29.84098378167721</v>
       </c>
       <c r="I38" t="n">
-        <v>30.08935682571125</v>
+        <v>29.84098378167721</v>
       </c>
       <c r="J38" t="n">
-        <v>30.08935682571125</v>
+        <v>29.84098378167721</v>
       </c>
       <c r="K38" t="n">
-        <v>30.08935682571125</v>
+        <v>29.84098378167721</v>
       </c>
       <c r="L38" t="n">
-        <v>30.08935682571125</v>
+        <v>29.84098378167721</v>
       </c>
       <c r="M38" t="n">
-        <v>30.08935682571125</v>
+        <v>29.84098378167721</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>592.5198347845237</v>
+        <v>592.3622151490025</v>
       </c>
     </row>
     <row r="39">
@@ -2488,37 +2488,37 @@
         <v>44105</v>
       </c>
       <c r="C39" t="n">
-        <v>563.4594851160176</v>
+        <v>563.6420602651384</v>
       </c>
       <c r="D39" t="n">
-        <v>551.6209987579076</v>
+        <v>551.4465967452572</v>
       </c>
       <c r="E39" t="n">
-        <v>610.6296922530026</v>
+        <v>611.9125996557979</v>
       </c>
       <c r="F39" t="n">
-        <v>563.4594851160176</v>
+        <v>563.6420602651384</v>
       </c>
       <c r="G39" t="n">
-        <v>563.4594851160176</v>
+        <v>563.6420602651384</v>
       </c>
       <c r="H39" t="n">
-        <v>17.21751885442553</v>
+        <v>16.87452664802291</v>
       </c>
       <c r="I39" t="n">
-        <v>17.21751885442553</v>
+        <v>16.87452664802291</v>
       </c>
       <c r="J39" t="n">
-        <v>17.21751885442553</v>
+        <v>16.87452664802291</v>
       </c>
       <c r="K39" t="n">
-        <v>17.21751885442553</v>
+        <v>16.87452664802291</v>
       </c>
       <c r="L39" t="n">
-        <v>17.21751885442553</v>
+        <v>16.87452664802291</v>
       </c>
       <c r="M39" t="n">
-        <v>17.21751885442553</v>
+        <v>16.87452664802291</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>580.6770039704431</v>
+        <v>580.5165869131613</v>
       </c>
     </row>
     <row r="40">
@@ -2541,37 +2541,37 @@
         <v>44136</v>
       </c>
       <c r="C40" t="n">
-        <v>564.5137643206206</v>
+        <v>564.8002501262119</v>
       </c>
       <c r="D40" t="n">
-        <v>536.5998983914973</v>
+        <v>537.5462255852349</v>
       </c>
       <c r="E40" t="n">
-        <v>596.6081614632889</v>
+        <v>596.6201530933942</v>
       </c>
       <c r="F40" t="n">
-        <v>564.5137643206206</v>
+        <v>564.8002501262119</v>
       </c>
       <c r="G40" t="n">
-        <v>564.5137643206206</v>
+        <v>564.8002501262119</v>
       </c>
       <c r="H40" t="n">
-        <v>2.610718226404821</v>
+        <v>2.142234731879271</v>
       </c>
       <c r="I40" t="n">
-        <v>2.610718226404821</v>
+        <v>2.142234731879271</v>
       </c>
       <c r="J40" t="n">
-        <v>2.610718226404821</v>
+        <v>2.142234731879271</v>
       </c>
       <c r="K40" t="n">
-        <v>2.610718226404821</v>
+        <v>2.142234731879271</v>
       </c>
       <c r="L40" t="n">
-        <v>2.610718226404821</v>
+        <v>2.142234731879271</v>
       </c>
       <c r="M40" t="n">
-        <v>2.610718226404821</v>
+        <v>2.142234731879271</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>567.1244825470254</v>
+        <v>566.9424848580912</v>
       </c>
     </row>
     <row r="41">
@@ -2594,37 +2594,37 @@
         <v>44166</v>
       </c>
       <c r="C41" t="n">
-        <v>565.5340345186233</v>
+        <v>565.9139104709028</v>
       </c>
       <c r="D41" t="n">
-        <v>538.8299242307343</v>
+        <v>540.0376502882913</v>
       </c>
       <c r="E41" t="n">
-        <v>599.4359585274098</v>
+        <v>598.3446590471173</v>
       </c>
       <c r="F41" t="n">
-        <v>565.5340345186233</v>
+        <v>565.9139104709028</v>
       </c>
       <c r="G41" t="n">
-        <v>565.5340345186233</v>
+        <v>565.9139104709028</v>
       </c>
       <c r="H41" t="n">
-        <v>4.126843735119364</v>
+        <v>3.614028791514619</v>
       </c>
       <c r="I41" t="n">
-        <v>4.126843735119364</v>
+        <v>3.614028791514619</v>
       </c>
       <c r="J41" t="n">
-        <v>4.126843735119364</v>
+        <v>3.614028791514619</v>
       </c>
       <c r="K41" t="n">
-        <v>4.126843735119364</v>
+        <v>3.614028791514619</v>
       </c>
       <c r="L41" t="n">
-        <v>4.126843735119364</v>
+        <v>3.614028791514619</v>
       </c>
       <c r="M41" t="n">
-        <v>4.126843735119364</v>
+        <v>3.614028791514619</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>569.6608782537427</v>
+        <v>569.5279392624175</v>
       </c>
     </row>
     <row r="42">
@@ -2647,37 +2647,37 @@
         <v>44197</v>
       </c>
       <c r="C42" t="n">
-        <v>566.5840476628185</v>
+        <v>567.0646928270833</v>
       </c>
       <c r="D42" t="n">
-        <v>531.5628473314342</v>
+        <v>530.8992855680447</v>
       </c>
       <c r="E42" t="n">
-        <v>590.1508419062365</v>
+        <v>588.2481281020088</v>
       </c>
       <c r="F42" t="n">
-        <v>566.5840476628185</v>
+        <v>567.0646928270833</v>
       </c>
       <c r="G42" t="n">
-        <v>566.5840476628185</v>
+        <v>567.0646928270833</v>
       </c>
       <c r="H42" t="n">
-        <v>-6.074591429238839</v>
+        <v>-6.760652816665727</v>
       </c>
       <c r="I42" t="n">
-        <v>-6.074591429238839</v>
+        <v>-6.760652816665727</v>
       </c>
       <c r="J42" t="n">
-        <v>-6.074591429238839</v>
+        <v>-6.760652816665727</v>
       </c>
       <c r="K42" t="n">
-        <v>-6.074591429238839</v>
+        <v>-6.760652816665727</v>
       </c>
       <c r="L42" t="n">
-        <v>-6.074591429238839</v>
+        <v>-6.760652816665727</v>
       </c>
       <c r="M42" t="n">
-        <v>-6.074591429238839</v>
+        <v>-6.760652816665727</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>560.5094562335797</v>
+        <v>560.3040400104176</v>
       </c>
     </row>
     <row r="43">
@@ -2700,37 +2700,37 @@
         <v>44228</v>
       </c>
       <c r="C43" t="n">
-        <v>567.6339217345227</v>
+        <v>568.2136340740259</v>
       </c>
       <c r="D43" t="n">
-        <v>511.618063848525</v>
+        <v>513.3642040011498</v>
       </c>
       <c r="E43" t="n">
-        <v>569.6128114514058</v>
+        <v>571.5966338250611</v>
       </c>
       <c r="F43" t="n">
-        <v>567.6339217345227</v>
+        <v>568.2136340740259</v>
       </c>
       <c r="G43" t="n">
-        <v>567.6339217345227</v>
+        <v>568.2136340740259</v>
       </c>
       <c r="H43" t="n">
-        <v>-26.58096415862609</v>
+        <v>-27.41623475396827</v>
       </c>
       <c r="I43" t="n">
-        <v>-26.58096415862609</v>
+        <v>-27.41623475396827</v>
       </c>
       <c r="J43" t="n">
-        <v>-26.58096415862609</v>
+        <v>-27.41623475396827</v>
       </c>
       <c r="K43" t="n">
-        <v>-26.58096415862609</v>
+        <v>-27.41623475396827</v>
       </c>
       <c r="L43" t="n">
-        <v>-26.58096415862609</v>
+        <v>-27.41623475396827</v>
       </c>
       <c r="M43" t="n">
-        <v>-26.58096415862609</v>
+        <v>-27.41623475396827</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>541.0529575758966</v>
+        <v>540.7973993200576</v>
       </c>
     </row>
     <row r="44">
@@ -2753,37 +2753,37 @@
         <v>44256</v>
       </c>
       <c r="C44" t="n">
-        <v>568.5821950896102</v>
+        <v>569.2512563340288</v>
       </c>
       <c r="D44" t="n">
-        <v>550.0694458165659</v>
+        <v>549.2023264675324</v>
       </c>
       <c r="E44" t="n">
-        <v>607.7080771424082</v>
+        <v>609.7818280234384</v>
       </c>
       <c r="F44" t="n">
-        <v>568.5821950896102</v>
+        <v>569.2512563340288</v>
       </c>
       <c r="G44" t="n">
-        <v>568.5821950896102</v>
+        <v>569.2512563340288</v>
       </c>
       <c r="H44" t="n">
-        <v>10.18473216578842</v>
+        <v>9.78697764918825</v>
       </c>
       <c r="I44" t="n">
-        <v>10.18473216578842</v>
+        <v>9.78697764918825</v>
       </c>
       <c r="J44" t="n">
-        <v>10.18473216578842</v>
+        <v>9.78697764918825</v>
       </c>
       <c r="K44" t="n">
-        <v>10.18473216578842</v>
+        <v>9.78697764918825</v>
       </c>
       <c r="L44" t="n">
-        <v>10.18473216578842</v>
+        <v>9.78697764918825</v>
       </c>
       <c r="M44" t="n">
-        <v>10.18473216578842</v>
+        <v>9.78697764918825</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>578.7669272553986</v>
+        <v>579.038233983217</v>
       </c>
     </row>
     <row r="45">
@@ -2806,37 +2806,37 @@
         <v>44287</v>
       </c>
       <c r="C45" t="n">
-        <v>569.632069154041</v>
+        <v>570.4000524076035</v>
       </c>
       <c r="D45" t="n">
-        <v>513.6197006084345</v>
+        <v>512.8595621079498</v>
       </c>
       <c r="E45" t="n">
-        <v>571.6705910952068</v>
+        <v>571.7622031929667</v>
       </c>
       <c r="F45" t="n">
-        <v>569.632069154041</v>
+        <v>570.4000524076035</v>
       </c>
       <c r="G45" t="n">
-        <v>569.632069154041</v>
+        <v>570.4000524076035</v>
       </c>
       <c r="H45" t="n">
-        <v>-27.94204061851135</v>
+        <v>-28.42007573601348</v>
       </c>
       <c r="I45" t="n">
-        <v>-27.94204061851135</v>
+        <v>-28.42007573601348</v>
       </c>
       <c r="J45" t="n">
-        <v>-27.94204061851135</v>
+        <v>-28.42007573601348</v>
       </c>
       <c r="K45" t="n">
-        <v>-27.94204061851135</v>
+        <v>-28.42007573601348</v>
       </c>
       <c r="L45" t="n">
-        <v>-27.94204061851135</v>
+        <v>-28.42007573601348</v>
       </c>
       <c r="M45" t="n">
-        <v>-27.94204061851135</v>
+        <v>-28.42007573601348</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>541.6900285355297</v>
+        <v>541.9799766715901</v>
       </c>
     </row>
     <row r="46">
@@ -2859,37 +2859,37 @@
         <v>44317</v>
       </c>
       <c r="C46" t="n">
-        <v>570.6480763131676</v>
+        <v>571.5117904742496</v>
       </c>
       <c r="D46" t="n">
-        <v>504.2955158644771</v>
+        <v>506.9179918478587</v>
       </c>
       <c r="E46" t="n">
-        <v>562.1712030725557</v>
+        <v>566.6327639373054</v>
       </c>
       <c r="F46" t="n">
-        <v>570.6480763131676</v>
+        <v>571.5117904742496</v>
       </c>
       <c r="G46" t="n">
-        <v>570.6480763131676</v>
+        <v>571.5117904742496</v>
       </c>
       <c r="H46" t="n">
-        <v>-36.49440153308179</v>
+        <v>-37.00495911883224</v>
       </c>
       <c r="I46" t="n">
-        <v>-36.49440153308179</v>
+        <v>-37.00495911883224</v>
       </c>
       <c r="J46" t="n">
-        <v>-36.49440153308179</v>
+        <v>-37.00495911883224</v>
       </c>
       <c r="K46" t="n">
-        <v>-36.49440153308179</v>
+        <v>-37.00495911883224</v>
       </c>
       <c r="L46" t="n">
-        <v>-36.49440153308179</v>
+        <v>-37.00495911883224</v>
       </c>
       <c r="M46" t="n">
-        <v>-36.49440153308179</v>
+        <v>-37.00495911883224</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>534.1536747800858</v>
+        <v>534.5068313554173</v>
       </c>
     </row>
     <row r="47">
@@ -2912,37 +2912,37 @@
         <v>44348</v>
       </c>
       <c r="C47" t="n">
-        <v>571.6979503762632</v>
+        <v>572.6605864764505</v>
       </c>
       <c r="D47" t="n">
-        <v>519.1342570826148</v>
+        <v>522.912566206899</v>
       </c>
       <c r="E47" t="n">
-        <v>581.1697870226449</v>
+        <v>583.58710531231</v>
       </c>
       <c r="F47" t="n">
-        <v>571.6979503762632</v>
+        <v>572.6605864764505</v>
       </c>
       <c r="G47" t="n">
-        <v>571.6979503762632</v>
+        <v>572.6605864764505</v>
       </c>
       <c r="H47" t="n">
-        <v>-21.35601635024157</v>
+        <v>-19.73181967188885</v>
       </c>
       <c r="I47" t="n">
-        <v>-21.35601635024157</v>
+        <v>-19.73181967188885</v>
       </c>
       <c r="J47" t="n">
-        <v>-21.35601635024157</v>
+        <v>-19.73181967188885</v>
       </c>
       <c r="K47" t="n">
-        <v>-21.35601635024157</v>
+        <v>-19.73181967188885</v>
       </c>
       <c r="L47" t="n">
-        <v>-21.35601635024157</v>
+        <v>-19.73181967188885</v>
       </c>
       <c r="M47" t="n">
-        <v>-21.35601635024157</v>
+        <v>-19.73181967188885</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>550.3419340260216</v>
+        <v>552.9287668045616</v>
       </c>
     </row>
     <row r="48">
@@ -2965,37 +2965,37 @@
         <v>44378</v>
       </c>
       <c r="C48" t="n">
-        <v>572.7139575340975</v>
+        <v>573.7723245817043</v>
       </c>
       <c r="D48" t="n">
-        <v>548.8040965423153</v>
+        <v>549.7591482454186</v>
       </c>
       <c r="E48" t="n">
-        <v>608.9165499898893</v>
+        <v>610.4126179278775</v>
       </c>
       <c r="F48" t="n">
-        <v>572.7139575340975</v>
+        <v>573.7723245817043</v>
       </c>
       <c r="G48" t="n">
-        <v>572.7139575340975</v>
+        <v>573.7723245817043</v>
       </c>
       <c r="H48" t="n">
-        <v>5.601454202838498</v>
+        <v>5.399666408840023</v>
       </c>
       <c r="I48" t="n">
-        <v>5.601454202838498</v>
+        <v>5.399666408840023</v>
       </c>
       <c r="J48" t="n">
-        <v>5.601454202838498</v>
+        <v>5.399666408840023</v>
       </c>
       <c r="K48" t="n">
-        <v>5.601454202838498</v>
+        <v>5.399666408840023</v>
       </c>
       <c r="L48" t="n">
-        <v>5.601454202838498</v>
+        <v>5.399666408840023</v>
       </c>
       <c r="M48" t="n">
-        <v>5.601454202838498</v>
+        <v>5.399666408840023</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>578.315411736936</v>
+        <v>579.1719909905444</v>
       </c>
     </row>
     <row r="49">
@@ -3018,37 +3018,37 @@
         <v>44409</v>
       </c>
       <c r="C49" t="n">
-        <v>573.7638315971931</v>
+        <v>574.9211206237999</v>
       </c>
       <c r="D49" t="n">
-        <v>561.1829091879963</v>
+        <v>565.6582850162406</v>
       </c>
       <c r="E49" t="n">
-        <v>623.1995921089223</v>
+        <v>625.108350920646</v>
       </c>
       <c r="F49" t="n">
-        <v>573.7638315971931</v>
+        <v>574.9211206237999</v>
       </c>
       <c r="G49" t="n">
-        <v>573.7638315971931</v>
+        <v>574.9211206237999</v>
       </c>
       <c r="H49" t="n">
-        <v>19.4485514730737</v>
+        <v>19.23540343316132</v>
       </c>
       <c r="I49" t="n">
-        <v>19.4485514730737</v>
+        <v>19.23540343316132</v>
       </c>
       <c r="J49" t="n">
-        <v>19.4485514730737</v>
+        <v>19.23540343316132</v>
       </c>
       <c r="K49" t="n">
-        <v>19.4485514730737</v>
+        <v>19.23540343316132</v>
       </c>
       <c r="L49" t="n">
-        <v>19.4485514730737</v>
+        <v>19.23540343316132</v>
       </c>
       <c r="M49" t="n">
-        <v>19.4485514730737</v>
+        <v>19.23540343316132</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>593.2123830702668</v>
+        <v>594.1565240569612</v>
       </c>
     </row>
     <row r="50">
@@ -3071,37 +3071,37 @@
         <v>44440</v>
       </c>
       <c r="C50" t="n">
-        <v>574.8137056602885</v>
+        <v>576.0699166658956</v>
       </c>
       <c r="D50" t="n">
-        <v>576.6921030533722</v>
+        <v>579.0306844452901</v>
       </c>
       <c r="E50" t="n">
-        <v>638.9722085145261</v>
+        <v>638.506377249192</v>
       </c>
       <c r="F50" t="n">
-        <v>574.8137056602885</v>
+        <v>576.0699166658956</v>
       </c>
       <c r="G50" t="n">
-        <v>574.8137056602885</v>
+        <v>576.0699166658956</v>
       </c>
       <c r="H50" t="n">
-        <v>33.38843742010661</v>
+        <v>33.05583738951793</v>
       </c>
       <c r="I50" t="n">
-        <v>33.38843742010661</v>
+        <v>33.05583738951793</v>
       </c>
       <c r="J50" t="n">
-        <v>33.38843742010661</v>
+        <v>33.05583738951793</v>
       </c>
       <c r="K50" t="n">
-        <v>33.38843742010661</v>
+        <v>33.05583738951793</v>
       </c>
       <c r="L50" t="n">
-        <v>33.38843742010661</v>
+        <v>33.05583738951793</v>
       </c>
       <c r="M50" t="n">
-        <v>33.38843742010661</v>
+        <v>33.05583738951793</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>608.2021430803951</v>
+        <v>609.1257540554135</v>
       </c>
     </row>
     <row r="51">
@@ -3124,37 +3124,37 @@
         <v>44470</v>
       </c>
       <c r="C51" t="n">
-        <v>575.8297128181229</v>
+        <v>577.1816547711494</v>
       </c>
       <c r="D51" t="n">
-        <v>570.4634034709641</v>
+        <v>570.880385526138</v>
       </c>
       <c r="E51" t="n">
-        <v>629.8050756225174</v>
+        <v>629.421536962932</v>
       </c>
       <c r="F51" t="n">
-        <v>575.8297128181229</v>
+        <v>577.1816547711494</v>
       </c>
       <c r="G51" t="n">
-        <v>575.8297128181229</v>
+        <v>577.1816547711494</v>
       </c>
       <c r="H51" t="n">
-        <v>24.4153717356944</v>
+        <v>24.03100546429357</v>
       </c>
       <c r="I51" t="n">
-        <v>24.4153717356944</v>
+        <v>24.03100546429357</v>
       </c>
       <c r="J51" t="n">
-        <v>24.4153717356944</v>
+        <v>24.03100546429357</v>
       </c>
       <c r="K51" t="n">
-        <v>24.4153717356944</v>
+        <v>24.03100546429357</v>
       </c>
       <c r="L51" t="n">
-        <v>24.4153717356944</v>
+        <v>24.03100546429357</v>
       </c>
       <c r="M51" t="n">
-        <v>24.4153717356944</v>
+        <v>24.03100546429357</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>600.2450845538173</v>
+        <v>601.212660235443</v>
       </c>
     </row>
     <row r="52">
@@ -3177,37 +3177,37 @@
         <v>44501</v>
       </c>
       <c r="C52" t="n">
-        <v>576.8795868812183</v>
+        <v>578.330450813245</v>
       </c>
       <c r="D52" t="n">
-        <v>560.5727555685087</v>
+        <v>563.0453256693363</v>
       </c>
       <c r="E52" t="n">
-        <v>619.940182357463</v>
+        <v>621.1876023565374</v>
       </c>
       <c r="F52" t="n">
-        <v>576.8795868812183</v>
+        <v>578.330450813245</v>
       </c>
       <c r="G52" t="n">
-        <v>576.8795868812183</v>
+        <v>578.330450813245</v>
       </c>
       <c r="H52" t="n">
-        <v>12.64527381048019</v>
+        <v>12.19876408688835</v>
       </c>
       <c r="I52" t="n">
-        <v>12.64527381048019</v>
+        <v>12.19876408688835</v>
       </c>
       <c r="J52" t="n">
-        <v>12.64527381048019</v>
+        <v>12.19876408688835</v>
       </c>
       <c r="K52" t="n">
-        <v>12.64527381048019</v>
+        <v>12.19876408688835</v>
       </c>
       <c r="L52" t="n">
-        <v>12.64527381048019</v>
+        <v>12.19876408688835</v>
       </c>
       <c r="M52" t="n">
-        <v>12.64527381048019</v>
+        <v>12.19876408688835</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>589.5248606916984</v>
+        <v>590.5292149001333</v>
       </c>
     </row>
     <row r="53">
@@ -3230,37 +3230,37 @@
         <v>44531</v>
       </c>
       <c r="C53" t="n">
-        <v>577.8955940390528</v>
+        <v>579.4421889184988</v>
       </c>
       <c r="D53" t="n">
-        <v>539.6297379225518</v>
+        <v>542.6651416810672</v>
       </c>
       <c r="E53" t="n">
-        <v>597.6799254332561</v>
+        <v>600.4874396298752</v>
       </c>
       <c r="F53" t="n">
-        <v>577.8955940390528</v>
+        <v>579.4421889184988</v>
       </c>
       <c r="G53" t="n">
-        <v>577.8955940390528</v>
+        <v>579.4421889184988</v>
       </c>
       <c r="H53" t="n">
-        <v>-8.217838166622156</v>
+        <v>-8.707177334886152</v>
       </c>
       <c r="I53" t="n">
-        <v>-8.217838166622156</v>
+        <v>-8.707177334886152</v>
       </c>
       <c r="J53" t="n">
-        <v>-8.217838166622156</v>
+        <v>-8.707177334886152</v>
       </c>
       <c r="K53" t="n">
-        <v>-8.217838166622156</v>
+        <v>-8.707177334886152</v>
       </c>
       <c r="L53" t="n">
-        <v>-8.217838166622156</v>
+        <v>-8.707177334886152</v>
       </c>
       <c r="M53" t="n">
-        <v>-8.217838166622156</v>
+        <v>-8.707177334886152</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>569.6777558724306</v>
+        <v>570.7350115836126</v>
       </c>
     </row>
     <row r="54">
@@ -3283,37 +3283,37 @@
         <v>44562</v>
       </c>
       <c r="C54" t="n">
-        <v>578.9454681021482</v>
+        <v>580.5909849605945</v>
       </c>
       <c r="D54" t="n">
-        <v>538.3226369812463</v>
+        <v>538.5499577624162</v>
       </c>
       <c r="E54" t="n">
-        <v>597.3458209697153</v>
+        <v>600.7602835317225</v>
       </c>
       <c r="F54" t="n">
-        <v>578.9454681021482</v>
+        <v>580.5909849605945</v>
       </c>
       <c r="G54" t="n">
-        <v>578.9454681021482</v>
+        <v>580.5909849605945</v>
       </c>
       <c r="H54" t="n">
-        <v>-10.71201590382601</v>
+        <v>-11.27114733807937</v>
       </c>
       <c r="I54" t="n">
-        <v>-10.71201590382601</v>
+        <v>-11.27114733807937</v>
       </c>
       <c r="J54" t="n">
-        <v>-10.71201590382601</v>
+        <v>-11.27114733807937</v>
       </c>
       <c r="K54" t="n">
-        <v>-10.71201590382601</v>
+        <v>-11.27114733807937</v>
       </c>
       <c r="L54" t="n">
-        <v>-10.71201590382601</v>
+        <v>-11.27114733807937</v>
       </c>
       <c r="M54" t="n">
-        <v>-10.71201590382601</v>
+        <v>-11.27114733807937</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>568.2334521983222</v>
+        <v>569.3198376225151</v>
       </c>
     </row>
     <row r="55">
@@ -3336,37 +3336,37 @@
         <v>44593</v>
       </c>
       <c r="C55" t="n">
-        <v>579.9953421652438</v>
+        <v>581.7397810026901</v>
       </c>
       <c r="D55" t="n">
-        <v>526.5064035731031</v>
+        <v>527.6594014649637</v>
       </c>
       <c r="E55" t="n">
-        <v>583.7571581933431</v>
+        <v>584.5849291887948</v>
       </c>
       <c r="F55" t="n">
-        <v>579.9953421652438</v>
+        <v>581.7397810026901</v>
       </c>
       <c r="G55" t="n">
-        <v>579.9953421652438</v>
+        <v>581.7397810026901</v>
       </c>
       <c r="H55" t="n">
-        <v>-25.23674676710561</v>
+        <v>-25.8595202267046</v>
       </c>
       <c r="I55" t="n">
-        <v>-25.23674676710561</v>
+        <v>-25.8595202267046</v>
       </c>
       <c r="J55" t="n">
-        <v>-25.23674676710561</v>
+        <v>-25.8595202267046</v>
       </c>
       <c r="K55" t="n">
-        <v>-25.23674676710561</v>
+        <v>-25.8595202267046</v>
       </c>
       <c r="L55" t="n">
-        <v>-25.23674676710561</v>
+        <v>-25.8595202267046</v>
       </c>
       <c r="M55" t="n">
-        <v>-25.23674676710561</v>
+        <v>-25.8595202267046</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>554.7585953981381</v>
+        <v>555.8802607759854</v>
       </c>
     </row>
     <row r="56">
@@ -3389,37 +3389,37 @@
         <v>44621</v>
       </c>
       <c r="C56" t="n">
-        <v>580.9436155125558</v>
+        <v>582.7774032342603</v>
       </c>
       <c r="D56" t="n">
-        <v>560.5861770907757</v>
+        <v>561.2099799428793</v>
       </c>
       <c r="E56" t="n">
-        <v>618.5152287786671</v>
+        <v>620.5001390330733</v>
       </c>
       <c r="F56" t="n">
-        <v>580.9436155125558</v>
+        <v>582.7774032342603</v>
       </c>
       <c r="G56" t="n">
-        <v>580.9436155125558</v>
+        <v>582.7774032342603</v>
       </c>
       <c r="H56" t="n">
-        <v>9.055718856171218</v>
+        <v>8.399977132683466</v>
       </c>
       <c r="I56" t="n">
-        <v>9.055718856171218</v>
+        <v>8.399977132683466</v>
       </c>
       <c r="J56" t="n">
-        <v>9.055718856171218</v>
+        <v>8.399977132683466</v>
       </c>
       <c r="K56" t="n">
-        <v>9.055718856171218</v>
+        <v>8.399977132683466</v>
       </c>
       <c r="L56" t="n">
-        <v>9.055718856171218</v>
+        <v>8.399977132683466</v>
       </c>
       <c r="M56" t="n">
-        <v>9.055718856171218</v>
+        <v>8.399977132683466</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>589.999334368727</v>
+        <v>591.1773803669438</v>
       </c>
     </row>
     <row r="57">
@@ -3442,37 +3442,37 @@
         <v>44652</v>
       </c>
       <c r="C57" t="n">
-        <v>581.9934895756513</v>
+        <v>583.9261992763559</v>
       </c>
       <c r="D57" t="n">
-        <v>529.9378432279349</v>
+        <v>532.9502796554655</v>
       </c>
       <c r="E57" t="n">
-        <v>593.4979729472154</v>
+        <v>592.2571781399138</v>
       </c>
       <c r="F57" t="n">
-        <v>581.9934895756513</v>
+        <v>583.9261992763559</v>
       </c>
       <c r="G57" t="n">
-        <v>581.9934895756513</v>
+        <v>583.9261992763559</v>
       </c>
       <c r="H57" t="n">
-        <v>-19.8068883875119</v>
+        <v>-20.48959599423252</v>
       </c>
       <c r="I57" t="n">
-        <v>-19.8068883875119</v>
+        <v>-20.48959599423252</v>
       </c>
       <c r="J57" t="n">
-        <v>-19.8068883875119</v>
+        <v>-20.48959599423252</v>
       </c>
       <c r="K57" t="n">
-        <v>-19.8068883875119</v>
+        <v>-20.48959599423252</v>
       </c>
       <c r="L57" t="n">
-        <v>-19.8068883875119</v>
+        <v>-20.48959599423252</v>
       </c>
       <c r="M57" t="n">
-        <v>-19.8068883875119</v>
+        <v>-20.48959599423252</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>562.1866011881394</v>
+        <v>563.4366032821233</v>
       </c>
     </row>
     <row r="58">
@@ -3495,37 +3495,37 @@
         <v>44682</v>
       </c>
       <c r="C58" t="n">
-        <v>583.0094967334857</v>
+        <v>585.0379373816097</v>
       </c>
       <c r="D58" t="n">
-        <v>519.5456858211821</v>
+        <v>520.5714403824601</v>
       </c>
       <c r="E58" t="n">
-        <v>579.3245937717538</v>
+        <v>580.0787961644872</v>
       </c>
       <c r="F58" t="n">
-        <v>583.0094967334857</v>
+        <v>585.0379373816097</v>
       </c>
       <c r="G58" t="n">
-        <v>583.0094967334857</v>
+        <v>585.0379373816097</v>
       </c>
       <c r="H58" t="n">
-        <v>-34.49968697949635</v>
+        <v>-35.2276858775688</v>
       </c>
       <c r="I58" t="n">
-        <v>-34.49968697949635</v>
+        <v>-35.2276858775688</v>
       </c>
       <c r="J58" t="n">
-        <v>-34.49968697949635</v>
+        <v>-35.2276858775688</v>
       </c>
       <c r="K58" t="n">
-        <v>-34.49968697949635</v>
+        <v>-35.2276858775688</v>
       </c>
       <c r="L58" t="n">
-        <v>-34.49968697949635</v>
+        <v>-35.2276858775688</v>
       </c>
       <c r="M58" t="n">
-        <v>-34.49968697949635</v>
+        <v>-35.2276858775688</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>548.5098097539893</v>
+        <v>549.8102515040409</v>
       </c>
     </row>
     <row r="59">
@@ -3548,37 +3548,37 @@
         <v>44713</v>
       </c>
       <c r="C59" t="n">
-        <v>584.0593707965811</v>
+        <v>586.1867334237053</v>
       </c>
       <c r="D59" t="n">
-        <v>530.0578302134717</v>
+        <v>534.6349402595234</v>
       </c>
       <c r="E59" t="n">
-        <v>588.8124281759573</v>
+        <v>594.6423665453245</v>
       </c>
       <c r="F59" t="n">
-        <v>584.0569326937791</v>
+        <v>586.1867334237053</v>
       </c>
       <c r="G59" t="n">
-        <v>584.0625088769945</v>
+        <v>586.1867334237053</v>
       </c>
       <c r="H59" t="n">
-        <v>-24.45599269122992</v>
+        <v>-22.0407531089333</v>
       </c>
       <c r="I59" t="n">
-        <v>-24.45599269122992</v>
+        <v>-22.0407531089333</v>
       </c>
       <c r="J59" t="n">
-        <v>-24.45599269122992</v>
+        <v>-22.0407531089333</v>
       </c>
       <c r="K59" t="n">
-        <v>-24.45599269122992</v>
+        <v>-22.0407531089333</v>
       </c>
       <c r="L59" t="n">
-        <v>-24.45599269122992</v>
+        <v>-22.0407531089333</v>
       </c>
       <c r="M59" t="n">
-        <v>-24.45599269122992</v>
+        <v>-22.0407531089333</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>559.6033781053512</v>
+        <v>564.145980314772</v>
       </c>
     </row>
     <row r="60">
@@ -3601,37 +3601,37 @@
         <v>44743</v>
       </c>
       <c r="C60" t="n">
-        <v>585.0753779544156</v>
+        <v>587.2984715289591</v>
       </c>
       <c r="D60" t="n">
-        <v>554.976998801638</v>
+        <v>559.1483918437582</v>
       </c>
       <c r="E60" t="n">
-        <v>614.7053899029731</v>
+        <v>616.1171635979438</v>
       </c>
       <c r="F60" t="n">
-        <v>585.0616670276983</v>
+        <v>587.297086833462</v>
       </c>
       <c r="G60" t="n">
-        <v>585.0899220556403</v>
+        <v>587.2996649681896</v>
       </c>
       <c r="H60" t="n">
-        <v>0.3353481677647108</v>
+        <v>-0.04400124435900032</v>
       </c>
       <c r="I60" t="n">
-        <v>0.3353481677647108</v>
+        <v>-0.04400124435900032</v>
       </c>
       <c r="J60" t="n">
-        <v>0.3353481677647108</v>
+        <v>-0.04400124435900032</v>
       </c>
       <c r="K60" t="n">
-        <v>0.3353481677647108</v>
+        <v>-0.04400124435900032</v>
       </c>
       <c r="L60" t="n">
-        <v>0.3353481677647108</v>
+        <v>-0.04400124435900032</v>
       </c>
       <c r="M60" t="n">
-        <v>0.3353481677647108</v>
+        <v>-0.04400124435900032</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>585.4107261221802</v>
+        <v>587.2544702846001</v>
       </c>
     </row>
     <row r="61">
@@ -3654,37 +3654,37 @@
         <v>44774</v>
       </c>
       <c r="C61" t="n">
-        <v>586.125252017511</v>
+        <v>588.4472675710548</v>
       </c>
       <c r="D61" t="n">
-        <v>571.5706306743479</v>
+        <v>571.6886398564437</v>
       </c>
       <c r="E61" t="n">
-        <v>627.7645406059474</v>
+        <v>631.6157319412523</v>
       </c>
       <c r="F61" t="n">
-        <v>586.1000826321351</v>
+        <v>588.439970567397</v>
       </c>
       <c r="G61" t="n">
-        <v>586.1559918065818</v>
+        <v>588.4546738080917</v>
       </c>
       <c r="H61" t="n">
-        <v>12.81075176879925</v>
+        <v>12.41529769374003</v>
       </c>
       <c r="I61" t="n">
-        <v>12.81075176879925</v>
+        <v>12.41529769374003</v>
       </c>
       <c r="J61" t="n">
-        <v>12.81075176879925</v>
+        <v>12.41529769374003</v>
       </c>
       <c r="K61" t="n">
-        <v>12.81075176879925</v>
+        <v>12.41529769374003</v>
       </c>
       <c r="L61" t="n">
-        <v>12.81075176879925</v>
+        <v>12.41529769374003</v>
       </c>
       <c r="M61" t="n">
-        <v>12.81075176879925</v>
+        <v>12.41529769374003</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>598.9360037863103</v>
+        <v>600.8625652647949</v>
       </c>
     </row>
     <row r="62">
@@ -3707,37 +3707,37 @@
         <v>44805</v>
       </c>
       <c r="C62" t="n">
-        <v>587.1751260806066</v>
+        <v>589.5960636131504</v>
       </c>
       <c r="D62" t="n">
-        <v>594.6506239679169</v>
+        <v>595.0257935862066</v>
       </c>
       <c r="E62" t="n">
-        <v>654.1778327515609</v>
+        <v>656.3622981402997</v>
       </c>
       <c r="F62" t="n">
-        <v>587.1303145402139</v>
+        <v>589.5794479154089</v>
       </c>
       <c r="G62" t="n">
-        <v>587.2255736729603</v>
+        <v>589.613084387067</v>
       </c>
       <c r="H62" t="n">
-        <v>36.95126271178803</v>
+        <v>36.53590219661133</v>
       </c>
       <c r="I62" t="n">
-        <v>36.95126271178803</v>
+        <v>36.53590219661133</v>
       </c>
       <c r="J62" t="n">
-        <v>36.95126271178803</v>
+        <v>36.53590219661133</v>
       </c>
       <c r="K62" t="n">
-        <v>36.95126271178803</v>
+        <v>36.53590219661133</v>
       </c>
       <c r="L62" t="n">
-        <v>36.95126271178803</v>
+        <v>36.53590219661133</v>
       </c>
       <c r="M62" t="n">
-        <v>36.95126271178803</v>
+        <v>36.53590219661133</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>624.1263887923946</v>
+        <v>626.1319658097617</v>
       </c>
     </row>
     <row r="63">
@@ -3760,37 +3760,37 @@
         <v>44835</v>
       </c>
       <c r="C63" t="n">
-        <v>588.1911332384408</v>
+        <v>590.7078017184042</v>
       </c>
       <c r="D63" t="n">
-        <v>589.2862537517781</v>
+        <v>591.0051389933652</v>
       </c>
       <c r="E63" t="n">
-        <v>648.3908256136676</v>
+        <v>650.5528298729303</v>
       </c>
       <c r="F63" t="n">
-        <v>588.1241082051862</v>
+        <v>590.6806540342732</v>
       </c>
       <c r="G63" t="n">
-        <v>588.2656602798061</v>
+        <v>590.7342426693531</v>
       </c>
       <c r="H63" t="n">
-        <v>31.66522311902281</v>
+        <v>31.24250465443034</v>
       </c>
       <c r="I63" t="n">
-        <v>31.66522311902281</v>
+        <v>31.24250465443034</v>
       </c>
       <c r="J63" t="n">
-        <v>31.66522311902281</v>
+        <v>31.24250465443034</v>
       </c>
       <c r="K63" t="n">
-        <v>31.66522311902281</v>
+        <v>31.24250465443034</v>
       </c>
       <c r="L63" t="n">
-        <v>31.66522311902281</v>
+        <v>31.24250465443034</v>
       </c>
       <c r="M63" t="n">
-        <v>31.66522311902281</v>
+        <v>31.24250465443034</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>619.8563563574636</v>
+        <v>621.9503063728346</v>
       </c>
     </row>
     <row r="64">
@@ -3813,37 +3813,37 @@
         <v>44866</v>
       </c>
       <c r="C64" t="n">
-        <v>589.2410073015363</v>
+        <v>591.8565977604999</v>
       </c>
       <c r="D64" t="n">
-        <v>581.31253103035</v>
+        <v>584.899689712709</v>
       </c>
       <c r="E64" t="n">
-        <v>641.0942269963061</v>
+        <v>644.7547324946067</v>
       </c>
       <c r="F64" t="n">
-        <v>589.1507223013911</v>
+        <v>591.8188582947822</v>
       </c>
       <c r="G64" t="n">
-        <v>589.3424118192457</v>
+        <v>591.8958958707167</v>
       </c>
       <c r="H64" t="n">
-        <v>22.37120656690524</v>
+        <v>21.94954820821548</v>
       </c>
       <c r="I64" t="n">
-        <v>22.37120656690524</v>
+        <v>21.94954820821548</v>
       </c>
       <c r="J64" t="n">
-        <v>22.37120656690524</v>
+        <v>21.94954820821548</v>
       </c>
       <c r="K64" t="n">
-        <v>22.37120656690524</v>
+        <v>21.94954820821548</v>
       </c>
       <c r="L64" t="n">
-        <v>22.37120656690524</v>
+        <v>21.94954820821548</v>
       </c>
       <c r="M64" t="n">
-        <v>22.37120656690524</v>
+        <v>21.94954820821548</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>611.6122138684416</v>
+        <v>613.8061459687153</v>
       </c>
     </row>
     <row r="65">
@@ -3866,37 +3866,37 @@
         <v>44896</v>
       </c>
       <c r="C65" t="n">
-        <v>590.2570144593707</v>
+        <v>592.9683358657536</v>
       </c>
       <c r="D65" t="n">
-        <v>540.8181167423184</v>
+        <v>540.9128948076518</v>
       </c>
       <c r="E65" t="n">
-        <v>599.1103771766892</v>
+        <v>601.9102603521134</v>
       </c>
       <c r="F65" t="n">
-        <v>590.1468204699889</v>
+        <v>592.9181115020801</v>
       </c>
       <c r="G65" t="n">
-        <v>590.3823787451216</v>
+        <v>593.0209228336882</v>
       </c>
       <c r="H65" t="n">
-        <v>-20.79027523741233</v>
+        <v>-21.25362402565489</v>
       </c>
       <c r="I65" t="n">
-        <v>-20.79027523741233</v>
+        <v>-21.25362402565489</v>
       </c>
       <c r="J65" t="n">
-        <v>-20.79027523741233</v>
+        <v>-21.25362402565489</v>
       </c>
       <c r="K65" t="n">
-        <v>-20.79027523741233</v>
+        <v>-21.25362402565489</v>
       </c>
       <c r="L65" t="n">
-        <v>-20.79027523741233</v>
+        <v>-21.25362402565489</v>
       </c>
       <c r="M65" t="n">
-        <v>-20.79027523741233</v>
+        <v>-21.25362402565489</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>569.4667392219584</v>
+        <v>571.7147118400987</v>
       </c>
     </row>
     <row r="66">
@@ -3919,37 +3919,37 @@
         <v>44927</v>
       </c>
       <c r="C66" t="n">
-        <v>591.3068885224661</v>
+        <v>594.1171319078493</v>
       </c>
       <c r="D66" t="n">
-        <v>545.0449869071709</v>
+        <v>549.8582438630604</v>
       </c>
       <c r="E66" t="n">
-        <v>605.5491335816791</v>
+        <v>607.3938201063328</v>
       </c>
       <c r="F66" t="n">
-        <v>591.1720658144535</v>
+        <v>594.0566838393379</v>
       </c>
       <c r="G66" t="n">
-        <v>591.4625614213118</v>
+        <v>594.1837995416577</v>
       </c>
       <c r="H66" t="n">
-        <v>-15.20587246066271</v>
+        <v>-15.63699259359703</v>
       </c>
       <c r="I66" t="n">
-        <v>-15.20587246066271</v>
+        <v>-15.63699259359703</v>
       </c>
       <c r="J66" t="n">
-        <v>-15.20587246066271</v>
+        <v>-15.63699259359703</v>
       </c>
       <c r="K66" t="n">
-        <v>-15.20587246066271</v>
+        <v>-15.63699259359703</v>
       </c>
       <c r="L66" t="n">
-        <v>-15.20587246066271</v>
+        <v>-15.63699259359703</v>
       </c>
       <c r="M66" t="n">
-        <v>-15.20587246066271</v>
+        <v>-15.63699259359703</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>576.1010160618034</v>
+        <v>578.4801393142523</v>
       </c>
     </row>
     <row r="67">
@@ -3972,37 +3972,37 @@
         <v>44958</v>
       </c>
       <c r="C67" t="n">
-        <v>592.3567625855617</v>
+        <v>595.2659279499449</v>
       </c>
       <c r="D67" t="n">
-        <v>538.8669439107398</v>
+        <v>543.0537707166613</v>
       </c>
       <c r="E67" t="n">
-        <v>596.9999028688346</v>
+        <v>601.127948675587</v>
       </c>
       <c r="F67" t="n">
-        <v>592.1942756712498</v>
+        <v>595.1903439098672</v>
       </c>
       <c r="G67" t="n">
-        <v>592.5470619451446</v>
+        <v>595.3482313659796</v>
       </c>
       <c r="H67" t="n">
-        <v>-23.75676374862655</v>
+        <v>-24.17297636390995</v>
       </c>
       <c r="I67" t="n">
-        <v>-23.75676374862655</v>
+        <v>-24.17297636390995</v>
       </c>
       <c r="J67" t="n">
-        <v>-23.75676374862655</v>
+        <v>-24.17297636390995</v>
       </c>
       <c r="K67" t="n">
-        <v>-23.75676374862655</v>
+        <v>-24.17297636390995</v>
       </c>
       <c r="L67" t="n">
-        <v>-23.75676374862655</v>
+        <v>-24.17297636390995</v>
       </c>
       <c r="M67" t="n">
-        <v>-23.75676374862655</v>
+        <v>-24.17297636390995</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>568.5999988369351</v>
+        <v>571.0929515860349</v>
       </c>
     </row>
     <row r="68">
@@ -4025,37 +4025,37 @@
         <v>44986</v>
       </c>
       <c r="C68" t="n">
-        <v>593.3050359328738</v>
+        <v>596.3035501815152</v>
       </c>
       <c r="D68" t="n">
-        <v>572.1171693830196</v>
+        <v>572.0266723082847</v>
       </c>
       <c r="E68" t="n">
-        <v>632.7964717297814</v>
+        <v>631.8625240017337</v>
       </c>
       <c r="F68" t="n">
-        <v>593.1186290900264</v>
+        <v>596.2150424213258</v>
       </c>
       <c r="G68" t="n">
-        <v>593.5201707882903</v>
+        <v>596.4025820139059</v>
       </c>
       <c r="H68" t="n">
-        <v>8.039359097942054</v>
+        <v>7.120526056624981</v>
       </c>
       <c r="I68" t="n">
-        <v>8.039359097942054</v>
+        <v>7.120526056624981</v>
       </c>
       <c r="J68" t="n">
-        <v>8.039359097942054</v>
+        <v>7.120526056624981</v>
       </c>
       <c r="K68" t="n">
-        <v>8.039359097942054</v>
+        <v>7.120526056624981</v>
       </c>
       <c r="L68" t="n">
-        <v>8.039359097942054</v>
+        <v>7.120526056624981</v>
       </c>
       <c r="M68" t="n">
-        <v>8.039359097942054</v>
+        <v>7.120526056624981</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>601.3443950308158</v>
+        <v>603.4240762381402</v>
       </c>
     </row>
     <row r="69">
@@ -4078,37 +4078,37 @@
         <v>45017</v>
       </c>
       <c r="C69" t="n">
-        <v>594.3549099959693</v>
+        <v>597.4523462236108</v>
       </c>
       <c r="D69" t="n">
-        <v>550.8651640131608</v>
+        <v>555.7785749350813</v>
       </c>
       <c r="E69" t="n">
-        <v>611.096867838026</v>
+        <v>614.3342432319844</v>
       </c>
       <c r="F69" t="n">
-        <v>594.1375190149454</v>
+        <v>597.3483851932241</v>
       </c>
       <c r="G69" t="n">
-        <v>594.6042396458234</v>
+        <v>597.5706339752206</v>
       </c>
       <c r="H69" t="n">
-        <v>-11.64695201301629</v>
+        <v>-12.53103116447785</v>
       </c>
       <c r="I69" t="n">
-        <v>-11.64695201301629</v>
+        <v>-12.53103116447785</v>
       </c>
       <c r="J69" t="n">
-        <v>-11.64695201301629</v>
+        <v>-12.53103116447785</v>
       </c>
       <c r="K69" t="n">
-        <v>-11.64695201301629</v>
+        <v>-12.53103116447785</v>
       </c>
       <c r="L69" t="n">
-        <v>-11.64695201301629</v>
+        <v>-12.53103116447785</v>
       </c>
       <c r="M69" t="n">
-        <v>-11.64695201301629</v>
+        <v>-12.53103116447785</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>582.707957982953</v>
+        <v>584.9213150591329</v>
       </c>
     </row>
     <row r="70">
@@ -4131,37 +4131,37 @@
         <v>45047</v>
       </c>
       <c r="C70" t="n">
-        <v>595.3709171538036</v>
+        <v>598.5640843288646</v>
       </c>
       <c r="D70" t="n">
-        <v>534.3255016411695</v>
+        <v>534.8844011157703</v>
       </c>
       <c r="E70" t="n">
-        <v>592.7985642468526</v>
+        <v>595.4526205179933</v>
       </c>
       <c r="F70" t="n">
-        <v>595.1214403832315</v>
+        <v>598.4450149945449</v>
       </c>
       <c r="G70" t="n">
-        <v>595.6544390481099</v>
+        <v>598.7006834490912</v>
       </c>
       <c r="H70" t="n">
-        <v>-32.70608315006481</v>
+        <v>-33.63648661554812</v>
       </c>
       <c r="I70" t="n">
-        <v>-32.70608315006481</v>
+        <v>-33.63648661554812</v>
       </c>
       <c r="J70" t="n">
-        <v>-32.70608315006481</v>
+        <v>-33.63648661554812</v>
       </c>
       <c r="K70" t="n">
-        <v>-32.70608315006481</v>
+        <v>-33.63648661554812</v>
       </c>
       <c r="L70" t="n">
-        <v>-32.70608315006481</v>
+        <v>-33.63648661554812</v>
       </c>
       <c r="M70" t="n">
-        <v>-32.70608315006481</v>
+        <v>-33.63648661554812</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>562.6648340037387</v>
+        <v>564.9275977133165</v>
       </c>
     </row>
     <row r="71">
@@ -4184,37 +4184,37 @@
         <v>45078</v>
       </c>
       <c r="C71" t="n">
-        <v>596.420791216899</v>
+        <v>599.7128803709602</v>
       </c>
       <c r="D71" t="n">
-        <v>539.701683327929</v>
+        <v>547.7082317537411</v>
       </c>
       <c r="E71" t="n">
-        <v>599.6900544423894</v>
+        <v>605.3488463465649</v>
       </c>
       <c r="F71" t="n">
-        <v>596.1337130244034</v>
+        <v>599.5755773183595</v>
       </c>
       <c r="G71" t="n">
-        <v>596.7347080619459</v>
+        <v>599.8727073179758</v>
       </c>
       <c r="H71" t="n">
-        <v>-27.72717124040991</v>
+        <v>-24.52045486408219</v>
       </c>
       <c r="I71" t="n">
-        <v>-27.72717124040991</v>
+        <v>-24.52045486408219</v>
       </c>
       <c r="J71" t="n">
-        <v>-27.72717124040991</v>
+        <v>-24.52045486408219</v>
       </c>
       <c r="K71" t="n">
-        <v>-27.72717124040991</v>
+        <v>-24.52045486408219</v>
       </c>
       <c r="L71" t="n">
-        <v>-27.72717124040991</v>
+        <v>-24.52045486408219</v>
       </c>
       <c r="M71" t="n">
-        <v>-27.72717124040991</v>
+        <v>-24.52045486408219</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>568.6936199764891</v>
+        <v>575.192425506878</v>
       </c>
     </row>
     <row r="72">
@@ -4237,37 +4237,37 @@
         <v>45108</v>
       </c>
       <c r="C72" t="n">
-        <v>597.4367983747335</v>
+        <v>600.824618476214</v>
       </c>
       <c r="D72" t="n">
-        <v>561.7005086937609</v>
+        <v>567.003134292408</v>
       </c>
       <c r="E72" t="n">
-        <v>622.278470492731</v>
+        <v>625.4480332014829</v>
       </c>
       <c r="F72" t="n">
-        <v>597.1156033914177</v>
+        <v>600.6674815590866</v>
       </c>
       <c r="G72" t="n">
-        <v>597.7865180431581</v>
+        <v>601.0064590388586</v>
       </c>
       <c r="H72" t="n">
-        <v>-4.953835100674561</v>
+        <v>-5.523550464880973</v>
       </c>
       <c r="I72" t="n">
-        <v>-4.953835100674561</v>
+        <v>-5.523550464880973</v>
       </c>
       <c r="J72" t="n">
-        <v>-4.953835100674561</v>
+        <v>-5.523550464880973</v>
       </c>
       <c r="K72" t="n">
-        <v>-4.953835100674561</v>
+        <v>-5.523550464880973</v>
       </c>
       <c r="L72" t="n">
-        <v>-4.953835100674561</v>
+        <v>-5.523550464880973</v>
       </c>
       <c r="M72" t="n">
-        <v>-4.953835100674561</v>
+        <v>-5.523550464880973</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>592.4829632740589</v>
+        <v>595.3010680113331</v>
       </c>
     </row>
     <row r="73">
@@ -4290,37 +4290,37 @@
         <v>45139</v>
       </c>
       <c r="C73" t="n">
-        <v>598.4866724378289</v>
+        <v>601.9734145183097</v>
       </c>
       <c r="D73" t="n">
-        <v>574.5508737563752</v>
+        <v>577.0981236387807</v>
       </c>
       <c r="E73" t="n">
-        <v>634.9671121167759</v>
+        <v>637.6747806607377</v>
       </c>
       <c r="F73" t="n">
-        <v>598.1228635538929</v>
+        <v>601.792095592546</v>
       </c>
       <c r="G73" t="n">
-        <v>598.8747631086108</v>
+        <v>602.1773161818805</v>
       </c>
       <c r="H73" t="n">
-        <v>6.375973937159233</v>
+        <v>5.795677360556292</v>
       </c>
       <c r="I73" t="n">
-        <v>6.375973937159233</v>
+        <v>5.795677360556292</v>
       </c>
       <c r="J73" t="n">
-        <v>6.375973937159233</v>
+        <v>5.795677360556292</v>
       </c>
       <c r="K73" t="n">
-        <v>6.375973937159233</v>
+        <v>5.795677360556292</v>
       </c>
       <c r="L73" t="n">
-        <v>6.375973937159233</v>
+        <v>5.795677360556292</v>
       </c>
       <c r="M73" t="n">
-        <v>6.375973937159233</v>
+        <v>5.795677360556292</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>604.8626463749881</v>
+        <v>607.769091878866</v>
       </c>
     </row>
     <row r="74">
@@ -4343,37 +4343,37 @@
         <v>45170</v>
       </c>
       <c r="C74" t="n">
-        <v>599.5365465009245</v>
+        <v>603.1222105604053</v>
       </c>
       <c r="D74" t="n">
-        <v>612.7098304508683</v>
+        <v>612.6720829979855</v>
       </c>
       <c r="E74" t="n">
-        <v>669.1450235593002</v>
+        <v>673.9320614837147</v>
       </c>
       <c r="F74" t="n">
-        <v>599.1225192582509</v>
+        <v>602.9189139286373</v>
       </c>
       <c r="G74" t="n">
-        <v>599.9744760589701</v>
+        <v>603.3469887181051</v>
       </c>
       <c r="H74" t="n">
-        <v>40.77325410661889</v>
+        <v>40.27678353924954</v>
       </c>
       <c r="I74" t="n">
-        <v>40.77325410661889</v>
+        <v>40.27678353924954</v>
       </c>
       <c r="J74" t="n">
-        <v>40.77325410661889</v>
+        <v>40.27678353924954</v>
       </c>
       <c r="K74" t="n">
-        <v>40.77325410661889</v>
+        <v>40.27678353924954</v>
       </c>
       <c r="L74" t="n">
-        <v>40.77325410661889</v>
+        <v>40.27678353924954</v>
       </c>
       <c r="M74" t="n">
-        <v>40.77325410661889</v>
+        <v>40.27678353924954</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>640.3098006075434</v>
+        <v>643.3989940996548</v>
       </c>
     </row>
     <row r="75">
@@ -4396,37 +4396,37 @@
         <v>45200</v>
       </c>
       <c r="C75" t="n">
-        <v>600.5525536587588</v>
+        <v>604.2339486656591</v>
       </c>
       <c r="D75" t="n">
-        <v>609.3718146778391</v>
+        <v>613.6697919706237</v>
       </c>
       <c r="E75" t="n">
-        <v>668.7647487199456</v>
+        <v>672.7918064301585</v>
       </c>
       <c r="F75" t="n">
-        <v>600.096854644184</v>
+        <v>604.0068583485833</v>
       </c>
       <c r="G75" t="n">
-        <v>601.0119800140893</v>
+        <v>604.4793011549108</v>
       </c>
       <c r="H75" t="n">
-        <v>38.95446720428661</v>
+        <v>38.49649211971698</v>
       </c>
       <c r="I75" t="n">
-        <v>38.95446720428661</v>
+        <v>38.49649211971698</v>
       </c>
       <c r="J75" t="n">
-        <v>38.95446720428661</v>
+        <v>38.49649211971698</v>
       </c>
       <c r="K75" t="n">
-        <v>38.95446720428661</v>
+        <v>38.49649211971698</v>
       </c>
       <c r="L75" t="n">
-        <v>38.95446720428661</v>
+        <v>38.49649211971698</v>
       </c>
       <c r="M75" t="n">
-        <v>38.95446720428661</v>
+        <v>38.49649211971698</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4438,7 +4438,60 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>639.5070208630455</v>
+        <v>642.7304407853761</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="C76" t="n">
+        <v>605.3827447077548</v>
+      </c>
+      <c r="D76" t="n">
+        <v>607.8903732734146</v>
+      </c>
+      <c r="E76" t="n">
+        <v>665.4610397538592</v>
+      </c>
+      <c r="F76" t="n">
+        <v>605.1327839683443</v>
+      </c>
+      <c r="G76" t="n">
+        <v>605.6509181579831</v>
+      </c>
+      <c r="H76" t="n">
+        <v>31.38411203278707</v>
+      </c>
+      <c r="I76" t="n">
+        <v>31.38411203278707</v>
+      </c>
+      <c r="J76" t="n">
+        <v>31.38411203278707</v>
+      </c>
+      <c r="K76" t="n">
+        <v>31.38411203278707</v>
+      </c>
+      <c r="L76" t="n">
+        <v>31.38411203278707</v>
+      </c>
+      <c r="M76" t="n">
+        <v>31.38411203278707</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>636.7668567405418</v>
       </c>
     </row>
   </sheetData>
